--- a/Автотестирование ЦПМПК.xlsx
+++ b/Автотестирование ЦПМПК.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbori\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PHP\Projects\CPMPK\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1467,24 +1467,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2817,8 +2817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1245" workbookViewId="0">
-      <selection activeCell="I1259" sqref="I1259"/>
+    <sheetView tabSelected="1" topLeftCell="A792" workbookViewId="0">
+      <selection activeCell="J812" sqref="J812"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2868,11 +2868,11 @@
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="33"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="22">
         <v>2</v>
       </c>
@@ -2882,11 +2882,11 @@
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="30"/>
+      <c r="F3" s="35"/>
     </row>
     <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="22">
         <v>3</v>
       </c>
@@ -2896,11 +2896,11 @@
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="30"/>
+      <c r="F4" s="35"/>
     </row>
     <row r="5" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="22">
         <v>4</v>
       </c>
@@ -2910,11 +2910,11 @@
       <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="30"/>
+      <c r="F5" s="35"/>
     </row>
     <row r="6" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="22">
         <v>5</v>
       </c>
@@ -2924,11 +2924,11 @@
       <c r="E6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="30"/>
+      <c r="F6" s="35"/>
     </row>
     <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="22">
         <v>6</v>
       </c>
@@ -2938,7 +2938,7 @@
       <c r="E7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="30"/>
+      <c r="F7" s="35"/>
     </row>
     <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="27">
@@ -2961,8 +2961,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="22">
         <v>2</v>
       </c>
@@ -2972,11 +2972,11 @@
       <c r="E9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="30"/>
+      <c r="F9" s="35"/>
     </row>
     <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="22">
         <v>3</v>
       </c>
@@ -2986,7 +2986,7 @@
       <c r="E10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="30"/>
+      <c r="F10" s="35"/>
     </row>
     <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="27">
@@ -3004,11 +3004,11 @@
       <c r="E11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="31"/>
+      <c r="F11" s="36"/>
     </row>
     <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="22">
         <v>2</v>
       </c>
@@ -3018,11 +3018,11 @@
       <c r="E12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="30"/>
+      <c r="F12" s="35"/>
     </row>
     <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="22">
         <v>3</v>
       </c>
@@ -3032,11 +3032,11 @@
       <c r="E13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="30"/>
+      <c r="F13" s="35"/>
     </row>
     <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="22">
         <v>4</v>
       </c>
@@ -3046,11 +3046,11 @@
       <c r="E14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="30"/>
+      <c r="F14" s="35"/>
     </row>
     <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="22">
         <v>5</v>
       </c>
@@ -3060,11 +3060,11 @@
       <c r="E15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="30"/>
+      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="22">
         <v>6</v>
       </c>
@@ -3074,11 +3074,11 @@
       <c r="E16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="30"/>
+      <c r="F16" s="35"/>
     </row>
     <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="22">
         <v>7</v>
       </c>
@@ -3088,7 +3088,7 @@
       <c r="E17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="30"/>
+      <c r="F17" s="35"/>
     </row>
     <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="27">
@@ -3106,11 +3106,11 @@
       <c r="E18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="31"/>
+      <c r="F18" s="36"/>
     </row>
     <row r="19" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="22">
         <v>2</v>
       </c>
@@ -3120,11 +3120,11 @@
       <c r="E19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="30"/>
+      <c r="F19" s="35"/>
     </row>
     <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="22">
         <v>3</v>
       </c>
@@ -3134,11 +3134,11 @@
       <c r="E20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="30"/>
+      <c r="F20" s="35"/>
     </row>
     <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="22">
         <v>4</v>
       </c>
@@ -3148,11 +3148,11 @@
       <c r="E21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="30"/>
+      <c r="F21" s="35"/>
     </row>
     <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="22">
         <v>5</v>
       </c>
@@ -3162,11 +3162,11 @@
       <c r="E22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="30"/>
+      <c r="F22" s="35"/>
     </row>
     <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="22">
         <v>6</v>
       </c>
@@ -3176,11 +3176,11 @@
       <c r="E23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="30"/>
+      <c r="F23" s="35"/>
     </row>
     <row r="24" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="22">
         <v>7</v>
       </c>
@@ -3190,11 +3190,11 @@
       <c r="E24" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="30"/>
+      <c r="F24" s="35"/>
     </row>
     <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
       <c r="C25" s="22">
         <v>8</v>
       </c>
@@ -3204,7 +3204,7 @@
       <c r="E25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="30"/>
+      <c r="F25" s="35"/>
     </row>
     <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="27">
@@ -3227,8 +3227,8 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
       <c r="C27" s="22">
         <v>2</v>
       </c>
@@ -3238,11 +3238,11 @@
       <c r="E27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="30"/>
+      <c r="F27" s="35"/>
     </row>
     <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
       <c r="C28" s="22">
         <v>3</v>
       </c>
@@ -3252,11 +3252,11 @@
       <c r="E28" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="30"/>
+      <c r="F28" s="35"/>
     </row>
     <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
       <c r="C29" s="22">
         <v>4</v>
       </c>
@@ -3266,11 +3266,11 @@
       <c r="E29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F29" s="30"/>
+      <c r="F29" s="35"/>
     </row>
     <row r="30" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
       <c r="C30" s="22">
         <v>5</v>
       </c>
@@ -3280,11 +3280,11 @@
       <c r="E30" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F30" s="30"/>
+      <c r="F30" s="35"/>
     </row>
     <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
       <c r="C31" s="22">
         <v>6</v>
       </c>
@@ -3294,11 +3294,11 @@
       <c r="E31" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F31" s="30"/>
+      <c r="F31" s="35"/>
     </row>
     <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="22">
         <v>7</v>
       </c>
@@ -3308,11 +3308,11 @@
       <c r="E32" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F32" s="30"/>
+      <c r="F32" s="35"/>
     </row>
     <row r="33" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
       <c r="C33" s="22">
         <v>8</v>
       </c>
@@ -3322,11 +3322,11 @@
       <c r="E33" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="30"/>
+      <c r="F33" s="35"/>
     </row>
     <row r="34" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
       <c r="C34" s="22">
         <v>10</v>
       </c>
@@ -3336,11 +3336,11 @@
       <c r="E34" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="30"/>
+      <c r="F34" s="35"/>
     </row>
     <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
       <c r="C35" s="22">
         <v>11</v>
       </c>
@@ -3350,11 +3350,11 @@
       <c r="E35" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F35" s="30"/>
+      <c r="F35" s="35"/>
     </row>
     <row r="36" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
-      <c r="B36" s="30"/>
+      <c r="A36" s="35"/>
+      <c r="B36" s="35"/>
       <c r="C36" s="22">
         <v>12</v>
       </c>
@@ -3364,11 +3364,11 @@
       <c r="E36" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F36" s="30"/>
+      <c r="F36" s="35"/>
     </row>
     <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="30"/>
-      <c r="B37" s="30"/>
+      <c r="A37" s="35"/>
+      <c r="B37" s="35"/>
       <c r="C37" s="22">
         <v>13</v>
       </c>
@@ -3378,11 +3378,11 @@
       <c r="E37" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F37" s="30"/>
+      <c r="F37" s="35"/>
     </row>
     <row r="38" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="30"/>
-      <c r="B38" s="30"/>
+      <c r="A38" s="35"/>
+      <c r="B38" s="35"/>
       <c r="C38" s="22">
         <v>14</v>
       </c>
@@ -3392,11 +3392,11 @@
       <c r="E38" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F38" s="30"/>
+      <c r="F38" s="35"/>
     </row>
     <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
       <c r="C39" s="22">
         <v>15</v>
       </c>
@@ -3406,11 +3406,11 @@
       <c r="E39" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F39" s="30"/>
+      <c r="F39" s="35"/>
     </row>
     <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30"/>
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
       <c r="C40" s="22">
         <v>16</v>
       </c>
@@ -3420,11 +3420,11 @@
       <c r="E40" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F40" s="30"/>
+      <c r="F40" s="35"/>
     </row>
     <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="30"/>
-      <c r="B41" s="30"/>
+      <c r="A41" s="35"/>
+      <c r="B41" s="35"/>
       <c r="C41" s="22">
         <v>8</v>
       </c>
@@ -3434,7 +3434,7 @@
       <c r="E41" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F41" s="30"/>
+      <c r="F41" s="35"/>
     </row>
     <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="27">
@@ -3452,11 +3452,11 @@
       <c r="E42" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F42" s="31"/>
+      <c r="F42" s="36"/>
     </row>
     <row r="43" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30"/>
+      <c r="A43" s="35"/>
+      <c r="B43" s="35"/>
       <c r="C43" s="22">
         <v>2</v>
       </c>
@@ -3466,11 +3466,11 @@
       <c r="E43" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="30"/>
+      <c r="F43" s="35"/>
     </row>
     <row r="44" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="30"/>
-      <c r="B44" s="30"/>
+      <c r="A44" s="35"/>
+      <c r="B44" s="35"/>
       <c r="C44" s="22">
         <v>3</v>
       </c>
@@ -3480,11 +3480,11 @@
       <c r="E44" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F44" s="30"/>
+      <c r="F44" s="35"/>
     </row>
     <row r="45" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="30"/>
-      <c r="B45" s="30"/>
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
       <c r="C45" s="22">
         <v>4</v>
       </c>
@@ -3494,11 +3494,11 @@
       <c r="E45" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F45" s="30"/>
+      <c r="F45" s="35"/>
     </row>
     <row r="46" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="30"/>
-      <c r="B46" s="30"/>
+      <c r="A46" s="35"/>
+      <c r="B46" s="35"/>
       <c r="C46" s="22">
         <v>5</v>
       </c>
@@ -3508,11 +3508,11 @@
       <c r="E46" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F46" s="30"/>
+      <c r="F46" s="35"/>
     </row>
     <row r="47" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="30"/>
-      <c r="B47" s="30"/>
+      <c r="A47" s="35"/>
+      <c r="B47" s="35"/>
       <c r="C47" s="22">
         <v>6</v>
       </c>
@@ -3522,11 +3522,11 @@
       <c r="E47" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F47" s="30"/>
+      <c r="F47" s="35"/>
     </row>
     <row r="48" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="30"/>
-      <c r="B48" s="30"/>
+      <c r="A48" s="35"/>
+      <c r="B48" s="35"/>
       <c r="C48" s="22">
         <v>7</v>
       </c>
@@ -3536,11 +3536,11 @@
       <c r="E48" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F48" s="30"/>
+      <c r="F48" s="35"/>
     </row>
     <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="30"/>
-      <c r="B49" s="30"/>
+      <c r="A49" s="35"/>
+      <c r="B49" s="35"/>
       <c r="C49" s="22">
         <v>8</v>
       </c>
@@ -3550,11 +3550,11 @@
       <c r="E49" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F49" s="30"/>
+      <c r="F49" s="35"/>
     </row>
     <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="30"/>
-      <c r="B50" s="30"/>
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
       <c r="C50" s="22">
         <v>9</v>
       </c>
@@ -3564,11 +3564,11 @@
       <c r="E50" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F50" s="30"/>
+      <c r="F50" s="35"/>
     </row>
     <row r="51" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A51" s="30"/>
-      <c r="B51" s="30"/>
+      <c r="A51" s="35"/>
+      <c r="B51" s="35"/>
       <c r="C51" s="22">
         <v>10</v>
       </c>
@@ -3578,11 +3578,11 @@
       <c r="E51" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F51" s="30"/>
+      <c r="F51" s="35"/>
     </row>
     <row r="52" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="30"/>
-      <c r="B52" s="30"/>
+      <c r="A52" s="35"/>
+      <c r="B52" s="35"/>
       <c r="C52" s="22">
         <v>11</v>
       </c>
@@ -3592,11 +3592,11 @@
       <c r="E52" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F52" s="30"/>
+      <c r="F52" s="35"/>
     </row>
     <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="30"/>
-      <c r="B53" s="30"/>
+      <c r="A53" s="35"/>
+      <c r="B53" s="35"/>
       <c r="C53" s="22">
         <v>12</v>
       </c>
@@ -3606,11 +3606,11 @@
       <c r="E53" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F53" s="30"/>
+      <c r="F53" s="35"/>
     </row>
     <row r="54" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A54" s="30"/>
-      <c r="B54" s="30"/>
+      <c r="A54" s="35"/>
+      <c r="B54" s="35"/>
       <c r="C54" s="22">
         <v>13</v>
       </c>
@@ -3620,11 +3620,11 @@
       <c r="E54" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F54" s="30"/>
+      <c r="F54" s="35"/>
     </row>
     <row r="55" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A55" s="30"/>
-      <c r="B55" s="30"/>
+      <c r="A55" s="35"/>
+      <c r="B55" s="35"/>
       <c r="C55" s="22">
         <v>14</v>
       </c>
@@ -3634,11 +3634,11 @@
       <c r="E55" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F55" s="30"/>
+      <c r="F55" s="35"/>
     </row>
     <row r="56" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A56" s="30"/>
-      <c r="B56" s="30"/>
+      <c r="A56" s="35"/>
+      <c r="B56" s="35"/>
       <c r="C56" s="22">
         <v>15</v>
       </c>
@@ -3648,11 +3648,11 @@
       <c r="E56" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F56" s="30"/>
+      <c r="F56" s="35"/>
     </row>
     <row r="57" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A57" s="30"/>
-      <c r="B57" s="30"/>
+      <c r="A57" s="35"/>
+      <c r="B57" s="35"/>
       <c r="C57" s="22">
         <v>16</v>
       </c>
@@ -3662,11 +3662,11 @@
       <c r="E57" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F57" s="30"/>
+      <c r="F57" s="35"/>
     </row>
     <row r="58" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A58" s="30"/>
-      <c r="B58" s="30"/>
+      <c r="A58" s="35"/>
+      <c r="B58" s="35"/>
       <c r="C58" s="22">
         <v>17</v>
       </c>
@@ -3676,11 +3676,11 @@
       <c r="E58" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F58" s="30"/>
+      <c r="F58" s="35"/>
     </row>
     <row r="59" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="30"/>
-      <c r="B59" s="30"/>
+      <c r="A59" s="35"/>
+      <c r="B59" s="35"/>
       <c r="C59" s="22">
         <v>18</v>
       </c>
@@ -3690,10 +3690,10 @@
       <c r="E59" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F59" s="30"/>
+      <c r="F59" s="35"/>
     </row>
     <row r="60" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="32">
+      <c r="A60" s="31">
         <v>7</v>
       </c>
       <c r="B60" s="29" t="s">
@@ -3708,11 +3708,11 @@
       <c r="E60" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F60" s="30"/>
+      <c r="F60" s="35"/>
     </row>
     <row r="61" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A61" s="30"/>
-      <c r="B61" s="30"/>
+      <c r="A61" s="35"/>
+      <c r="B61" s="35"/>
       <c r="C61" s="24">
         <v>2</v>
       </c>
@@ -3722,11 +3722,11 @@
       <c r="E61" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F61" s="30"/>
+      <c r="F61" s="35"/>
     </row>
     <row r="62" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A62" s="30"/>
-      <c r="B62" s="30"/>
+      <c r="A62" s="35"/>
+      <c r="B62" s="35"/>
       <c r="C62" s="24">
         <v>3</v>
       </c>
@@ -3736,11 +3736,11 @@
       <c r="E62" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F62" s="30"/>
+      <c r="F62" s="35"/>
     </row>
     <row r="63" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="30"/>
-      <c r="B63" s="30"/>
+      <c r="A63" s="35"/>
+      <c r="B63" s="35"/>
       <c r="C63" s="24">
         <v>4</v>
       </c>
@@ -3750,11 +3750,11 @@
       <c r="E63" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F63" s="30"/>
+      <c r="F63" s="35"/>
     </row>
     <row r="64" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A64" s="30"/>
-      <c r="B64" s="30"/>
+      <c r="A64" s="35"/>
+      <c r="B64" s="35"/>
       <c r="C64" s="24">
         <v>5</v>
       </c>
@@ -3764,11 +3764,11 @@
       <c r="E64" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F64" s="30"/>
+      <c r="F64" s="35"/>
     </row>
     <row r="65" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A65" s="30"/>
-      <c r="B65" s="30"/>
+      <c r="A65" s="35"/>
+      <c r="B65" s="35"/>
       <c r="C65" s="24">
         <v>6</v>
       </c>
@@ -3778,10 +3778,10 @@
       <c r="E65" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F65" s="30"/>
+      <c r="F65" s="35"/>
     </row>
     <row r="66" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="32">
+      <c r="A66" s="31">
         <v>8</v>
       </c>
       <c r="B66" s="29" t="s">
@@ -3796,10 +3796,10 @@
       <c r="E66" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F66" s="36"/>
+      <c r="F66" s="32"/>
     </row>
     <row r="67" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A67" s="32"/>
+      <c r="A67" s="31"/>
       <c r="B67" s="29"/>
       <c r="C67" s="24">
         <v>2</v>
@@ -3810,10 +3810,10 @@
       <c r="E67" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F67" s="36"/>
+      <c r="F67" s="32"/>
     </row>
     <row r="68" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A68" s="32"/>
+      <c r="A68" s="31"/>
       <c r="B68" s="29"/>
       <c r="C68" s="24">
         <v>3</v>
@@ -3824,10 +3824,10 @@
       <c r="E68" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F68" s="36"/>
+      <c r="F68" s="32"/>
     </row>
     <row r="69" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="32"/>
+      <c r="A69" s="31"/>
       <c r="B69" s="29"/>
       <c r="C69" s="24">
         <v>4</v>
@@ -3838,10 +3838,10 @@
       <c r="E69" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="F69" s="36"/>
+      <c r="F69" s="32"/>
     </row>
     <row r="70" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A70" s="32"/>
+      <c r="A70" s="31"/>
       <c r="B70" s="29"/>
       <c r="C70" s="24">
         <v>5</v>
@@ -3852,10 +3852,10 @@
       <c r="E70" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F70" s="36"/>
+      <c r="F70" s="32"/>
     </row>
     <row r="71" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="32"/>
+      <c r="A71" s="31"/>
       <c r="B71" s="29"/>
       <c r="C71" s="24">
         <v>6</v>
@@ -3866,10 +3866,10 @@
       <c r="E71" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F71" s="36"/>
+      <c r="F71" s="32"/>
     </row>
     <row r="72" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A72" s="32"/>
+      <c r="A72" s="31"/>
       <c r="B72" s="29"/>
       <c r="C72" s="24">
         <v>7</v>
@@ -3880,12 +3880,12 @@
       <c r="E72" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F72" s="36"/>
+      <c r="F72" s="32"/>
     </row>
     <row r="73" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="32"/>
+      <c r="A73" s="31"/>
       <c r="B73" s="29"/>
-      <c r="C73" s="32">
+      <c r="C73" s="31">
         <v>8</v>
       </c>
       <c r="D73" s="27" t="s">
@@ -3894,212 +3894,212 @@
       <c r="E73" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="F73" s="36"/>
+      <c r="F73" s="32"/>
     </row>
     <row r="74" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A74" s="32"/>
+      <c r="A74" s="31"/>
       <c r="B74" s="29"/>
-      <c r="C74" s="32"/>
+      <c r="C74" s="31"/>
       <c r="D74" s="27"/>
       <c r="E74" s="27"/>
-      <c r="F74" s="36"/>
+      <c r="F74" s="32"/>
     </row>
     <row r="75" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A75" s="32"/>
+      <c r="A75" s="31"/>
       <c r="B75" s="29"/>
-      <c r="C75" s="32"/>
+      <c r="C75" s="31"/>
       <c r="D75" s="27"/>
       <c r="E75" s="27"/>
-      <c r="F75" s="36"/>
+      <c r="F75" s="32"/>
     </row>
     <row r="76" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A76" s="32"/>
+      <c r="A76" s="31"/>
       <c r="B76" s="29"/>
-      <c r="C76" s="32"/>
+      <c r="C76" s="31"/>
       <c r="D76" s="27"/>
       <c r="E76" s="27"/>
-      <c r="F76" s="36"/>
+      <c r="F76" s="32"/>
     </row>
     <row r="77" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A77" s="32"/>
+      <c r="A77" s="31"/>
       <c r="B77" s="29"/>
-      <c r="C77" s="32"/>
+      <c r="C77" s="31"/>
       <c r="D77" s="27"/>
       <c r="E77" s="27"/>
-      <c r="F77" s="36"/>
+      <c r="F77" s="32"/>
     </row>
     <row r="78" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A78" s="32"/>
+      <c r="A78" s="31"/>
       <c r="B78" s="29"/>
-      <c r="C78" s="32"/>
+      <c r="C78" s="31"/>
       <c r="D78" s="27"/>
       <c r="E78" s="27"/>
-      <c r="F78" s="36"/>
+      <c r="F78" s="32"/>
     </row>
     <row r="79" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A79" s="32"/>
+      <c r="A79" s="31"/>
       <c r="B79" s="29"/>
-      <c r="C79" s="32"/>
+      <c r="C79" s="31"/>
       <c r="D79" s="27"/>
       <c r="E79" s="27"/>
-      <c r="F79" s="36"/>
+      <c r="F79" s="32"/>
     </row>
     <row r="80" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A80" s="32"/>
+      <c r="A80" s="31"/>
       <c r="B80" s="29"/>
-      <c r="C80" s="32"/>
+      <c r="C80" s="31"/>
       <c r="D80" s="27"/>
       <c r="E80" s="27"/>
-      <c r="F80" s="36"/>
+      <c r="F80" s="32"/>
     </row>
     <row r="81" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A81" s="32"/>
+      <c r="A81" s="31"/>
       <c r="B81" s="29"/>
-      <c r="C81" s="32"/>
+      <c r="C81" s="31"/>
       <c r="D81" s="27"/>
       <c r="E81" s="27"/>
-      <c r="F81" s="36"/>
+      <c r="F81" s="32"/>
     </row>
     <row r="82" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A82" s="32"/>
+      <c r="A82" s="31"/>
       <c r="B82" s="29"/>
-      <c r="C82" s="32"/>
+      <c r="C82" s="31"/>
       <c r="D82" s="27"/>
       <c r="E82" s="27"/>
-      <c r="F82" s="36"/>
+      <c r="F82" s="32"/>
     </row>
     <row r="83" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A83" s="32"/>
+      <c r="A83" s="31"/>
       <c r="B83" s="29"/>
-      <c r="C83" s="32"/>
+      <c r="C83" s="31"/>
       <c r="D83" s="27"/>
       <c r="E83" s="27"/>
-      <c r="F83" s="36"/>
+      <c r="F83" s="32"/>
     </row>
     <row r="84" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A84" s="32"/>
+      <c r="A84" s="31"/>
       <c r="B84" s="29"/>
-      <c r="C84" s="32"/>
+      <c r="C84" s="31"/>
       <c r="D84" s="27"/>
       <c r="E84" s="27"/>
-      <c r="F84" s="36"/>
+      <c r="F84" s="32"/>
     </row>
     <row r="85" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A85" s="32"/>
+      <c r="A85" s="31"/>
       <c r="B85" s="29"/>
-      <c r="C85" s="32"/>
+      <c r="C85" s="31"/>
       <c r="D85" s="27"/>
       <c r="E85" s="27"/>
-      <c r="F85" s="36"/>
+      <c r="F85" s="32"/>
     </row>
     <row r="86" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A86" s="32"/>
+      <c r="A86" s="31"/>
       <c r="B86" s="29"/>
-      <c r="C86" s="32"/>
+      <c r="C86" s="31"/>
       <c r="D86" s="27"/>
       <c r="E86" s="27"/>
-      <c r="F86" s="36"/>
+      <c r="F86" s="32"/>
     </row>
     <row r="87" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A87" s="32"/>
+      <c r="A87" s="31"/>
       <c r="B87" s="29"/>
-      <c r="C87" s="32"/>
+      <c r="C87" s="31"/>
       <c r="D87" s="27"/>
       <c r="E87" s="27"/>
-      <c r="F87" s="36"/>
+      <c r="F87" s="32"/>
     </row>
     <row r="88" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A88" s="32"/>
+      <c r="A88" s="31"/>
       <c r="B88" s="29"/>
-      <c r="C88" s="32"/>
+      <c r="C88" s="31"/>
       <c r="D88" s="27"/>
       <c r="E88" s="27"/>
-      <c r="F88" s="36"/>
+      <c r="F88" s="32"/>
     </row>
     <row r="89" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A89" s="32"/>
+      <c r="A89" s="31"/>
       <c r="B89" s="29"/>
-      <c r="C89" s="32"/>
+      <c r="C89" s="31"/>
       <c r="D89" s="27"/>
       <c r="E89" s="27"/>
-      <c r="F89" s="36"/>
+      <c r="F89" s="32"/>
     </row>
     <row r="90" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A90" s="32"/>
+      <c r="A90" s="31"/>
       <c r="B90" s="29"/>
-      <c r="C90" s="32"/>
+      <c r="C90" s="31"/>
       <c r="D90" s="27"/>
       <c r="E90" s="27"/>
-      <c r="F90" s="36"/>
+      <c r="F90" s="32"/>
     </row>
     <row r="91" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A91" s="32"/>
+      <c r="A91" s="31"/>
       <c r="B91" s="29"/>
-      <c r="C91" s="32"/>
+      <c r="C91" s="31"/>
       <c r="D91" s="27"/>
       <c r="E91" s="27"/>
-      <c r="F91" s="36"/>
+      <c r="F91" s="32"/>
     </row>
     <row r="92" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A92" s="32"/>
+      <c r="A92" s="31"/>
       <c r="B92" s="29"/>
-      <c r="C92" s="32"/>
+      <c r="C92" s="31"/>
       <c r="D92" s="27"/>
       <c r="E92" s="27"/>
-      <c r="F92" s="36"/>
+      <c r="F92" s="32"/>
     </row>
     <row r="93" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A93" s="32"/>
+      <c r="A93" s="31"/>
       <c r="B93" s="29"/>
-      <c r="C93" s="32"/>
+      <c r="C93" s="31"/>
       <c r="D93" s="27"/>
       <c r="E93" s="27"/>
-      <c r="F93" s="36"/>
+      <c r="F93" s="32"/>
     </row>
     <row r="94" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A94" s="32"/>
+      <c r="A94" s="31"/>
       <c r="B94" s="29"/>
-      <c r="C94" s="32"/>
+      <c r="C94" s="31"/>
       <c r="D94" s="27"/>
       <c r="E94" s="27"/>
-      <c r="F94" s="36"/>
+      <c r="F94" s="32"/>
     </row>
     <row r="95" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A95" s="32"/>
+      <c r="A95" s="31"/>
       <c r="B95" s="29"/>
-      <c r="C95" s="32"/>
+      <c r="C95" s="31"/>
       <c r="D95" s="27"/>
       <c r="E95" s="27"/>
-      <c r="F95" s="36"/>
+      <c r="F95" s="32"/>
     </row>
     <row r="96" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A96" s="32"/>
+      <c r="A96" s="31"/>
       <c r="B96" s="29"/>
-      <c r="C96" s="32"/>
+      <c r="C96" s="31"/>
       <c r="D96" s="27"/>
       <c r="E96" s="27"/>
-      <c r="F96" s="36"/>
+      <c r="F96" s="32"/>
     </row>
     <row r="97" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A97" s="32"/>
+      <c r="A97" s="31"/>
       <c r="B97" s="29"/>
-      <c r="C97" s="32"/>
+      <c r="C97" s="31"/>
       <c r="D97" s="27"/>
       <c r="E97" s="27"/>
-      <c r="F97" s="36"/>
+      <c r="F97" s="32"/>
     </row>
     <row r="98" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A98" s="32"/>
+      <c r="A98" s="31"/>
       <c r="B98" s="29"/>
-      <c r="C98" s="32"/>
+      <c r="C98" s="31"/>
       <c r="D98" s="27"/>
       <c r="E98" s="27"/>
-      <c r="F98" s="36"/>
+      <c r="F98" s="32"/>
     </row>
     <row r="99" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="32"/>
+      <c r="A99" s="31"/>
       <c r="B99" s="29"/>
-      <c r="C99" s="32">
+      <c r="C99" s="31">
         <v>9</v>
       </c>
       <c r="D99" s="26" t="s">
@@ -4108,204 +4108,204 @@
       <c r="E99" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="F99" s="36"/>
+      <c r="F99" s="32"/>
     </row>
     <row r="100" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A100" s="32"/>
+      <c r="A100" s="31"/>
       <c r="B100" s="29"/>
-      <c r="C100" s="32"/>
+      <c r="C100" s="31"/>
       <c r="D100" s="26"/>
       <c r="E100" s="26"/>
-      <c r="F100" s="36"/>
+      <c r="F100" s="32"/>
     </row>
     <row r="101" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A101" s="32"/>
+      <c r="A101" s="31"/>
       <c r="B101" s="29"/>
-      <c r="C101" s="32"/>
+      <c r="C101" s="31"/>
       <c r="D101" s="26"/>
       <c r="E101" s="26"/>
-      <c r="F101" s="36"/>
+      <c r="F101" s="32"/>
     </row>
     <row r="102" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A102" s="32"/>
+      <c r="A102" s="31"/>
       <c r="B102" s="29"/>
-      <c r="C102" s="32"/>
+      <c r="C102" s="31"/>
       <c r="D102" s="26"/>
       <c r="E102" s="26"/>
-      <c r="F102" s="36"/>
+      <c r="F102" s="32"/>
     </row>
     <row r="103" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A103" s="32"/>
+      <c r="A103" s="31"/>
       <c r="B103" s="29"/>
-      <c r="C103" s="32"/>
+      <c r="C103" s="31"/>
       <c r="D103" s="26"/>
       <c r="E103" s="26"/>
-      <c r="F103" s="36"/>
+      <c r="F103" s="32"/>
     </row>
     <row r="104" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A104" s="32"/>
+      <c r="A104" s="31"/>
       <c r="B104" s="29"/>
-      <c r="C104" s="32"/>
+      <c r="C104" s="31"/>
       <c r="D104" s="26"/>
       <c r="E104" s="26"/>
-      <c r="F104" s="36"/>
+      <c r="F104" s="32"/>
     </row>
     <row r="105" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A105" s="32"/>
+      <c r="A105" s="31"/>
       <c r="B105" s="29"/>
-      <c r="C105" s="32"/>
+      <c r="C105" s="31"/>
       <c r="D105" s="26"/>
       <c r="E105" s="26"/>
-      <c r="F105" s="36"/>
+      <c r="F105" s="32"/>
     </row>
     <row r="106" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A106" s="32"/>
+      <c r="A106" s="31"/>
       <c r="B106" s="29"/>
-      <c r="C106" s="32"/>
+      <c r="C106" s="31"/>
       <c r="D106" s="26"/>
       <c r="E106" s="26"/>
-      <c r="F106" s="36"/>
+      <c r="F106" s="32"/>
     </row>
     <row r="107" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A107" s="32"/>
+      <c r="A107" s="31"/>
       <c r="B107" s="29"/>
-      <c r="C107" s="32"/>
+      <c r="C107" s="31"/>
       <c r="D107" s="26"/>
       <c r="E107" s="26"/>
-      <c r="F107" s="36"/>
+      <c r="F107" s="32"/>
     </row>
     <row r="108" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A108" s="32"/>
+      <c r="A108" s="31"/>
       <c r="B108" s="29"/>
-      <c r="C108" s="32"/>
+      <c r="C108" s="31"/>
       <c r="D108" s="26"/>
       <c r="E108" s="26"/>
-      <c r="F108" s="36"/>
+      <c r="F108" s="32"/>
     </row>
     <row r="109" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A109" s="32"/>
+      <c r="A109" s="31"/>
       <c r="B109" s="29"/>
-      <c r="C109" s="32"/>
+      <c r="C109" s="31"/>
       <c r="D109" s="26"/>
       <c r="E109" s="26"/>
-      <c r="F109" s="36"/>
+      <c r="F109" s="32"/>
     </row>
     <row r="110" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A110" s="32"/>
+      <c r="A110" s="31"/>
       <c r="B110" s="29"/>
-      <c r="C110" s="32"/>
+      <c r="C110" s="31"/>
       <c r="D110" s="26"/>
       <c r="E110" s="26"/>
-      <c r="F110" s="36"/>
+      <c r="F110" s="32"/>
     </row>
     <row r="111" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A111" s="32"/>
+      <c r="A111" s="31"/>
       <c r="B111" s="29"/>
-      <c r="C111" s="32"/>
+      <c r="C111" s="31"/>
       <c r="D111" s="26"/>
       <c r="E111" s="26"/>
-      <c r="F111" s="36"/>
+      <c r="F111" s="32"/>
     </row>
     <row r="112" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A112" s="32"/>
+      <c r="A112" s="31"/>
       <c r="B112" s="29"/>
-      <c r="C112" s="32"/>
+      <c r="C112" s="31"/>
       <c r="D112" s="26"/>
       <c r="E112" s="26"/>
-      <c r="F112" s="36"/>
+      <c r="F112" s="32"/>
     </row>
     <row r="113" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A113" s="32"/>
+      <c r="A113" s="31"/>
       <c r="B113" s="29"/>
-      <c r="C113" s="32"/>
+      <c r="C113" s="31"/>
       <c r="D113" s="26"/>
       <c r="E113" s="26"/>
-      <c r="F113" s="36"/>
+      <c r="F113" s="32"/>
     </row>
     <row r="114" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A114" s="32"/>
+      <c r="A114" s="31"/>
       <c r="B114" s="29"/>
-      <c r="C114" s="32"/>
+      <c r="C114" s="31"/>
       <c r="D114" s="26"/>
       <c r="E114" s="26"/>
-      <c r="F114" s="36"/>
+      <c r="F114" s="32"/>
     </row>
     <row r="115" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A115" s="32"/>
+      <c r="A115" s="31"/>
       <c r="B115" s="29"/>
-      <c r="C115" s="32"/>
+      <c r="C115" s="31"/>
       <c r="D115" s="26"/>
       <c r="E115" s="26"/>
-      <c r="F115" s="36"/>
+      <c r="F115" s="32"/>
     </row>
     <row r="116" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A116" s="32"/>
+      <c r="A116" s="31"/>
       <c r="B116" s="29"/>
-      <c r="C116" s="32"/>
+      <c r="C116" s="31"/>
       <c r="D116" s="26"/>
       <c r="E116" s="26"/>
-      <c r="F116" s="36"/>
+      <c r="F116" s="32"/>
     </row>
     <row r="117" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A117" s="32"/>
+      <c r="A117" s="31"/>
       <c r="B117" s="29"/>
-      <c r="C117" s="32"/>
+      <c r="C117" s="31"/>
       <c r="D117" s="26"/>
       <c r="E117" s="26"/>
-      <c r="F117" s="36"/>
+      <c r="F117" s="32"/>
     </row>
     <row r="118" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A118" s="32"/>
+      <c r="A118" s="31"/>
       <c r="B118" s="29"/>
-      <c r="C118" s="32"/>
+      <c r="C118" s="31"/>
       <c r="D118" s="26"/>
       <c r="E118" s="26"/>
-      <c r="F118" s="36"/>
+      <c r="F118" s="32"/>
     </row>
     <row r="119" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A119" s="32"/>
+      <c r="A119" s="31"/>
       <c r="B119" s="29"/>
-      <c r="C119" s="32"/>
+      <c r="C119" s="31"/>
       <c r="D119" s="26"/>
       <c r="E119" s="26"/>
-      <c r="F119" s="36"/>
+      <c r="F119" s="32"/>
     </row>
     <row r="120" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A120" s="32"/>
+      <c r="A120" s="31"/>
       <c r="B120" s="29"/>
-      <c r="C120" s="32"/>
+      <c r="C120" s="31"/>
       <c r="D120" s="26"/>
       <c r="E120" s="26"/>
-      <c r="F120" s="36"/>
+      <c r="F120" s="32"/>
     </row>
     <row r="121" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A121" s="32"/>
+      <c r="A121" s="31"/>
       <c r="B121" s="29"/>
-      <c r="C121" s="32"/>
+      <c r="C121" s="31"/>
       <c r="D121" s="26"/>
       <c r="E121" s="26"/>
-      <c r="F121" s="36"/>
+      <c r="F121" s="32"/>
     </row>
     <row r="122" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A122" s="32"/>
+      <c r="A122" s="31"/>
       <c r="B122" s="29"/>
-      <c r="C122" s="32"/>
+      <c r="C122" s="31"/>
       <c r="D122" s="26"/>
       <c r="E122" s="26"/>
-      <c r="F122" s="36"/>
+      <c r="F122" s="32"/>
     </row>
     <row r="123" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A123" s="32"/>
+      <c r="A123" s="31"/>
       <c r="B123" s="29"/>
-      <c r="C123" s="32"/>
+      <c r="C123" s="31"/>
       <c r="D123" s="26"/>
       <c r="E123" s="26"/>
-      <c r="F123" s="36"/>
+      <c r="F123" s="32"/>
     </row>
     <row r="124" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="32"/>
+      <c r="A124" s="31"/>
       <c r="B124" s="29"/>
-      <c r="C124" s="32">
+      <c r="C124" s="31">
         <v>10</v>
       </c>
       <c r="D124" s="26" t="s">
@@ -4314,204 +4314,204 @@
       <c r="E124" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="F124" s="36"/>
+      <c r="F124" s="32"/>
     </row>
     <row r="125" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A125" s="32"/>
+      <c r="A125" s="31"/>
       <c r="B125" s="29"/>
-      <c r="C125" s="32"/>
+      <c r="C125" s="31"/>
       <c r="D125" s="26"/>
       <c r="E125" s="26"/>
-      <c r="F125" s="36"/>
+      <c r="F125" s="32"/>
     </row>
     <row r="126" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A126" s="32"/>
+      <c r="A126" s="31"/>
       <c r="B126" s="29"/>
-      <c r="C126" s="32"/>
+      <c r="C126" s="31"/>
       <c r="D126" s="26"/>
       <c r="E126" s="26"/>
-      <c r="F126" s="36"/>
+      <c r="F126" s="32"/>
     </row>
     <row r="127" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A127" s="32"/>
+      <c r="A127" s="31"/>
       <c r="B127" s="29"/>
-      <c r="C127" s="32"/>
+      <c r="C127" s="31"/>
       <c r="D127" s="26"/>
       <c r="E127" s="26"/>
-      <c r="F127" s="36"/>
+      <c r="F127" s="32"/>
     </row>
     <row r="128" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A128" s="32"/>
+      <c r="A128" s="31"/>
       <c r="B128" s="29"/>
-      <c r="C128" s="32"/>
+      <c r="C128" s="31"/>
       <c r="D128" s="26"/>
       <c r="E128" s="26"/>
-      <c r="F128" s="36"/>
+      <c r="F128" s="32"/>
     </row>
     <row r="129" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A129" s="32"/>
+      <c r="A129" s="31"/>
       <c r="B129" s="29"/>
-      <c r="C129" s="32"/>
+      <c r="C129" s="31"/>
       <c r="D129" s="26"/>
       <c r="E129" s="26"/>
-      <c r="F129" s="36"/>
+      <c r="F129" s="32"/>
     </row>
     <row r="130" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A130" s="32"/>
+      <c r="A130" s="31"/>
       <c r="B130" s="29"/>
-      <c r="C130" s="32"/>
+      <c r="C130" s="31"/>
       <c r="D130" s="26"/>
       <c r="E130" s="26"/>
-      <c r="F130" s="36"/>
+      <c r="F130" s="32"/>
     </row>
     <row r="131" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A131" s="32"/>
+      <c r="A131" s="31"/>
       <c r="B131" s="29"/>
-      <c r="C131" s="32"/>
+      <c r="C131" s="31"/>
       <c r="D131" s="26"/>
       <c r="E131" s="26"/>
-      <c r="F131" s="36"/>
+      <c r="F131" s="32"/>
     </row>
     <row r="132" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A132" s="32"/>
+      <c r="A132" s="31"/>
       <c r="B132" s="29"/>
-      <c r="C132" s="32"/>
+      <c r="C132" s="31"/>
       <c r="D132" s="26"/>
       <c r="E132" s="26"/>
-      <c r="F132" s="36"/>
+      <c r="F132" s="32"/>
     </row>
     <row r="133" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A133" s="32"/>
+      <c r="A133" s="31"/>
       <c r="B133" s="29"/>
-      <c r="C133" s="32"/>
+      <c r="C133" s="31"/>
       <c r="D133" s="26"/>
       <c r="E133" s="26"/>
-      <c r="F133" s="36"/>
+      <c r="F133" s="32"/>
     </row>
     <row r="134" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A134" s="32"/>
+      <c r="A134" s="31"/>
       <c r="B134" s="29"/>
-      <c r="C134" s="32"/>
+      <c r="C134" s="31"/>
       <c r="D134" s="26"/>
       <c r="E134" s="26"/>
-      <c r="F134" s="36"/>
+      <c r="F134" s="32"/>
     </row>
     <row r="135" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A135" s="32"/>
+      <c r="A135" s="31"/>
       <c r="B135" s="29"/>
-      <c r="C135" s="32"/>
+      <c r="C135" s="31"/>
       <c r="D135" s="26"/>
       <c r="E135" s="26"/>
-      <c r="F135" s="36"/>
+      <c r="F135" s="32"/>
     </row>
     <row r="136" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A136" s="32"/>
+      <c r="A136" s="31"/>
       <c r="B136" s="29"/>
-      <c r="C136" s="32"/>
+      <c r="C136" s="31"/>
       <c r="D136" s="26"/>
       <c r="E136" s="26"/>
-      <c r="F136" s="36"/>
+      <c r="F136" s="32"/>
     </row>
     <row r="137" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A137" s="32"/>
+      <c r="A137" s="31"/>
       <c r="B137" s="29"/>
-      <c r="C137" s="32"/>
+      <c r="C137" s="31"/>
       <c r="D137" s="26"/>
       <c r="E137" s="26"/>
-      <c r="F137" s="36"/>
+      <c r="F137" s="32"/>
     </row>
     <row r="138" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A138" s="32"/>
+      <c r="A138" s="31"/>
       <c r="B138" s="29"/>
-      <c r="C138" s="32"/>
+      <c r="C138" s="31"/>
       <c r="D138" s="26"/>
       <c r="E138" s="26"/>
-      <c r="F138" s="36"/>
+      <c r="F138" s="32"/>
     </row>
     <row r="139" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A139" s="32"/>
+      <c r="A139" s="31"/>
       <c r="B139" s="29"/>
-      <c r="C139" s="32"/>
+      <c r="C139" s="31"/>
       <c r="D139" s="26"/>
       <c r="E139" s="26"/>
-      <c r="F139" s="36"/>
+      <c r="F139" s="32"/>
     </row>
     <row r="140" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A140" s="32"/>
+      <c r="A140" s="31"/>
       <c r="B140" s="29"/>
-      <c r="C140" s="32"/>
+      <c r="C140" s="31"/>
       <c r="D140" s="26"/>
       <c r="E140" s="26"/>
-      <c r="F140" s="36"/>
+      <c r="F140" s="32"/>
     </row>
     <row r="141" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A141" s="32"/>
+      <c r="A141" s="31"/>
       <c r="B141" s="29"/>
-      <c r="C141" s="32"/>
+      <c r="C141" s="31"/>
       <c r="D141" s="26"/>
       <c r="E141" s="26"/>
-      <c r="F141" s="36"/>
+      <c r="F141" s="32"/>
     </row>
     <row r="142" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A142" s="32"/>
+      <c r="A142" s="31"/>
       <c r="B142" s="29"/>
-      <c r="C142" s="32"/>
+      <c r="C142" s="31"/>
       <c r="D142" s="26"/>
       <c r="E142" s="26"/>
-      <c r="F142" s="36"/>
+      <c r="F142" s="32"/>
     </row>
     <row r="143" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A143" s="32"/>
+      <c r="A143" s="31"/>
       <c r="B143" s="29"/>
-      <c r="C143" s="32"/>
+      <c r="C143" s="31"/>
       <c r="D143" s="26"/>
       <c r="E143" s="26"/>
-      <c r="F143" s="36"/>
+      <c r="F143" s="32"/>
     </row>
     <row r="144" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A144" s="32"/>
+      <c r="A144" s="31"/>
       <c r="B144" s="29"/>
-      <c r="C144" s="32"/>
+      <c r="C144" s="31"/>
       <c r="D144" s="26"/>
       <c r="E144" s="26"/>
-      <c r="F144" s="36"/>
+      <c r="F144" s="32"/>
     </row>
     <row r="145" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A145" s="32"/>
+      <c r="A145" s="31"/>
       <c r="B145" s="29"/>
-      <c r="C145" s="32"/>
+      <c r="C145" s="31"/>
       <c r="D145" s="26"/>
       <c r="E145" s="26"/>
-      <c r="F145" s="36"/>
+      <c r="F145" s="32"/>
     </row>
     <row r="146" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A146" s="32"/>
+      <c r="A146" s="31"/>
       <c r="B146" s="29"/>
-      <c r="C146" s="32"/>
+      <c r="C146" s="31"/>
       <c r="D146" s="26"/>
       <c r="E146" s="26"/>
-      <c r="F146" s="36"/>
+      <c r="F146" s="32"/>
     </row>
     <row r="147" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A147" s="32"/>
+      <c r="A147" s="31"/>
       <c r="B147" s="29"/>
-      <c r="C147" s="32"/>
+      <c r="C147" s="31"/>
       <c r="D147" s="26"/>
       <c r="E147" s="26"/>
-      <c r="F147" s="36"/>
+      <c r="F147" s="32"/>
     </row>
     <row r="148" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A148" s="32"/>
+      <c r="A148" s="31"/>
       <c r="B148" s="29"/>
-      <c r="C148" s="32"/>
+      <c r="C148" s="31"/>
       <c r="D148" s="26"/>
       <c r="E148" s="26"/>
-      <c r="F148" s="36"/>
+      <c r="F148" s="32"/>
     </row>
     <row r="149" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="32"/>
+      <c r="A149" s="31"/>
       <c r="B149" s="29"/>
-      <c r="C149" s="32">
+      <c r="C149" s="31">
         <v>11</v>
       </c>
       <c r="D149" s="26" t="s">
@@ -4520,204 +4520,204 @@
       <c r="E149" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="F149" s="36"/>
+      <c r="F149" s="32"/>
     </row>
     <row r="150" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A150" s="32"/>
+      <c r="A150" s="31"/>
       <c r="B150" s="29"/>
-      <c r="C150" s="32"/>
+      <c r="C150" s="31"/>
       <c r="D150" s="26"/>
       <c r="E150" s="26"/>
-      <c r="F150" s="36"/>
+      <c r="F150" s="32"/>
     </row>
     <row r="151" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A151" s="32"/>
+      <c r="A151" s="31"/>
       <c r="B151" s="29"/>
-      <c r="C151" s="32"/>
+      <c r="C151" s="31"/>
       <c r="D151" s="26"/>
       <c r="E151" s="26"/>
-      <c r="F151" s="36"/>
+      <c r="F151" s="32"/>
     </row>
     <row r="152" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A152" s="32"/>
+      <c r="A152" s="31"/>
       <c r="B152" s="29"/>
-      <c r="C152" s="32"/>
+      <c r="C152" s="31"/>
       <c r="D152" s="26"/>
       <c r="E152" s="26"/>
-      <c r="F152" s="36"/>
+      <c r="F152" s="32"/>
     </row>
     <row r="153" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A153" s="32"/>
+      <c r="A153" s="31"/>
       <c r="B153" s="29"/>
-      <c r="C153" s="32"/>
+      <c r="C153" s="31"/>
       <c r="D153" s="26"/>
       <c r="E153" s="26"/>
-      <c r="F153" s="36"/>
+      <c r="F153" s="32"/>
     </row>
     <row r="154" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A154" s="32"/>
+      <c r="A154" s="31"/>
       <c r="B154" s="29"/>
-      <c r="C154" s="32"/>
+      <c r="C154" s="31"/>
       <c r="D154" s="26"/>
       <c r="E154" s="26"/>
-      <c r="F154" s="36"/>
+      <c r="F154" s="32"/>
     </row>
     <row r="155" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A155" s="32"/>
+      <c r="A155" s="31"/>
       <c r="B155" s="29"/>
-      <c r="C155" s="32"/>
+      <c r="C155" s="31"/>
       <c r="D155" s="26"/>
       <c r="E155" s="26"/>
-      <c r="F155" s="36"/>
+      <c r="F155" s="32"/>
     </row>
     <row r="156" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A156" s="32"/>
+      <c r="A156" s="31"/>
       <c r="B156" s="29"/>
-      <c r="C156" s="32"/>
+      <c r="C156" s="31"/>
       <c r="D156" s="26"/>
       <c r="E156" s="26"/>
-      <c r="F156" s="36"/>
+      <c r="F156" s="32"/>
     </row>
     <row r="157" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A157" s="32"/>
+      <c r="A157" s="31"/>
       <c r="B157" s="29"/>
-      <c r="C157" s="32"/>
+      <c r="C157" s="31"/>
       <c r="D157" s="26"/>
       <c r="E157" s="26"/>
-      <c r="F157" s="36"/>
+      <c r="F157" s="32"/>
     </row>
     <row r="158" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A158" s="32"/>
+      <c r="A158" s="31"/>
       <c r="B158" s="29"/>
-      <c r="C158" s="32"/>
+      <c r="C158" s="31"/>
       <c r="D158" s="26"/>
       <c r="E158" s="26"/>
-      <c r="F158" s="36"/>
+      <c r="F158" s="32"/>
     </row>
     <row r="159" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A159" s="32"/>
+      <c r="A159" s="31"/>
       <c r="B159" s="29"/>
-      <c r="C159" s="32"/>
+      <c r="C159" s="31"/>
       <c r="D159" s="26"/>
       <c r="E159" s="26"/>
-      <c r="F159" s="36"/>
+      <c r="F159" s="32"/>
     </row>
     <row r="160" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A160" s="32"/>
+      <c r="A160" s="31"/>
       <c r="B160" s="29"/>
-      <c r="C160" s="32"/>
+      <c r="C160" s="31"/>
       <c r="D160" s="26"/>
       <c r="E160" s="26"/>
-      <c r="F160" s="36"/>
+      <c r="F160" s="32"/>
     </row>
     <row r="161" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A161" s="32"/>
+      <c r="A161" s="31"/>
       <c r="B161" s="29"/>
-      <c r="C161" s="32"/>
+      <c r="C161" s="31"/>
       <c r="D161" s="26"/>
       <c r="E161" s="26"/>
-      <c r="F161" s="36"/>
+      <c r="F161" s="32"/>
     </row>
     <row r="162" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A162" s="32"/>
+      <c r="A162" s="31"/>
       <c r="B162" s="29"/>
-      <c r="C162" s="32"/>
+      <c r="C162" s="31"/>
       <c r="D162" s="26"/>
       <c r="E162" s="26"/>
-      <c r="F162" s="36"/>
+      <c r="F162" s="32"/>
     </row>
     <row r="163" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A163" s="32"/>
+      <c r="A163" s="31"/>
       <c r="B163" s="29"/>
-      <c r="C163" s="32"/>
+      <c r="C163" s="31"/>
       <c r="D163" s="26"/>
       <c r="E163" s="26"/>
-      <c r="F163" s="36"/>
+      <c r="F163" s="32"/>
     </row>
     <row r="164" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A164" s="32"/>
+      <c r="A164" s="31"/>
       <c r="B164" s="29"/>
-      <c r="C164" s="32"/>
+      <c r="C164" s="31"/>
       <c r="D164" s="26"/>
       <c r="E164" s="26"/>
-      <c r="F164" s="36"/>
+      <c r="F164" s="32"/>
     </row>
     <row r="165" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A165" s="32"/>
+      <c r="A165" s="31"/>
       <c r="B165" s="29"/>
-      <c r="C165" s="32"/>
+      <c r="C165" s="31"/>
       <c r="D165" s="26"/>
       <c r="E165" s="26"/>
-      <c r="F165" s="36"/>
+      <c r="F165" s="32"/>
     </row>
     <row r="166" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A166" s="32"/>
+      <c r="A166" s="31"/>
       <c r="B166" s="29"/>
-      <c r="C166" s="32"/>
+      <c r="C166" s="31"/>
       <c r="D166" s="26"/>
       <c r="E166" s="26"/>
-      <c r="F166" s="36"/>
+      <c r="F166" s="32"/>
     </row>
     <row r="167" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A167" s="32"/>
+      <c r="A167" s="31"/>
       <c r="B167" s="29"/>
-      <c r="C167" s="32"/>
+      <c r="C167" s="31"/>
       <c r="D167" s="26"/>
       <c r="E167" s="26"/>
-      <c r="F167" s="36"/>
+      <c r="F167" s="32"/>
     </row>
     <row r="168" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A168" s="32"/>
+      <c r="A168" s="31"/>
       <c r="B168" s="29"/>
-      <c r="C168" s="32"/>
+      <c r="C168" s="31"/>
       <c r="D168" s="26"/>
       <c r="E168" s="26"/>
-      <c r="F168" s="36"/>
+      <c r="F168" s="32"/>
     </row>
     <row r="169" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A169" s="32"/>
+      <c r="A169" s="31"/>
       <c r="B169" s="29"/>
-      <c r="C169" s="32"/>
+      <c r="C169" s="31"/>
       <c r="D169" s="26"/>
       <c r="E169" s="26"/>
-      <c r="F169" s="36"/>
+      <c r="F169" s="32"/>
     </row>
     <row r="170" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A170" s="32"/>
+      <c r="A170" s="31"/>
       <c r="B170" s="29"/>
-      <c r="C170" s="32"/>
+      <c r="C170" s="31"/>
       <c r="D170" s="26"/>
       <c r="E170" s="26"/>
-      <c r="F170" s="36"/>
+      <c r="F170" s="32"/>
     </row>
     <row r="171" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A171" s="32"/>
+      <c r="A171" s="31"/>
       <c r="B171" s="29"/>
-      <c r="C171" s="32"/>
+      <c r="C171" s="31"/>
       <c r="D171" s="26"/>
       <c r="E171" s="26"/>
-      <c r="F171" s="36"/>
+      <c r="F171" s="32"/>
     </row>
     <row r="172" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A172" s="32"/>
+      <c r="A172" s="31"/>
       <c r="B172" s="29"/>
-      <c r="C172" s="32"/>
+      <c r="C172" s="31"/>
       <c r="D172" s="26"/>
       <c r="E172" s="26"/>
-      <c r="F172" s="36"/>
+      <c r="F172" s="32"/>
     </row>
     <row r="173" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A173" s="32"/>
+      <c r="A173" s="31"/>
       <c r="B173" s="29"/>
-      <c r="C173" s="32"/>
+      <c r="C173" s="31"/>
       <c r="D173" s="26"/>
       <c r="E173" s="26"/>
-      <c r="F173" s="36"/>
+      <c r="F173" s="32"/>
     </row>
     <row r="174" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="32"/>
+      <c r="A174" s="31"/>
       <c r="B174" s="29"/>
-      <c r="C174" s="32">
+      <c r="C174" s="31">
         <v>12</v>
       </c>
       <c r="D174" s="26" t="s">
@@ -4726,172 +4726,172 @@
       <c r="E174" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="F174" s="36"/>
+      <c r="F174" s="32"/>
     </row>
     <row r="175" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A175" s="32"/>
+      <c r="A175" s="31"/>
       <c r="B175" s="29"/>
-      <c r="C175" s="32"/>
+      <c r="C175" s="31"/>
       <c r="D175" s="26"/>
       <c r="E175" s="26"/>
-      <c r="F175" s="36"/>
+      <c r="F175" s="32"/>
     </row>
     <row r="176" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A176" s="32"/>
+      <c r="A176" s="31"/>
       <c r="B176" s="29"/>
-      <c r="C176" s="32"/>
+      <c r="C176" s="31"/>
       <c r="D176" s="26"/>
       <c r="E176" s="26"/>
-      <c r="F176" s="36"/>
+      <c r="F176" s="32"/>
     </row>
     <row r="177" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A177" s="32"/>
+      <c r="A177" s="31"/>
       <c r="B177" s="29"/>
-      <c r="C177" s="32"/>
+      <c r="C177" s="31"/>
       <c r="D177" s="26"/>
       <c r="E177" s="26"/>
-      <c r="F177" s="36"/>
+      <c r="F177" s="32"/>
     </row>
     <row r="178" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A178" s="32"/>
+      <c r="A178" s="31"/>
       <c r="B178" s="29"/>
-      <c r="C178" s="32"/>
+      <c r="C178" s="31"/>
       <c r="D178" s="26"/>
       <c r="E178" s="26"/>
-      <c r="F178" s="36"/>
+      <c r="F178" s="32"/>
     </row>
     <row r="179" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A179" s="32"/>
+      <c r="A179" s="31"/>
       <c r="B179" s="29"/>
-      <c r="C179" s="32"/>
+      <c r="C179" s="31"/>
       <c r="D179" s="26"/>
       <c r="E179" s="26"/>
-      <c r="F179" s="36"/>
+      <c r="F179" s="32"/>
     </row>
     <row r="180" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A180" s="32"/>
+      <c r="A180" s="31"/>
       <c r="B180" s="29"/>
-      <c r="C180" s="32"/>
+      <c r="C180" s="31"/>
       <c r="D180" s="26"/>
       <c r="E180" s="26"/>
-      <c r="F180" s="36"/>
+      <c r="F180" s="32"/>
     </row>
     <row r="181" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A181" s="32"/>
+      <c r="A181" s="31"/>
       <c r="B181" s="29"/>
-      <c r="C181" s="32"/>
+      <c r="C181" s="31"/>
       <c r="D181" s="26"/>
       <c r="E181" s="26"/>
-      <c r="F181" s="36"/>
+      <c r="F181" s="32"/>
     </row>
     <row r="182" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A182" s="32"/>
+      <c r="A182" s="31"/>
       <c r="B182" s="29"/>
-      <c r="C182" s="32"/>
+      <c r="C182" s="31"/>
       <c r="D182" s="26"/>
       <c r="E182" s="26"/>
-      <c r="F182" s="36"/>
+      <c r="F182" s="32"/>
     </row>
     <row r="183" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A183" s="32"/>
+      <c r="A183" s="31"/>
       <c r="B183" s="29"/>
-      <c r="C183" s="32"/>
+      <c r="C183" s="31"/>
       <c r="D183" s="26"/>
       <c r="E183" s="26"/>
-      <c r="F183" s="36"/>
+      <c r="F183" s="32"/>
     </row>
     <row r="184" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A184" s="32"/>
+      <c r="A184" s="31"/>
       <c r="B184" s="29"/>
-      <c r="C184" s="32"/>
+      <c r="C184" s="31"/>
       <c r="D184" s="26"/>
       <c r="E184" s="26"/>
-      <c r="F184" s="36"/>
+      <c r="F184" s="32"/>
     </row>
     <row r="185" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A185" s="32"/>
+      <c r="A185" s="31"/>
       <c r="B185" s="29"/>
-      <c r="C185" s="32"/>
+      <c r="C185" s="31"/>
       <c r="D185" s="26"/>
       <c r="E185" s="26"/>
-      <c r="F185" s="36"/>
+      <c r="F185" s="32"/>
     </row>
     <row r="186" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A186" s="32"/>
+      <c r="A186" s="31"/>
       <c r="B186" s="29"/>
-      <c r="C186" s="32"/>
+      <c r="C186" s="31"/>
       <c r="D186" s="26"/>
       <c r="E186" s="26"/>
-      <c r="F186" s="36"/>
+      <c r="F186" s="32"/>
     </row>
     <row r="187" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A187" s="32"/>
+      <c r="A187" s="31"/>
       <c r="B187" s="29"/>
-      <c r="C187" s="32"/>
+      <c r="C187" s="31"/>
       <c r="D187" s="26"/>
       <c r="E187" s="26"/>
-      <c r="F187" s="36"/>
+      <c r="F187" s="32"/>
     </row>
     <row r="188" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A188" s="32"/>
+      <c r="A188" s="31"/>
       <c r="B188" s="29"/>
-      <c r="C188" s="32"/>
+      <c r="C188" s="31"/>
       <c r="D188" s="26"/>
       <c r="E188" s="26"/>
-      <c r="F188" s="36"/>
+      <c r="F188" s="32"/>
     </row>
     <row r="189" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A189" s="32"/>
+      <c r="A189" s="31"/>
       <c r="B189" s="29"/>
-      <c r="C189" s="32"/>
+      <c r="C189" s="31"/>
       <c r="D189" s="26"/>
       <c r="E189" s="26"/>
-      <c r="F189" s="36"/>
+      <c r="F189" s="32"/>
     </row>
     <row r="190" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A190" s="32"/>
+      <c r="A190" s="31"/>
       <c r="B190" s="29"/>
-      <c r="C190" s="32"/>
+      <c r="C190" s="31"/>
       <c r="D190" s="26"/>
       <c r="E190" s="26"/>
-      <c r="F190" s="36"/>
+      <c r="F190" s="32"/>
     </row>
     <row r="191" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A191" s="32"/>
+      <c r="A191" s="31"/>
       <c r="B191" s="29"/>
-      <c r="C191" s="32"/>
+      <c r="C191" s="31"/>
       <c r="D191" s="26"/>
       <c r="E191" s="26"/>
-      <c r="F191" s="36"/>
+      <c r="F191" s="32"/>
     </row>
     <row r="192" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A192" s="32"/>
+      <c r="A192" s="31"/>
       <c r="B192" s="29"/>
-      <c r="C192" s="32"/>
+      <c r="C192" s="31"/>
       <c r="D192" s="26"/>
       <c r="E192" s="26"/>
-      <c r="F192" s="36"/>
+      <c r="F192" s="32"/>
     </row>
     <row r="193" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A193" s="32"/>
+      <c r="A193" s="31"/>
       <c r="B193" s="29"/>
-      <c r="C193" s="32"/>
+      <c r="C193" s="31"/>
       <c r="D193" s="26"/>
       <c r="E193" s="26"/>
-      <c r="F193" s="36"/>
+      <c r="F193" s="32"/>
     </row>
     <row r="194" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A194" s="32"/>
+      <c r="A194" s="31"/>
       <c r="B194" s="29"/>
-      <c r="C194" s="32"/>
+      <c r="C194" s="31"/>
       <c r="D194" s="26"/>
       <c r="E194" s="26"/>
-      <c r="F194" s="36"/>
+      <c r="F194" s="32"/>
     </row>
     <row r="195" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="32"/>
+      <c r="A195" s="31"/>
       <c r="B195" s="29"/>
-      <c r="C195" s="32">
+      <c r="C195" s="31">
         <v>13</v>
       </c>
       <c r="D195" s="26" t="s">
@@ -4900,212 +4900,212 @@
       <c r="E195" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="F195" s="36"/>
+      <c r="F195" s="32"/>
     </row>
     <row r="196" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A196" s="32"/>
+      <c r="A196" s="31"/>
       <c r="B196" s="29"/>
-      <c r="C196" s="32"/>
+      <c r="C196" s="31"/>
       <c r="D196" s="26"/>
       <c r="E196" s="26"/>
-      <c r="F196" s="36"/>
+      <c r="F196" s="32"/>
     </row>
     <row r="197" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A197" s="32"/>
+      <c r="A197" s="31"/>
       <c r="B197" s="29"/>
-      <c r="C197" s="32"/>
+      <c r="C197" s="31"/>
       <c r="D197" s="26"/>
       <c r="E197" s="26"/>
-      <c r="F197" s="36"/>
+      <c r="F197" s="32"/>
     </row>
     <row r="198" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A198" s="32"/>
+      <c r="A198" s="31"/>
       <c r="B198" s="29"/>
-      <c r="C198" s="32"/>
+      <c r="C198" s="31"/>
       <c r="D198" s="26"/>
       <c r="E198" s="26"/>
-      <c r="F198" s="36"/>
+      <c r="F198" s="32"/>
     </row>
     <row r="199" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A199" s="32"/>
+      <c r="A199" s="31"/>
       <c r="B199" s="29"/>
-      <c r="C199" s="32"/>
+      <c r="C199" s="31"/>
       <c r="D199" s="26"/>
       <c r="E199" s="26"/>
-      <c r="F199" s="36"/>
+      <c r="F199" s="32"/>
     </row>
     <row r="200" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A200" s="32"/>
+      <c r="A200" s="31"/>
       <c r="B200" s="29"/>
-      <c r="C200" s="32"/>
+      <c r="C200" s="31"/>
       <c r="D200" s="26"/>
       <c r="E200" s="26"/>
-      <c r="F200" s="36"/>
+      <c r="F200" s="32"/>
     </row>
     <row r="201" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A201" s="32"/>
+      <c r="A201" s="31"/>
       <c r="B201" s="29"/>
-      <c r="C201" s="32"/>
+      <c r="C201" s="31"/>
       <c r="D201" s="26"/>
       <c r="E201" s="26"/>
-      <c r="F201" s="36"/>
+      <c r="F201" s="32"/>
     </row>
     <row r="202" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A202" s="32"/>
+      <c r="A202" s="31"/>
       <c r="B202" s="29"/>
-      <c r="C202" s="32"/>
+      <c r="C202" s="31"/>
       <c r="D202" s="26"/>
       <c r="E202" s="26"/>
-      <c r="F202" s="36"/>
+      <c r="F202" s="32"/>
     </row>
     <row r="203" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A203" s="32"/>
+      <c r="A203" s="31"/>
       <c r="B203" s="29"/>
-      <c r="C203" s="32"/>
+      <c r="C203" s="31"/>
       <c r="D203" s="26"/>
       <c r="E203" s="26"/>
-      <c r="F203" s="36"/>
+      <c r="F203" s="32"/>
     </row>
     <row r="204" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A204" s="32"/>
+      <c r="A204" s="31"/>
       <c r="B204" s="29"/>
-      <c r="C204" s="32"/>
+      <c r="C204" s="31"/>
       <c r="D204" s="26"/>
       <c r="E204" s="26"/>
-      <c r="F204" s="36"/>
+      <c r="F204" s="32"/>
     </row>
     <row r="205" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A205" s="32"/>
+      <c r="A205" s="31"/>
       <c r="B205" s="29"/>
-      <c r="C205" s="32"/>
+      <c r="C205" s="31"/>
       <c r="D205" s="26"/>
       <c r="E205" s="26"/>
-      <c r="F205" s="36"/>
+      <c r="F205" s="32"/>
     </row>
     <row r="206" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A206" s="32"/>
+      <c r="A206" s="31"/>
       <c r="B206" s="29"/>
-      <c r="C206" s="32"/>
+      <c r="C206" s="31"/>
       <c r="D206" s="26"/>
       <c r="E206" s="26"/>
-      <c r="F206" s="36"/>
+      <c r="F206" s="32"/>
     </row>
     <row r="207" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A207" s="32"/>
+      <c r="A207" s="31"/>
       <c r="B207" s="29"/>
-      <c r="C207" s="32"/>
+      <c r="C207" s="31"/>
       <c r="D207" s="26"/>
       <c r="E207" s="26"/>
-      <c r="F207" s="36"/>
+      <c r="F207" s="32"/>
     </row>
     <row r="208" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A208" s="32"/>
+      <c r="A208" s="31"/>
       <c r="B208" s="29"/>
-      <c r="C208" s="32"/>
+      <c r="C208" s="31"/>
       <c r="D208" s="26"/>
       <c r="E208" s="26"/>
-      <c r="F208" s="36"/>
+      <c r="F208" s="32"/>
     </row>
     <row r="209" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A209" s="32"/>
+      <c r="A209" s="31"/>
       <c r="B209" s="29"/>
-      <c r="C209" s="32"/>
+      <c r="C209" s="31"/>
       <c r="D209" s="26"/>
       <c r="E209" s="26"/>
-      <c r="F209" s="36"/>
+      <c r="F209" s="32"/>
     </row>
     <row r="210" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A210" s="32"/>
+      <c r="A210" s="31"/>
       <c r="B210" s="29"/>
-      <c r="C210" s="32"/>
+      <c r="C210" s="31"/>
       <c r="D210" s="26"/>
       <c r="E210" s="26"/>
-      <c r="F210" s="36"/>
+      <c r="F210" s="32"/>
     </row>
     <row r="211" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A211" s="32"/>
+      <c r="A211" s="31"/>
       <c r="B211" s="29"/>
-      <c r="C211" s="32"/>
+      <c r="C211" s="31"/>
       <c r="D211" s="26"/>
       <c r="E211" s="26"/>
-      <c r="F211" s="36"/>
+      <c r="F211" s="32"/>
     </row>
     <row r="212" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A212" s="32"/>
+      <c r="A212" s="31"/>
       <c r="B212" s="29"/>
-      <c r="C212" s="32"/>
+      <c r="C212" s="31"/>
       <c r="D212" s="26"/>
       <c r="E212" s="26"/>
-      <c r="F212" s="36"/>
+      <c r="F212" s="32"/>
     </row>
     <row r="213" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A213" s="32"/>
+      <c r="A213" s="31"/>
       <c r="B213" s="29"/>
-      <c r="C213" s="32"/>
+      <c r="C213" s="31"/>
       <c r="D213" s="26"/>
       <c r="E213" s="26"/>
-      <c r="F213" s="36"/>
+      <c r="F213" s="32"/>
     </row>
     <row r="214" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A214" s="32"/>
+      <c r="A214" s="31"/>
       <c r="B214" s="29"/>
-      <c r="C214" s="32"/>
+      <c r="C214" s="31"/>
       <c r="D214" s="26"/>
       <c r="E214" s="26"/>
-      <c r="F214" s="36"/>
+      <c r="F214" s="32"/>
     </row>
     <row r="215" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A215" s="32"/>
+      <c r="A215" s="31"/>
       <c r="B215" s="29"/>
-      <c r="C215" s="32"/>
+      <c r="C215" s="31"/>
       <c r="D215" s="26"/>
       <c r="E215" s="26"/>
-      <c r="F215" s="36"/>
+      <c r="F215" s="32"/>
     </row>
     <row r="216" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A216" s="32"/>
+      <c r="A216" s="31"/>
       <c r="B216" s="29"/>
-      <c r="C216" s="32"/>
+      <c r="C216" s="31"/>
       <c r="D216" s="26"/>
       <c r="E216" s="26"/>
-      <c r="F216" s="36"/>
+      <c r="F216" s="32"/>
     </row>
     <row r="217" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A217" s="32"/>
+      <c r="A217" s="31"/>
       <c r="B217" s="29"/>
-      <c r="C217" s="32"/>
+      <c r="C217" s="31"/>
       <c r="D217" s="26"/>
       <c r="E217" s="26"/>
-      <c r="F217" s="36"/>
+      <c r="F217" s="32"/>
     </row>
     <row r="218" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A218" s="32"/>
+      <c r="A218" s="31"/>
       <c r="B218" s="29"/>
-      <c r="C218" s="32"/>
+      <c r="C218" s="31"/>
       <c r="D218" s="26"/>
       <c r="E218" s="26"/>
-      <c r="F218" s="36"/>
+      <c r="F218" s="32"/>
     </row>
     <row r="219" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A219" s="32"/>
+      <c r="A219" s="31"/>
       <c r="B219" s="29"/>
-      <c r="C219" s="32"/>
+      <c r="C219" s="31"/>
       <c r="D219" s="26"/>
       <c r="E219" s="26"/>
-      <c r="F219" s="36"/>
+      <c r="F219" s="32"/>
     </row>
     <row r="220" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A220" s="32"/>
+      <c r="A220" s="31"/>
       <c r="B220" s="29"/>
-      <c r="C220" s="32"/>
+      <c r="C220" s="31"/>
       <c r="D220" s="26"/>
       <c r="E220" s="26"/>
-      <c r="F220" s="36"/>
+      <c r="F220" s="32"/>
     </row>
     <row r="221" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="32"/>
+      <c r="A221" s="31"/>
       <c r="B221" s="29"/>
-      <c r="C221" s="32">
+      <c r="C221" s="31">
         <v>14</v>
       </c>
       <c r="D221" s="26" t="s">
@@ -5114,188 +5114,188 @@
       <c r="E221" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="F221" s="36"/>
+      <c r="F221" s="32"/>
     </row>
     <row r="222" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A222" s="32"/>
+      <c r="A222" s="31"/>
       <c r="B222" s="29"/>
-      <c r="C222" s="32"/>
+      <c r="C222" s="31"/>
       <c r="D222" s="26"/>
       <c r="E222" s="26"/>
-      <c r="F222" s="36"/>
+      <c r="F222" s="32"/>
     </row>
     <row r="223" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A223" s="32"/>
+      <c r="A223" s="31"/>
       <c r="B223" s="29"/>
-      <c r="C223" s="32"/>
+      <c r="C223" s="31"/>
       <c r="D223" s="26"/>
       <c r="E223" s="26"/>
-      <c r="F223" s="36"/>
+      <c r="F223" s="32"/>
     </row>
     <row r="224" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A224" s="32"/>
+      <c r="A224" s="31"/>
       <c r="B224" s="29"/>
-      <c r="C224" s="32"/>
+      <c r="C224" s="31"/>
       <c r="D224" s="26"/>
       <c r="E224" s="26"/>
-      <c r="F224" s="36"/>
+      <c r="F224" s="32"/>
     </row>
     <row r="225" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A225" s="32"/>
+      <c r="A225" s="31"/>
       <c r="B225" s="29"/>
-      <c r="C225" s="32"/>
+      <c r="C225" s="31"/>
       <c r="D225" s="26"/>
       <c r="E225" s="26"/>
-      <c r="F225" s="36"/>
+      <c r="F225" s="32"/>
     </row>
     <row r="226" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A226" s="32"/>
+      <c r="A226" s="31"/>
       <c r="B226" s="29"/>
-      <c r="C226" s="32"/>
+      <c r="C226" s="31"/>
       <c r="D226" s="26"/>
       <c r="E226" s="26"/>
-      <c r="F226" s="36"/>
+      <c r="F226" s="32"/>
     </row>
     <row r="227" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A227" s="32"/>
+      <c r="A227" s="31"/>
       <c r="B227" s="29"/>
-      <c r="C227" s="32"/>
+      <c r="C227" s="31"/>
       <c r="D227" s="26"/>
       <c r="E227" s="26"/>
-      <c r="F227" s="36"/>
+      <c r="F227" s="32"/>
     </row>
     <row r="228" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A228" s="32"/>
+      <c r="A228" s="31"/>
       <c r="B228" s="29"/>
-      <c r="C228" s="32"/>
+      <c r="C228" s="31"/>
       <c r="D228" s="26"/>
       <c r="E228" s="26"/>
-      <c r="F228" s="36"/>
+      <c r="F228" s="32"/>
     </row>
     <row r="229" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A229" s="32"/>
+      <c r="A229" s="31"/>
       <c r="B229" s="29"/>
-      <c r="C229" s="32"/>
+      <c r="C229" s="31"/>
       <c r="D229" s="26"/>
       <c r="E229" s="26"/>
-      <c r="F229" s="36"/>
+      <c r="F229" s="32"/>
     </row>
     <row r="230" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A230" s="32"/>
+      <c r="A230" s="31"/>
       <c r="B230" s="29"/>
-      <c r="C230" s="32"/>
+      <c r="C230" s="31"/>
       <c r="D230" s="26"/>
       <c r="E230" s="26"/>
-      <c r="F230" s="36"/>
+      <c r="F230" s="32"/>
     </row>
     <row r="231" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A231" s="32"/>
+      <c r="A231" s="31"/>
       <c r="B231" s="29"/>
-      <c r="C231" s="32"/>
+      <c r="C231" s="31"/>
       <c r="D231" s="26"/>
       <c r="E231" s="26"/>
-      <c r="F231" s="36"/>
+      <c r="F231" s="32"/>
     </row>
     <row r="232" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A232" s="32"/>
+      <c r="A232" s="31"/>
       <c r="B232" s="29"/>
-      <c r="C232" s="32"/>
+      <c r="C232" s="31"/>
       <c r="D232" s="26"/>
       <c r="E232" s="26"/>
-      <c r="F232" s="36"/>
+      <c r="F232" s="32"/>
     </row>
     <row r="233" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A233" s="32"/>
+      <c r="A233" s="31"/>
       <c r="B233" s="29"/>
-      <c r="C233" s="32"/>
+      <c r="C233" s="31"/>
       <c r="D233" s="26"/>
       <c r="E233" s="26"/>
-      <c r="F233" s="36"/>
+      <c r="F233" s="32"/>
     </row>
     <row r="234" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A234" s="32"/>
+      <c r="A234" s="31"/>
       <c r="B234" s="29"/>
-      <c r="C234" s="32"/>
+      <c r="C234" s="31"/>
       <c r="D234" s="26"/>
       <c r="E234" s="26"/>
-      <c r="F234" s="36"/>
+      <c r="F234" s="32"/>
     </row>
     <row r="235" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A235" s="32"/>
+      <c r="A235" s="31"/>
       <c r="B235" s="29"/>
-      <c r="C235" s="32"/>
+      <c r="C235" s="31"/>
       <c r="D235" s="26"/>
       <c r="E235" s="26"/>
-      <c r="F235" s="36"/>
+      <c r="F235" s="32"/>
     </row>
     <row r="236" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A236" s="32"/>
+      <c r="A236" s="31"/>
       <c r="B236" s="29"/>
-      <c r="C236" s="32"/>
+      <c r="C236" s="31"/>
       <c r="D236" s="26"/>
       <c r="E236" s="26"/>
-      <c r="F236" s="36"/>
+      <c r="F236" s="32"/>
     </row>
     <row r="237" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A237" s="32"/>
+      <c r="A237" s="31"/>
       <c r="B237" s="29"/>
-      <c r="C237" s="32"/>
+      <c r="C237" s="31"/>
       <c r="D237" s="26"/>
       <c r="E237" s="26"/>
-      <c r="F237" s="36"/>
+      <c r="F237" s="32"/>
     </row>
     <row r="238" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A238" s="32"/>
+      <c r="A238" s="31"/>
       <c r="B238" s="29"/>
-      <c r="C238" s="32"/>
+      <c r="C238" s="31"/>
       <c r="D238" s="26"/>
       <c r="E238" s="26"/>
-      <c r="F238" s="36"/>
+      <c r="F238" s="32"/>
     </row>
     <row r="239" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A239" s="32"/>
+      <c r="A239" s="31"/>
       <c r="B239" s="29"/>
-      <c r="C239" s="32"/>
+      <c r="C239" s="31"/>
       <c r="D239" s="26"/>
       <c r="E239" s="26"/>
-      <c r="F239" s="36"/>
+      <c r="F239" s="32"/>
     </row>
     <row r="240" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A240" s="32"/>
+      <c r="A240" s="31"/>
       <c r="B240" s="29"/>
-      <c r="C240" s="32"/>
+      <c r="C240" s="31"/>
       <c r="D240" s="26"/>
       <c r="E240" s="26"/>
-      <c r="F240" s="36"/>
+      <c r="F240" s="32"/>
     </row>
     <row r="241" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A241" s="32"/>
+      <c r="A241" s="31"/>
       <c r="B241" s="29"/>
-      <c r="C241" s="32"/>
+      <c r="C241" s="31"/>
       <c r="D241" s="26"/>
       <c r="E241" s="26"/>
-      <c r="F241" s="36"/>
+      <c r="F241" s="32"/>
     </row>
     <row r="242" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A242" s="32"/>
+      <c r="A242" s="31"/>
       <c r="B242" s="29"/>
-      <c r="C242" s="32"/>
+      <c r="C242" s="31"/>
       <c r="D242" s="26"/>
       <c r="E242" s="26"/>
-      <c r="F242" s="36"/>
+      <c r="F242" s="32"/>
     </row>
     <row r="243" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A243" s="32"/>
+      <c r="A243" s="31"/>
       <c r="B243" s="29"/>
-      <c r="C243" s="32"/>
+      <c r="C243" s="31"/>
       <c r="D243" s="26"/>
       <c r="E243" s="26"/>
-      <c r="F243" s="36"/>
+      <c r="F243" s="32"/>
     </row>
     <row r="244" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="32"/>
+      <c r="A244" s="31"/>
       <c r="B244" s="29"/>
-      <c r="C244" s="32">
+      <c r="C244" s="31">
         <v>15</v>
       </c>
       <c r="D244" s="26" t="s">
@@ -5304,220 +5304,220 @@
       <c r="E244" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="F244" s="36"/>
+      <c r="F244" s="32"/>
     </row>
     <row r="245" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A245" s="32"/>
+      <c r="A245" s="31"/>
       <c r="B245" s="29"/>
-      <c r="C245" s="32"/>
+      <c r="C245" s="31"/>
       <c r="D245" s="26"/>
       <c r="E245" s="26"/>
-      <c r="F245" s="36"/>
+      <c r="F245" s="32"/>
     </row>
     <row r="246" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A246" s="32"/>
+      <c r="A246" s="31"/>
       <c r="B246" s="29"/>
-      <c r="C246" s="32"/>
+      <c r="C246" s="31"/>
       <c r="D246" s="26"/>
       <c r="E246" s="26"/>
-      <c r="F246" s="36"/>
+      <c r="F246" s="32"/>
     </row>
     <row r="247" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A247" s="32"/>
+      <c r="A247" s="31"/>
       <c r="B247" s="29"/>
-      <c r="C247" s="32"/>
+      <c r="C247" s="31"/>
       <c r="D247" s="26"/>
       <c r="E247" s="26"/>
-      <c r="F247" s="36"/>
+      <c r="F247" s="32"/>
     </row>
     <row r="248" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A248" s="32"/>
+      <c r="A248" s="31"/>
       <c r="B248" s="29"/>
-      <c r="C248" s="32"/>
+      <c r="C248" s="31"/>
       <c r="D248" s="26"/>
       <c r="E248" s="26"/>
-      <c r="F248" s="36"/>
+      <c r="F248" s="32"/>
     </row>
     <row r="249" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A249" s="32"/>
+      <c r="A249" s="31"/>
       <c r="B249" s="29"/>
-      <c r="C249" s="32"/>
+      <c r="C249" s="31"/>
       <c r="D249" s="26"/>
       <c r="E249" s="26"/>
-      <c r="F249" s="36"/>
+      <c r="F249" s="32"/>
     </row>
     <row r="250" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A250" s="32"/>
+      <c r="A250" s="31"/>
       <c r="B250" s="29"/>
-      <c r="C250" s="32"/>
+      <c r="C250" s="31"/>
       <c r="D250" s="26"/>
       <c r="E250" s="26"/>
-      <c r="F250" s="36"/>
+      <c r="F250" s="32"/>
     </row>
     <row r="251" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A251" s="32"/>
+      <c r="A251" s="31"/>
       <c r="B251" s="29"/>
-      <c r="C251" s="32"/>
+      <c r="C251" s="31"/>
       <c r="D251" s="26"/>
       <c r="E251" s="26"/>
-      <c r="F251" s="36"/>
+      <c r="F251" s="32"/>
     </row>
     <row r="252" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A252" s="32"/>
+      <c r="A252" s="31"/>
       <c r="B252" s="29"/>
-      <c r="C252" s="32"/>
+      <c r="C252" s="31"/>
       <c r="D252" s="26"/>
       <c r="E252" s="26"/>
-      <c r="F252" s="36"/>
+      <c r="F252" s="32"/>
     </row>
     <row r="253" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A253" s="32"/>
+      <c r="A253" s="31"/>
       <c r="B253" s="29"/>
-      <c r="C253" s="32"/>
+      <c r="C253" s="31"/>
       <c r="D253" s="26"/>
       <c r="E253" s="26"/>
-      <c r="F253" s="36"/>
+      <c r="F253" s="32"/>
     </row>
     <row r="254" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A254" s="32"/>
+      <c r="A254" s="31"/>
       <c r="B254" s="29"/>
-      <c r="C254" s="32"/>
+      <c r="C254" s="31"/>
       <c r="D254" s="26"/>
       <c r="E254" s="26"/>
-      <c r="F254" s="36"/>
+      <c r="F254" s="32"/>
     </row>
     <row r="255" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A255" s="32"/>
+      <c r="A255" s="31"/>
       <c r="B255" s="29"/>
-      <c r="C255" s="32"/>
+      <c r="C255" s="31"/>
       <c r="D255" s="26"/>
       <c r="E255" s="26"/>
-      <c r="F255" s="36"/>
+      <c r="F255" s="32"/>
     </row>
     <row r="256" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A256" s="32"/>
+      <c r="A256" s="31"/>
       <c r="B256" s="29"/>
-      <c r="C256" s="32"/>
+      <c r="C256" s="31"/>
       <c r="D256" s="26"/>
       <c r="E256" s="26"/>
-      <c r="F256" s="36"/>
+      <c r="F256" s="32"/>
     </row>
     <row r="257" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A257" s="32"/>
+      <c r="A257" s="31"/>
       <c r="B257" s="29"/>
-      <c r="C257" s="32"/>
+      <c r="C257" s="31"/>
       <c r="D257" s="26"/>
       <c r="E257" s="26"/>
-      <c r="F257" s="36"/>
+      <c r="F257" s="32"/>
     </row>
     <row r="258" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A258" s="32"/>
+      <c r="A258" s="31"/>
       <c r="B258" s="29"/>
-      <c r="C258" s="32"/>
+      <c r="C258" s="31"/>
       <c r="D258" s="26"/>
       <c r="E258" s="26"/>
-      <c r="F258" s="36"/>
+      <c r="F258" s="32"/>
     </row>
     <row r="259" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A259" s="32"/>
+      <c r="A259" s="31"/>
       <c r="B259" s="29"/>
-      <c r="C259" s="32"/>
+      <c r="C259" s="31"/>
       <c r="D259" s="26"/>
       <c r="E259" s="26"/>
-      <c r="F259" s="36"/>
+      <c r="F259" s="32"/>
     </row>
     <row r="260" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A260" s="32"/>
+      <c r="A260" s="31"/>
       <c r="B260" s="29"/>
-      <c r="C260" s="32"/>
+      <c r="C260" s="31"/>
       <c r="D260" s="26"/>
       <c r="E260" s="26"/>
-      <c r="F260" s="36"/>
+      <c r="F260" s="32"/>
     </row>
     <row r="261" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A261" s="32"/>
+      <c r="A261" s="31"/>
       <c r="B261" s="29"/>
-      <c r="C261" s="32"/>
+      <c r="C261" s="31"/>
       <c r="D261" s="26"/>
       <c r="E261" s="26"/>
-      <c r="F261" s="36"/>
+      <c r="F261" s="32"/>
     </row>
     <row r="262" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A262" s="32"/>
+      <c r="A262" s="31"/>
       <c r="B262" s="29"/>
-      <c r="C262" s="32"/>
+      <c r="C262" s="31"/>
       <c r="D262" s="26"/>
       <c r="E262" s="26"/>
-      <c r="F262" s="36"/>
+      <c r="F262" s="32"/>
     </row>
     <row r="263" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A263" s="32"/>
+      <c r="A263" s="31"/>
       <c r="B263" s="29"/>
-      <c r="C263" s="32"/>
+      <c r="C263" s="31"/>
       <c r="D263" s="26"/>
       <c r="E263" s="26"/>
-      <c r="F263" s="36"/>
+      <c r="F263" s="32"/>
     </row>
     <row r="264" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A264" s="32"/>
+      <c r="A264" s="31"/>
       <c r="B264" s="29"/>
-      <c r="C264" s="32"/>
+      <c r="C264" s="31"/>
       <c r="D264" s="26"/>
       <c r="E264" s="26"/>
-      <c r="F264" s="36"/>
+      <c r="F264" s="32"/>
     </row>
     <row r="265" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A265" s="32"/>
+      <c r="A265" s="31"/>
       <c r="B265" s="29"/>
-      <c r="C265" s="32"/>
+      <c r="C265" s="31"/>
       <c r="D265" s="26"/>
       <c r="E265" s="26"/>
-      <c r="F265" s="36"/>
+      <c r="F265" s="32"/>
     </row>
     <row r="266" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A266" s="32"/>
+      <c r="A266" s="31"/>
       <c r="B266" s="29"/>
-      <c r="C266" s="32"/>
+      <c r="C266" s="31"/>
       <c r="D266" s="26"/>
       <c r="E266" s="26"/>
-      <c r="F266" s="36"/>
+      <c r="F266" s="32"/>
     </row>
     <row r="267" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A267" s="32"/>
+      <c r="A267" s="31"/>
       <c r="B267" s="29"/>
-      <c r="C267" s="32"/>
+      <c r="C267" s="31"/>
       <c r="D267" s="26"/>
       <c r="E267" s="26"/>
-      <c r="F267" s="36"/>
+      <c r="F267" s="32"/>
     </row>
     <row r="268" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A268" s="32"/>
+      <c r="A268" s="31"/>
       <c r="B268" s="29"/>
-      <c r="C268" s="32"/>
+      <c r="C268" s="31"/>
       <c r="D268" s="26"/>
       <c r="E268" s="26"/>
-      <c r="F268" s="36"/>
+      <c r="F268" s="32"/>
     </row>
     <row r="269" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A269" s="32"/>
+      <c r="A269" s="31"/>
       <c r="B269" s="29"/>
-      <c r="C269" s="32"/>
+      <c r="C269" s="31"/>
       <c r="D269" s="26"/>
       <c r="E269" s="26"/>
-      <c r="F269" s="36"/>
+      <c r="F269" s="32"/>
     </row>
     <row r="270" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A270" s="32"/>
+      <c r="A270" s="31"/>
       <c r="B270" s="29"/>
-      <c r="C270" s="32"/>
+      <c r="C270" s="31"/>
       <c r="D270" s="26"/>
       <c r="E270" s="26"/>
-      <c r="F270" s="36"/>
+      <c r="F270" s="32"/>
     </row>
     <row r="271" spans="1:6" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A271" s="32"/>
+      <c r="A271" s="31"/>
       <c r="B271" s="29"/>
-      <c r="C271" s="32">
+      <c r="C271" s="31">
         <v>16</v>
       </c>
       <c r="D271" s="26" t="s">
@@ -5526,154 +5526,154 @@
       <c r="E271" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="F271" s="36"/>
+      <c r="F271" s="32"/>
     </row>
     <row r="272" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A272" s="32"/>
+      <c r="A272" s="31"/>
       <c r="B272" s="29"/>
-      <c r="C272" s="32"/>
+      <c r="C272" s="31"/>
       <c r="D272" s="26"/>
       <c r="E272" s="26"/>
-      <c r="F272" s="36"/>
+      <c r="F272" s="32"/>
     </row>
     <row r="273" spans="1:6" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="32"/>
+      <c r="A273" s="31"/>
       <c r="B273" s="29"/>
-      <c r="C273" s="32"/>
+      <c r="C273" s="31"/>
       <c r="D273" s="26"/>
       <c r="E273" s="26"/>
-      <c r="F273" s="36"/>
+      <c r="F273" s="32"/>
     </row>
     <row r="274" spans="1:6" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A274" s="32"/>
+      <c r="A274" s="31"/>
       <c r="B274" s="29"/>
-      <c r="C274" s="32"/>
+      <c r="C274" s="31"/>
       <c r="D274" s="26"/>
       <c r="E274" s="26"/>
-      <c r="F274" s="36"/>
+      <c r="F274" s="32"/>
     </row>
     <row r="275" spans="1:6" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A275" s="32"/>
+      <c r="A275" s="31"/>
       <c r="B275" s="29"/>
-      <c r="C275" s="32"/>
+      <c r="C275" s="31"/>
       <c r="D275" s="26"/>
       <c r="E275" s="26"/>
-      <c r="F275" s="36"/>
+      <c r="F275" s="32"/>
     </row>
     <row r="276" spans="1:6" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="32"/>
+      <c r="A276" s="31"/>
       <c r="B276" s="29"/>
-      <c r="C276" s="32"/>
+      <c r="C276" s="31"/>
       <c r="D276" s="26"/>
       <c r="E276" s="26"/>
-      <c r="F276" s="36"/>
+      <c r="F276" s="32"/>
     </row>
     <row r="277" spans="1:6" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="32"/>
+      <c r="A277" s="31"/>
       <c r="B277" s="29"/>
-      <c r="C277" s="32"/>
+      <c r="C277" s="31"/>
       <c r="D277" s="26"/>
       <c r="E277" s="26"/>
-      <c r="F277" s="36"/>
+      <c r="F277" s="32"/>
     </row>
     <row r="278" spans="1:6" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A278" s="32"/>
+      <c r="A278" s="31"/>
       <c r="B278" s="29"/>
-      <c r="C278" s="32"/>
+      <c r="C278" s="31"/>
       <c r="D278" s="26"/>
       <c r="E278" s="26"/>
-      <c r="F278" s="36"/>
+      <c r="F278" s="32"/>
     </row>
     <row r="279" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="32"/>
+      <c r="A279" s="31"/>
       <c r="B279" s="29"/>
-      <c r="C279" s="32">
+      <c r="C279" s="31">
         <v>17</v>
       </c>
-      <c r="D279" s="34" t="s">
+      <c r="D279" s="33" t="s">
         <v>92</v>
       </c>
       <c r="E279" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="F279" s="36"/>
+      <c r="F279" s="32"/>
     </row>
     <row r="280" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="32"/>
+      <c r="A280" s="31"/>
       <c r="B280" s="29"/>
-      <c r="C280" s="32"/>
-      <c r="D280" s="34"/>
+      <c r="C280" s="31"/>
+      <c r="D280" s="33"/>
       <c r="E280" s="26"/>
-      <c r="F280" s="36"/>
+      <c r="F280" s="32"/>
     </row>
     <row r="281" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A281" s="32"/>
+      <c r="A281" s="31"/>
       <c r="B281" s="29"/>
-      <c r="C281" s="32"/>
-      <c r="D281" s="34"/>
+      <c r="C281" s="31"/>
+      <c r="D281" s="33"/>
       <c r="E281" s="26"/>
-      <c r="F281" s="36"/>
+      <c r="F281" s="32"/>
     </row>
     <row r="282" spans="1:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A282" s="32"/>
+      <c r="A282" s="31"/>
       <c r="B282" s="29"/>
-      <c r="C282" s="32"/>
-      <c r="D282" s="34"/>
+      <c r="C282" s="31"/>
+      <c r="D282" s="33"/>
       <c r="E282" s="26"/>
-      <c r="F282" s="36"/>
+      <c r="F282" s="32"/>
     </row>
     <row r="283" spans="1:6" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A283" s="32"/>
+      <c r="A283" s="31"/>
       <c r="B283" s="29"/>
-      <c r="C283" s="32"/>
-      <c r="D283" s="34"/>
+      <c r="C283" s="31"/>
+      <c r="D283" s="33"/>
       <c r="E283" s="26"/>
-      <c r="F283" s="36"/>
+      <c r="F283" s="32"/>
     </row>
     <row r="284" spans="1:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A284" s="32"/>
+      <c r="A284" s="31"/>
       <c r="B284" s="29"/>
-      <c r="C284" s="32"/>
-      <c r="D284" s="34"/>
+      <c r="C284" s="31"/>
+      <c r="D284" s="33"/>
       <c r="E284" s="26"/>
-      <c r="F284" s="36"/>
+      <c r="F284" s="32"/>
     </row>
     <row r="285" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A285" s="32"/>
+      <c r="A285" s="31"/>
       <c r="B285" s="29"/>
-      <c r="C285" s="32"/>
-      <c r="D285" s="34"/>
+      <c r="C285" s="31"/>
+      <c r="D285" s="33"/>
       <c r="E285" s="26"/>
-      <c r="F285" s="36"/>
+      <c r="F285" s="32"/>
     </row>
     <row r="286" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A286" s="32"/>
+      <c r="A286" s="31"/>
       <c r="B286" s="29"/>
-      <c r="C286" s="32"/>
-      <c r="D286" s="34"/>
+      <c r="C286" s="31"/>
+      <c r="D286" s="33"/>
       <c r="E286" s="26"/>
-      <c r="F286" s="36"/>
+      <c r="F286" s="32"/>
     </row>
     <row r="287" spans="1:6" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A287" s="32"/>
+      <c r="A287" s="31"/>
       <c r="B287" s="29"/>
-      <c r="C287" s="32"/>
-      <c r="D287" s="34"/>
+      <c r="C287" s="31"/>
+      <c r="D287" s="33"/>
       <c r="E287" s="26"/>
-      <c r="F287" s="36"/>
+      <c r="F287" s="32"/>
     </row>
     <row r="288" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A288" s="32"/>
+      <c r="A288" s="31"/>
       <c r="B288" s="29"/>
-      <c r="C288" s="32"/>
-      <c r="D288" s="34"/>
+      <c r="C288" s="31"/>
+      <c r="D288" s="33"/>
       <c r="E288" s="26"/>
-      <c r="F288" s="36"/>
+      <c r="F288" s="32"/>
     </row>
     <row r="289" spans="1:6" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A289" s="32"/>
+      <c r="A289" s="31"/>
       <c r="B289" s="29"/>
-      <c r="C289" s="32">
+      <c r="C289" s="31">
         <v>18</v>
       </c>
       <c r="D289" s="26" t="s">
@@ -5682,50 +5682,50 @@
       <c r="E289" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="F289" s="36"/>
+      <c r="F289" s="32"/>
     </row>
     <row r="290" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A290" s="32"/>
+      <c r="A290" s="31"/>
       <c r="B290" s="29"/>
-      <c r="C290" s="32"/>
+      <c r="C290" s="31"/>
       <c r="D290" s="26"/>
       <c r="E290" s="26"/>
-      <c r="F290" s="36"/>
+      <c r="F290" s="32"/>
     </row>
     <row r="291" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A291" s="32"/>
+      <c r="A291" s="31"/>
       <c r="B291" s="29"/>
-      <c r="C291" s="32"/>
+      <c r="C291" s="31"/>
       <c r="D291" s="26"/>
       <c r="E291" s="26"/>
-      <c r="F291" s="36"/>
+      <c r="F291" s="32"/>
     </row>
     <row r="292" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A292" s="32"/>
+      <c r="A292" s="31"/>
       <c r="B292" s="29"/>
-      <c r="C292" s="32"/>
+      <c r="C292" s="31"/>
       <c r="D292" s="26"/>
       <c r="E292" s="26"/>
-      <c r="F292" s="36"/>
+      <c r="F292" s="32"/>
     </row>
     <row r="293" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A293" s="32"/>
+      <c r="A293" s="31"/>
       <c r="B293" s="29"/>
-      <c r="C293" s="32"/>
+      <c r="C293" s="31"/>
       <c r="D293" s="26"/>
       <c r="E293" s="26"/>
-      <c r="F293" s="36"/>
+      <c r="F293" s="32"/>
     </row>
     <row r="294" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A294" s="32"/>
+      <c r="A294" s="31"/>
       <c r="B294" s="29"/>
-      <c r="C294" s="32"/>
+      <c r="C294" s="31"/>
       <c r="D294" s="26"/>
       <c r="E294" s="26"/>
-      <c r="F294" s="36"/>
+      <c r="F294" s="32"/>
     </row>
     <row r="295" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A295" s="32"/>
+      <c r="A295" s="31"/>
       <c r="B295" s="29"/>
       <c r="C295" s="24">
         <v>19</v>
@@ -5736,10 +5736,10 @@
       <c r="E295" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F295" s="36"/>
+      <c r="F295" s="32"/>
     </row>
     <row r="296" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A296" s="32"/>
+      <c r="A296" s="31"/>
       <c r="B296" s="29"/>
       <c r="C296" s="24">
         <v>20</v>
@@ -5750,10 +5750,10 @@
       <c r="E296" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F296" s="36"/>
+      <c r="F296" s="32"/>
     </row>
     <row r="297" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A297" s="32"/>
+      <c r="A297" s="31"/>
       <c r="B297" s="29"/>
       <c r="C297" s="24">
         <v>21</v>
@@ -5764,10 +5764,10 @@
       <c r="E297" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F297" s="36"/>
+      <c r="F297" s="32"/>
     </row>
     <row r="298" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A298" s="32"/>
+      <c r="A298" s="31"/>
       <c r="B298" s="29"/>
       <c r="C298" s="24">
         <v>22</v>
@@ -5778,10 +5778,10 @@
       <c r="E298" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F298" s="36"/>
+      <c r="F298" s="32"/>
     </row>
     <row r="299" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A299" s="32"/>
+      <c r="A299" s="31"/>
       <c r="B299" s="29"/>
       <c r="C299" s="24">
         <v>23</v>
@@ -5792,10 +5792,10 @@
       <c r="E299" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F299" s="36"/>
+      <c r="F299" s="32"/>
     </row>
     <row r="300" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A300" s="32"/>
+      <c r="A300" s="31"/>
       <c r="B300" s="29"/>
       <c r="C300" s="24">
         <v>24</v>
@@ -5806,10 +5806,10 @@
       <c r="E300" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F300" s="36"/>
+      <c r="F300" s="32"/>
     </row>
     <row r="301" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A301" s="32"/>
+      <c r="A301" s="31"/>
       <c r="B301" s="29"/>
       <c r="C301" s="24">
         <v>25</v>
@@ -5820,10 +5820,10 @@
       <c r="E301" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F301" s="36"/>
+      <c r="F301" s="32"/>
     </row>
     <row r="302" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A302" s="32"/>
+      <c r="A302" s="31"/>
       <c r="B302" s="29"/>
       <c r="C302" s="24">
         <v>26</v>
@@ -5834,10 +5834,10 @@
       <c r="E302" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F302" s="36"/>
+      <c r="F302" s="32"/>
     </row>
     <row r="303" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A303" s="32"/>
+      <c r="A303" s="31"/>
       <c r="B303" s="29"/>
       <c r="C303" s="24">
         <v>27</v>
@@ -5848,12 +5848,12 @@
       <c r="E303" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F303" s="36"/>
+      <c r="F303" s="32"/>
     </row>
     <row r="304" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A304" s="32"/>
+      <c r="A304" s="31"/>
       <c r="B304" s="29"/>
-      <c r="C304" s="32">
+      <c r="C304" s="31">
         <v>28</v>
       </c>
       <c r="D304" s="26" t="s">
@@ -5862,44 +5862,44 @@
       <c r="E304" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="F304" s="36"/>
+      <c r="F304" s="32"/>
     </row>
     <row r="305" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A305" s="32"/>
+      <c r="A305" s="31"/>
       <c r="B305" s="29"/>
-      <c r="C305" s="32"/>
+      <c r="C305" s="31"/>
       <c r="D305" s="26"/>
       <c r="E305" s="27"/>
-      <c r="F305" s="36"/>
+      <c r="F305" s="32"/>
     </row>
     <row r="306" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A306" s="32"/>
+      <c r="A306" s="31"/>
       <c r="B306" s="29"/>
-      <c r="C306" s="32"/>
+      <c r="C306" s="31"/>
       <c r="D306" s="26"/>
       <c r="E306" s="27"/>
-      <c r="F306" s="36"/>
+      <c r="F306" s="32"/>
     </row>
     <row r="307" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A307" s="32"/>
+      <c r="A307" s="31"/>
       <c r="B307" s="29"/>
-      <c r="C307" s="32"/>
+      <c r="C307" s="31"/>
       <c r="D307" s="26"/>
       <c r="E307" s="27"/>
-      <c r="F307" s="36"/>
+      <c r="F307" s="32"/>
     </row>
     <row r="308" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A308" s="32"/>
+      <c r="A308" s="31"/>
       <c r="B308" s="29"/>
-      <c r="C308" s="32"/>
+      <c r="C308" s="31"/>
       <c r="D308" s="26"/>
       <c r="E308" s="27"/>
-      <c r="F308" s="36"/>
+      <c r="F308" s="32"/>
     </row>
     <row r="309" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A309" s="32"/>
+      <c r="A309" s="31"/>
       <c r="B309" s="29"/>
-      <c r="C309" s="32">
+      <c r="C309" s="31">
         <v>29</v>
       </c>
       <c r="D309" s="26" t="s">
@@ -5908,44 +5908,44 @@
       <c r="E309" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="F309" s="36"/>
+      <c r="F309" s="32"/>
     </row>
     <row r="310" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A310" s="32"/>
+      <c r="A310" s="31"/>
       <c r="B310" s="29"/>
-      <c r="C310" s="32"/>
+      <c r="C310" s="31"/>
       <c r="D310" s="26"/>
       <c r="E310" s="27"/>
-      <c r="F310" s="36"/>
+      <c r="F310" s="32"/>
     </row>
     <row r="311" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A311" s="32"/>
+      <c r="A311" s="31"/>
       <c r="B311" s="29"/>
-      <c r="C311" s="32"/>
+      <c r="C311" s="31"/>
       <c r="D311" s="26"/>
       <c r="E311" s="27"/>
-      <c r="F311" s="36"/>
+      <c r="F311" s="32"/>
     </row>
     <row r="312" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A312" s="32"/>
+      <c r="A312" s="31"/>
       <c r="B312" s="29"/>
-      <c r="C312" s="32"/>
+      <c r="C312" s="31"/>
       <c r="D312" s="26"/>
       <c r="E312" s="27"/>
-      <c r="F312" s="36"/>
+      <c r="F312" s="32"/>
     </row>
     <row r="313" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A313" s="32"/>
+      <c r="A313" s="31"/>
       <c r="B313" s="29"/>
-      <c r="C313" s="32"/>
+      <c r="C313" s="31"/>
       <c r="D313" s="26"/>
       <c r="E313" s="27"/>
-      <c r="F313" s="36"/>
+      <c r="F313" s="32"/>
     </row>
     <row r="314" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A314" s="32"/>
+      <c r="A314" s="31"/>
       <c r="B314" s="29"/>
-      <c r="C314" s="32">
+      <c r="C314" s="31">
         <v>30</v>
       </c>
       <c r="D314" s="26" t="s">
@@ -5954,20 +5954,20 @@
       <c r="E314" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="F314" s="36"/>
+      <c r="F314" s="32"/>
     </row>
     <row r="315" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A315" s="32"/>
+      <c r="A315" s="31"/>
       <c r="B315" s="29"/>
-      <c r="C315" s="32"/>
+      <c r="C315" s="31"/>
       <c r="D315" s="26"/>
       <c r="E315" s="27"/>
-      <c r="F315" s="36"/>
+      <c r="F315" s="32"/>
     </row>
     <row r="316" spans="1:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A316" s="32"/>
+      <c r="A316" s="31"/>
       <c r="B316" s="29"/>
-      <c r="C316" s="32">
+      <c r="C316" s="31">
         <v>31</v>
       </c>
       <c r="D316" s="26" t="s">
@@ -5976,28 +5976,28 @@
       <c r="E316" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="F316" s="36"/>
+      <c r="F316" s="32"/>
     </row>
     <row r="317" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A317" s="32"/>
+      <c r="A317" s="31"/>
       <c r="B317" s="29"/>
-      <c r="C317" s="32"/>
+      <c r="C317" s="31"/>
       <c r="D317" s="26"/>
       <c r="E317" s="27"/>
-      <c r="F317" s="36"/>
+      <c r="F317" s="32"/>
     </row>
     <row r="318" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A318" s="32"/>
+      <c r="A318" s="31"/>
       <c r="B318" s="29"/>
-      <c r="C318" s="32"/>
+      <c r="C318" s="31"/>
       <c r="D318" s="26"/>
       <c r="E318" s="27"/>
-      <c r="F318" s="36"/>
+      <c r="F318" s="32"/>
     </row>
     <row r="319" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A319" s="32"/>
+      <c r="A319" s="31"/>
       <c r="B319" s="29"/>
-      <c r="C319" s="32">
+      <c r="C319" s="31">
         <v>32</v>
       </c>
       <c r="D319" s="26" t="s">
@@ -6006,44 +6006,44 @@
       <c r="E319" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="F319" s="36"/>
+      <c r="F319" s="32"/>
     </row>
     <row r="320" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A320" s="32"/>
+      <c r="A320" s="31"/>
       <c r="B320" s="29"/>
-      <c r="C320" s="32"/>
+      <c r="C320" s="31"/>
       <c r="D320" s="26"/>
       <c r="E320" s="27"/>
-      <c r="F320" s="36"/>
+      <c r="F320" s="32"/>
     </row>
     <row r="321" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A321" s="32"/>
+      <c r="A321" s="31"/>
       <c r="B321" s="29"/>
-      <c r="C321" s="32"/>
+      <c r="C321" s="31"/>
       <c r="D321" s="26"/>
       <c r="E321" s="27"/>
-      <c r="F321" s="36"/>
+      <c r="F321" s="32"/>
     </row>
     <row r="322" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A322" s="32"/>
+      <c r="A322" s="31"/>
       <c r="B322" s="29"/>
-      <c r="C322" s="32"/>
+      <c r="C322" s="31"/>
       <c r="D322" s="26"/>
       <c r="E322" s="27"/>
-      <c r="F322" s="36"/>
+      <c r="F322" s="32"/>
     </row>
     <row r="323" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A323" s="32"/>
+      <c r="A323" s="31"/>
       <c r="B323" s="29"/>
-      <c r="C323" s="32"/>
+      <c r="C323" s="31"/>
       <c r="D323" s="26"/>
       <c r="E323" s="27"/>
-      <c r="F323" s="36"/>
+      <c r="F323" s="32"/>
     </row>
     <row r="324" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A324" s="32"/>
+      <c r="A324" s="31"/>
       <c r="B324" s="29"/>
-      <c r="C324" s="32">
+      <c r="C324" s="31">
         <v>33</v>
       </c>
       <c r="D324" s="26" t="s">
@@ -6052,44 +6052,44 @@
       <c r="E324" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="F324" s="36"/>
+      <c r="F324" s="32"/>
     </row>
     <row r="325" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A325" s="32"/>
+      <c r="A325" s="31"/>
       <c r="B325" s="29"/>
-      <c r="C325" s="32"/>
+      <c r="C325" s="31"/>
       <c r="D325" s="26"/>
       <c r="E325" s="27"/>
-      <c r="F325" s="36"/>
+      <c r="F325" s="32"/>
     </row>
     <row r="326" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A326" s="32"/>
+      <c r="A326" s="31"/>
       <c r="B326" s="29"/>
-      <c r="C326" s="32"/>
+      <c r="C326" s="31"/>
       <c r="D326" s="26"/>
       <c r="E326" s="27"/>
-      <c r="F326" s="36"/>
+      <c r="F326" s="32"/>
     </row>
     <row r="327" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A327" s="32"/>
+      <c r="A327" s="31"/>
       <c r="B327" s="29"/>
-      <c r="C327" s="32"/>
+      <c r="C327" s="31"/>
       <c r="D327" s="26"/>
       <c r="E327" s="27"/>
-      <c r="F327" s="36"/>
+      <c r="F327" s="32"/>
     </row>
     <row r="328" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A328" s="32"/>
+      <c r="A328" s="31"/>
       <c r="B328" s="29"/>
-      <c r="C328" s="32"/>
+      <c r="C328" s="31"/>
       <c r="D328" s="26"/>
       <c r="E328" s="27"/>
-      <c r="F328" s="36"/>
+      <c r="F328" s="32"/>
     </row>
     <row r="329" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A329" s="32"/>
+      <c r="A329" s="31"/>
       <c r="B329" s="29"/>
-      <c r="C329" s="32">
+      <c r="C329" s="31">
         <v>34</v>
       </c>
       <c r="D329" s="26" t="s">
@@ -6098,44 +6098,44 @@
       <c r="E329" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="F329" s="36"/>
+      <c r="F329" s="32"/>
     </row>
     <row r="330" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A330" s="32"/>
+      <c r="A330" s="31"/>
       <c r="B330" s="29"/>
-      <c r="C330" s="32"/>
+      <c r="C330" s="31"/>
       <c r="D330" s="26"/>
       <c r="E330" s="27"/>
-      <c r="F330" s="36"/>
+      <c r="F330" s="32"/>
     </row>
     <row r="331" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A331" s="32"/>
+      <c r="A331" s="31"/>
       <c r="B331" s="29"/>
-      <c r="C331" s="32"/>
+      <c r="C331" s="31"/>
       <c r="D331" s="26"/>
       <c r="E331" s="27"/>
-      <c r="F331" s="36"/>
+      <c r="F331" s="32"/>
     </row>
     <row r="332" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A332" s="32"/>
+      <c r="A332" s="31"/>
       <c r="B332" s="29"/>
-      <c r="C332" s="32"/>
+      <c r="C332" s="31"/>
       <c r="D332" s="26"/>
       <c r="E332" s="27"/>
-      <c r="F332" s="36"/>
+      <c r="F332" s="32"/>
     </row>
     <row r="333" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A333" s="32"/>
+      <c r="A333" s="31"/>
       <c r="B333" s="29"/>
-      <c r="C333" s="32"/>
+      <c r="C333" s="31"/>
       <c r="D333" s="26"/>
       <c r="E333" s="27"/>
-      <c r="F333" s="36"/>
+      <c r="F333" s="32"/>
     </row>
     <row r="334" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A334" s="32"/>
+      <c r="A334" s="31"/>
       <c r="B334" s="29"/>
-      <c r="C334" s="32">
+      <c r="C334" s="31">
         <v>35</v>
       </c>
       <c r="D334" s="26" t="s">
@@ -6144,44 +6144,44 @@
       <c r="E334" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="F334" s="36"/>
+      <c r="F334" s="32"/>
     </row>
     <row r="335" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A335" s="32"/>
+      <c r="A335" s="31"/>
       <c r="B335" s="29"/>
-      <c r="C335" s="32"/>
+      <c r="C335" s="31"/>
       <c r="D335" s="26"/>
       <c r="E335" s="27"/>
-      <c r="F335" s="36"/>
+      <c r="F335" s="32"/>
     </row>
     <row r="336" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A336" s="32"/>
+      <c r="A336" s="31"/>
       <c r="B336" s="29"/>
-      <c r="C336" s="32"/>
+      <c r="C336" s="31"/>
       <c r="D336" s="26"/>
       <c r="E336" s="27"/>
-      <c r="F336" s="36"/>
+      <c r="F336" s="32"/>
     </row>
     <row r="337" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A337" s="32"/>
+      <c r="A337" s="31"/>
       <c r="B337" s="29"/>
-      <c r="C337" s="32"/>
+      <c r="C337" s="31"/>
       <c r="D337" s="26"/>
       <c r="E337" s="27"/>
-      <c r="F337" s="36"/>
+      <c r="F337" s="32"/>
     </row>
     <row r="338" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A338" s="32"/>
+      <c r="A338" s="31"/>
       <c r="B338" s="29"/>
-      <c r="C338" s="32"/>
+      <c r="C338" s="31"/>
       <c r="D338" s="26"/>
       <c r="E338" s="27"/>
-      <c r="F338" s="36"/>
+      <c r="F338" s="32"/>
     </row>
     <row r="339" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A339" s="32"/>
+      <c r="A339" s="31"/>
       <c r="B339" s="29"/>
-      <c r="C339" s="32">
+      <c r="C339" s="31">
         <v>36</v>
       </c>
       <c r="D339" s="26" t="s">
@@ -6190,28 +6190,28 @@
       <c r="E339" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="F339" s="36"/>
+      <c r="F339" s="32"/>
     </row>
     <row r="340" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A340" s="32"/>
+      <c r="A340" s="31"/>
       <c r="B340" s="29"/>
-      <c r="C340" s="32"/>
+      <c r="C340" s="31"/>
       <c r="D340" s="26"/>
       <c r="E340" s="27"/>
-      <c r="F340" s="36"/>
+      <c r="F340" s="32"/>
     </row>
     <row r="341" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A341" s="32"/>
+      <c r="A341" s="31"/>
       <c r="B341" s="29"/>
-      <c r="C341" s="32"/>
+      <c r="C341" s="31"/>
       <c r="D341" s="26"/>
       <c r="E341" s="27"/>
-      <c r="F341" s="36"/>
+      <c r="F341" s="32"/>
     </row>
     <row r="342" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A342" s="32"/>
+      <c r="A342" s="31"/>
       <c r="B342" s="29"/>
-      <c r="C342" s="32">
+      <c r="C342" s="31">
         <v>37</v>
       </c>
       <c r="D342" s="26" t="s">
@@ -6220,36 +6220,36 @@
       <c r="E342" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="F342" s="36"/>
+      <c r="F342" s="32"/>
     </row>
     <row r="343" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A343" s="32"/>
+      <c r="A343" s="31"/>
       <c r="B343" s="29"/>
-      <c r="C343" s="32"/>
+      <c r="C343" s="31"/>
       <c r="D343" s="26"/>
       <c r="E343" s="27"/>
-      <c r="F343" s="36"/>
+      <c r="F343" s="32"/>
     </row>
     <row r="344" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A344" s="32"/>
+      <c r="A344" s="31"/>
       <c r="B344" s="29"/>
-      <c r="C344" s="32"/>
+      <c r="C344" s="31"/>
       <c r="D344" s="26"/>
       <c r="E344" s="27"/>
-      <c r="F344" s="36"/>
+      <c r="F344" s="32"/>
     </row>
     <row r="345" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A345" s="32"/>
+      <c r="A345" s="31"/>
       <c r="B345" s="29"/>
-      <c r="C345" s="32"/>
+      <c r="C345" s="31"/>
       <c r="D345" s="26"/>
       <c r="E345" s="27"/>
-      <c r="F345" s="36"/>
+      <c r="F345" s="32"/>
     </row>
     <row r="346" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A346" s="32"/>
+      <c r="A346" s="31"/>
       <c r="B346" s="29"/>
-      <c r="C346" s="32">
+      <c r="C346" s="31">
         <v>38</v>
       </c>
       <c r="D346" s="26" t="s">
@@ -6258,44 +6258,44 @@
       <c r="E346" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="F346" s="36"/>
+      <c r="F346" s="32"/>
     </row>
     <row r="347" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A347" s="32"/>
+      <c r="A347" s="31"/>
       <c r="B347" s="29"/>
-      <c r="C347" s="32"/>
+      <c r="C347" s="31"/>
       <c r="D347" s="26"/>
       <c r="E347" s="27"/>
-      <c r="F347" s="36"/>
+      <c r="F347" s="32"/>
     </row>
     <row r="348" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A348" s="32"/>
+      <c r="A348" s="31"/>
       <c r="B348" s="29"/>
-      <c r="C348" s="32"/>
+      <c r="C348" s="31"/>
       <c r="D348" s="26"/>
       <c r="E348" s="27"/>
-      <c r="F348" s="36"/>
+      <c r="F348" s="32"/>
     </row>
     <row r="349" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A349" s="32"/>
+      <c r="A349" s="31"/>
       <c r="B349" s="29"/>
-      <c r="C349" s="32"/>
+      <c r="C349" s="31"/>
       <c r="D349" s="26"/>
       <c r="E349" s="27"/>
-      <c r="F349" s="36"/>
+      <c r="F349" s="32"/>
     </row>
     <row r="350" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A350" s="32"/>
+      <c r="A350" s="31"/>
       <c r="B350" s="29"/>
-      <c r="C350" s="32"/>
+      <c r="C350" s="31"/>
       <c r="D350" s="26"/>
       <c r="E350" s="27"/>
-      <c r="F350" s="36"/>
+      <c r="F350" s="32"/>
     </row>
     <row r="351" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A351" s="32"/>
+      <c r="A351" s="31"/>
       <c r="B351" s="29"/>
-      <c r="C351" s="32">
+      <c r="C351" s="31">
         <v>39</v>
       </c>
       <c r="D351" s="26" t="s">
@@ -6304,44 +6304,44 @@
       <c r="E351" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="F351" s="36"/>
+      <c r="F351" s="32"/>
     </row>
     <row r="352" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A352" s="32"/>
+      <c r="A352" s="31"/>
       <c r="B352" s="29"/>
-      <c r="C352" s="32"/>
+      <c r="C352" s="31"/>
       <c r="D352" s="26"/>
       <c r="E352" s="27"/>
-      <c r="F352" s="36"/>
+      <c r="F352" s="32"/>
     </row>
     <row r="353" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A353" s="32"/>
+      <c r="A353" s="31"/>
       <c r="B353" s="29"/>
-      <c r="C353" s="32"/>
+      <c r="C353" s="31"/>
       <c r="D353" s="26"/>
       <c r="E353" s="27"/>
-      <c r="F353" s="36"/>
+      <c r="F353" s="32"/>
     </row>
     <row r="354" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A354" s="32"/>
+      <c r="A354" s="31"/>
       <c r="B354" s="29"/>
-      <c r="C354" s="32"/>
+      <c r="C354" s="31"/>
       <c r="D354" s="26"/>
       <c r="E354" s="27"/>
-      <c r="F354" s="36"/>
+      <c r="F354" s="32"/>
     </row>
     <row r="355" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A355" s="32"/>
+      <c r="A355" s="31"/>
       <c r="B355" s="29"/>
-      <c r="C355" s="32"/>
+      <c r="C355" s="31"/>
       <c r="D355" s="26"/>
       <c r="E355" s="27"/>
-      <c r="F355" s="36"/>
+      <c r="F355" s="32"/>
     </row>
     <row r="356" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A356" s="32"/>
+      <c r="A356" s="31"/>
       <c r="B356" s="29"/>
-      <c r="C356" s="32">
+      <c r="C356" s="31">
         <v>40</v>
       </c>
       <c r="D356" s="26" t="s">
@@ -6350,52 +6350,52 @@
       <c r="E356" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="F356" s="36"/>
+      <c r="F356" s="32"/>
     </row>
     <row r="357" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A357" s="32"/>
+      <c r="A357" s="31"/>
       <c r="B357" s="29"/>
-      <c r="C357" s="32"/>
+      <c r="C357" s="31"/>
       <c r="D357" s="26"/>
       <c r="E357" s="27"/>
-      <c r="F357" s="36"/>
+      <c r="F357" s="32"/>
     </row>
     <row r="358" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A358" s="32"/>
+      <c r="A358" s="31"/>
       <c r="B358" s="29"/>
-      <c r="C358" s="32"/>
+      <c r="C358" s="31"/>
       <c r="D358" s="26"/>
       <c r="E358" s="27"/>
-      <c r="F358" s="36"/>
+      <c r="F358" s="32"/>
     </row>
     <row r="359" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A359" s="32"/>
+      <c r="A359" s="31"/>
       <c r="B359" s="29"/>
-      <c r="C359" s="32"/>
+      <c r="C359" s="31"/>
       <c r="D359" s="26"/>
       <c r="E359" s="27"/>
-      <c r="F359" s="36"/>
+      <c r="F359" s="32"/>
     </row>
     <row r="360" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A360" s="32"/>
+      <c r="A360" s="31"/>
       <c r="B360" s="29"/>
-      <c r="C360" s="32"/>
+      <c r="C360" s="31"/>
       <c r="D360" s="26"/>
       <c r="E360" s="27"/>
-      <c r="F360" s="36"/>
+      <c r="F360" s="32"/>
     </row>
     <row r="361" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A361" s="32"/>
+      <c r="A361" s="31"/>
       <c r="B361" s="29"/>
-      <c r="C361" s="32"/>
+      <c r="C361" s="31"/>
       <c r="D361" s="26"/>
       <c r="E361" s="27"/>
-      <c r="F361" s="36"/>
+      <c r="F361" s="32"/>
     </row>
     <row r="362" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A362" s="32"/>
+      <c r="A362" s="31"/>
       <c r="B362" s="29"/>
-      <c r="C362" s="32">
+      <c r="C362" s="31">
         <v>41</v>
       </c>
       <c r="D362" s="26" t="s">
@@ -6404,52 +6404,52 @@
       <c r="E362" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="F362" s="36"/>
+      <c r="F362" s="32"/>
     </row>
     <row r="363" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A363" s="32"/>
+      <c r="A363" s="31"/>
       <c r="B363" s="29"/>
-      <c r="C363" s="32"/>
+      <c r="C363" s="31"/>
       <c r="D363" s="26"/>
       <c r="E363" s="27"/>
-      <c r="F363" s="36"/>
+      <c r="F363" s="32"/>
     </row>
     <row r="364" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A364" s="32"/>
+      <c r="A364" s="31"/>
       <c r="B364" s="29"/>
-      <c r="C364" s="32"/>
+      <c r="C364" s="31"/>
       <c r="D364" s="26"/>
       <c r="E364" s="27"/>
-      <c r="F364" s="36"/>
+      <c r="F364" s="32"/>
     </row>
     <row r="365" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A365" s="32"/>
+      <c r="A365" s="31"/>
       <c r="B365" s="29"/>
-      <c r="C365" s="32"/>
+      <c r="C365" s="31"/>
       <c r="D365" s="26"/>
       <c r="E365" s="27"/>
-      <c r="F365" s="36"/>
+      <c r="F365" s="32"/>
     </row>
     <row r="366" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A366" s="32"/>
+      <c r="A366" s="31"/>
       <c r="B366" s="29"/>
-      <c r="C366" s="32"/>
+      <c r="C366" s="31"/>
       <c r="D366" s="26"/>
       <c r="E366" s="27"/>
-      <c r="F366" s="36"/>
+      <c r="F366" s="32"/>
     </row>
     <row r="367" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A367" s="32"/>
+      <c r="A367" s="31"/>
       <c r="B367" s="29"/>
-      <c r="C367" s="32"/>
+      <c r="C367" s="31"/>
       <c r="D367" s="26"/>
       <c r="E367" s="27"/>
-      <c r="F367" s="36"/>
+      <c r="F367" s="32"/>
     </row>
     <row r="368" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A368" s="32"/>
+      <c r="A368" s="31"/>
       <c r="B368" s="29"/>
-      <c r="C368" s="32">
+      <c r="C368" s="31">
         <v>42</v>
       </c>
       <c r="D368" s="26" t="s">
@@ -6458,28 +6458,28 @@
       <c r="E368" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="F368" s="36"/>
+      <c r="F368" s="32"/>
     </row>
     <row r="369" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A369" s="32"/>
+      <c r="A369" s="31"/>
       <c r="B369" s="29"/>
-      <c r="C369" s="32"/>
+      <c r="C369" s="31"/>
       <c r="D369" s="26"/>
       <c r="E369" s="27"/>
-      <c r="F369" s="36"/>
+      <c r="F369" s="32"/>
     </row>
     <row r="370" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A370" s="32"/>
+      <c r="A370" s="31"/>
       <c r="B370" s="29"/>
-      <c r="C370" s="32"/>
+      <c r="C370" s="31"/>
       <c r="D370" s="26"/>
       <c r="E370" s="27"/>
-      <c r="F370" s="36"/>
+      <c r="F370" s="32"/>
     </row>
     <row r="371" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A371" s="32"/>
+      <c r="A371" s="31"/>
       <c r="B371" s="29"/>
-      <c r="C371" s="32">
+      <c r="C371" s="31">
         <v>43</v>
       </c>
       <c r="D371" s="26" t="s">
@@ -6488,76 +6488,76 @@
       <c r="E371" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="F371" s="36"/>
+      <c r="F371" s="32"/>
     </row>
     <row r="372" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A372" s="32"/>
+      <c r="A372" s="31"/>
       <c r="B372" s="29"/>
-      <c r="C372" s="32"/>
+      <c r="C372" s="31"/>
       <c r="D372" s="26"/>
       <c r="E372" s="27"/>
-      <c r="F372" s="36"/>
+      <c r="F372" s="32"/>
     </row>
     <row r="373" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A373" s="32"/>
+      <c r="A373" s="31"/>
       <c r="B373" s="29"/>
-      <c r="C373" s="32"/>
+      <c r="C373" s="31"/>
       <c r="D373" s="26"/>
       <c r="E373" s="27"/>
-      <c r="F373" s="36"/>
+      <c r="F373" s="32"/>
     </row>
     <row r="374" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A374" s="32"/>
+      <c r="A374" s="31"/>
       <c r="B374" s="29"/>
-      <c r="C374" s="32"/>
+      <c r="C374" s="31"/>
       <c r="D374" s="26"/>
       <c r="E374" s="27"/>
-      <c r="F374" s="36"/>
+      <c r="F374" s="32"/>
     </row>
     <row r="375" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A375" s="32"/>
+      <c r="A375" s="31"/>
       <c r="B375" s="29"/>
-      <c r="C375" s="32"/>
+      <c r="C375" s="31"/>
       <c r="D375" s="26"/>
       <c r="E375" s="27"/>
-      <c r="F375" s="36"/>
+      <c r="F375" s="32"/>
     </row>
     <row r="376" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A376" s="32"/>
+      <c r="A376" s="31"/>
       <c r="B376" s="29"/>
-      <c r="C376" s="32"/>
+      <c r="C376" s="31"/>
       <c r="D376" s="26"/>
       <c r="E376" s="27"/>
-      <c r="F376" s="36"/>
+      <c r="F376" s="32"/>
     </row>
     <row r="377" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A377" s="32"/>
+      <c r="A377" s="31"/>
       <c r="B377" s="29"/>
-      <c r="C377" s="32"/>
+      <c r="C377" s="31"/>
       <c r="D377" s="26"/>
       <c r="E377" s="27"/>
-      <c r="F377" s="36"/>
+      <c r="F377" s="32"/>
     </row>
     <row r="378" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A378" s="32"/>
+      <c r="A378" s="31"/>
       <c r="B378" s="29"/>
-      <c r="C378" s="32"/>
+      <c r="C378" s="31"/>
       <c r="D378" s="26"/>
       <c r="E378" s="27"/>
-      <c r="F378" s="36"/>
+      <c r="F378" s="32"/>
     </row>
     <row r="379" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A379" s="32"/>
+      <c r="A379" s="31"/>
       <c r="B379" s="29"/>
-      <c r="C379" s="32"/>
+      <c r="C379" s="31"/>
       <c r="D379" s="26"/>
       <c r="E379" s="27"/>
-      <c r="F379" s="36"/>
+      <c r="F379" s="32"/>
     </row>
     <row r="380" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A380" s="32"/>
+      <c r="A380" s="31"/>
       <c r="B380" s="29"/>
-      <c r="C380" s="32">
+      <c r="C380" s="31">
         <v>44</v>
       </c>
       <c r="D380" s="26" t="s">
@@ -6566,124 +6566,124 @@
       <c r="E380" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="F380" s="36"/>
+      <c r="F380" s="32"/>
     </row>
     <row r="381" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A381" s="32"/>
+      <c r="A381" s="31"/>
       <c r="B381" s="29"/>
-      <c r="C381" s="32"/>
+      <c r="C381" s="31"/>
       <c r="D381" s="26"/>
       <c r="E381" s="26"/>
-      <c r="F381" s="36"/>
+      <c r="F381" s="32"/>
     </row>
     <row r="382" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A382" s="32"/>
+      <c r="A382" s="31"/>
       <c r="B382" s="29"/>
-      <c r="C382" s="32"/>
+      <c r="C382" s="31"/>
       <c r="D382" s="26"/>
       <c r="E382" s="26"/>
-      <c r="F382" s="36"/>
+      <c r="F382" s="32"/>
     </row>
     <row r="383" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A383" s="32"/>
+      <c r="A383" s="31"/>
       <c r="B383" s="29"/>
-      <c r="C383" s="32"/>
+      <c r="C383" s="31"/>
       <c r="D383" s="26"/>
       <c r="E383" s="26"/>
-      <c r="F383" s="36"/>
+      <c r="F383" s="32"/>
     </row>
     <row r="384" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A384" s="32"/>
+      <c r="A384" s="31"/>
       <c r="B384" s="29"/>
-      <c r="C384" s="32"/>
+      <c r="C384" s="31"/>
       <c r="D384" s="26"/>
       <c r="E384" s="26"/>
-      <c r="F384" s="36"/>
+      <c r="F384" s="32"/>
     </row>
     <row r="385" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A385" s="32"/>
+      <c r="A385" s="31"/>
       <c r="B385" s="29"/>
-      <c r="C385" s="32"/>
+      <c r="C385" s="31"/>
       <c r="D385" s="26"/>
       <c r="E385" s="26"/>
-      <c r="F385" s="36"/>
+      <c r="F385" s="32"/>
     </row>
     <row r="386" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A386" s="32"/>
+      <c r="A386" s="31"/>
       <c r="B386" s="29"/>
-      <c r="C386" s="32"/>
+      <c r="C386" s="31"/>
       <c r="D386" s="26"/>
       <c r="E386" s="26"/>
-      <c r="F386" s="36"/>
+      <c r="F386" s="32"/>
     </row>
     <row r="387" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A387" s="32"/>
+      <c r="A387" s="31"/>
       <c r="B387" s="29"/>
-      <c r="C387" s="32"/>
+      <c r="C387" s="31"/>
       <c r="D387" s="26"/>
       <c r="E387" s="26"/>
-      <c r="F387" s="36"/>
+      <c r="F387" s="32"/>
     </row>
     <row r="388" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A388" s="32"/>
+      <c r="A388" s="31"/>
       <c r="B388" s="29"/>
-      <c r="C388" s="32"/>
+      <c r="C388" s="31"/>
       <c r="D388" s="26"/>
       <c r="E388" s="26"/>
-      <c r="F388" s="36"/>
+      <c r="F388" s="32"/>
     </row>
     <row r="389" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A389" s="32"/>
+      <c r="A389" s="31"/>
       <c r="B389" s="29"/>
-      <c r="C389" s="32"/>
+      <c r="C389" s="31"/>
       <c r="D389" s="26"/>
       <c r="E389" s="26"/>
-      <c r="F389" s="36"/>
+      <c r="F389" s="32"/>
     </row>
     <row r="390" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A390" s="32"/>
+      <c r="A390" s="31"/>
       <c r="B390" s="29"/>
-      <c r="C390" s="32"/>
+      <c r="C390" s="31"/>
       <c r="D390" s="26"/>
       <c r="E390" s="26"/>
-      <c r="F390" s="36"/>
+      <c r="F390" s="32"/>
     </row>
     <row r="391" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A391" s="32"/>
+      <c r="A391" s="31"/>
       <c r="B391" s="29"/>
-      <c r="C391" s="32"/>
+      <c r="C391" s="31"/>
       <c r="D391" s="26"/>
       <c r="E391" s="26"/>
-      <c r="F391" s="36"/>
+      <c r="F391" s="32"/>
     </row>
     <row r="392" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A392" s="32"/>
+      <c r="A392" s="31"/>
       <c r="B392" s="29"/>
-      <c r="C392" s="32"/>
+      <c r="C392" s="31"/>
       <c r="D392" s="26"/>
       <c r="E392" s="26"/>
-      <c r="F392" s="36"/>
+      <c r="F392" s="32"/>
     </row>
     <row r="393" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A393" s="32"/>
+      <c r="A393" s="31"/>
       <c r="B393" s="29"/>
-      <c r="C393" s="32"/>
+      <c r="C393" s="31"/>
       <c r="D393" s="26"/>
       <c r="E393" s="26"/>
-      <c r="F393" s="36"/>
+      <c r="F393" s="32"/>
     </row>
     <row r="394" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A394" s="32"/>
+      <c r="A394" s="31"/>
       <c r="B394" s="29"/>
-      <c r="C394" s="32"/>
+      <c r="C394" s="31"/>
       <c r="D394" s="26"/>
       <c r="E394" s="26"/>
-      <c r="F394" s="36"/>
+      <c r="F394" s="32"/>
     </row>
     <row r="395" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A395" s="32"/>
+      <c r="A395" s="31"/>
       <c r="B395" s="29"/>
-      <c r="C395" s="32">
+      <c r="C395" s="31">
         <v>45</v>
       </c>
       <c r="D395" s="26" t="s">
@@ -6692,124 +6692,124 @@
       <c r="E395" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="F395" s="36"/>
+      <c r="F395" s="32"/>
     </row>
     <row r="396" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A396" s="32"/>
+      <c r="A396" s="31"/>
       <c r="B396" s="29"/>
-      <c r="C396" s="32"/>
+      <c r="C396" s="31"/>
       <c r="D396" s="26"/>
       <c r="E396" s="26"/>
-      <c r="F396" s="36"/>
+      <c r="F396" s="32"/>
     </row>
     <row r="397" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A397" s="32"/>
+      <c r="A397" s="31"/>
       <c r="B397" s="29"/>
-      <c r="C397" s="32"/>
+      <c r="C397" s="31"/>
       <c r="D397" s="26"/>
       <c r="E397" s="26"/>
-      <c r="F397" s="36"/>
+      <c r="F397" s="32"/>
     </row>
     <row r="398" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A398" s="32"/>
+      <c r="A398" s="31"/>
       <c r="B398" s="29"/>
-      <c r="C398" s="32"/>
+      <c r="C398" s="31"/>
       <c r="D398" s="26"/>
       <c r="E398" s="26"/>
-      <c r="F398" s="36"/>
+      <c r="F398" s="32"/>
     </row>
     <row r="399" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A399" s="32"/>
+      <c r="A399" s="31"/>
       <c r="B399" s="29"/>
-      <c r="C399" s="32"/>
+      <c r="C399" s="31"/>
       <c r="D399" s="26"/>
       <c r="E399" s="26"/>
-      <c r="F399" s="36"/>
+      <c r="F399" s="32"/>
     </row>
     <row r="400" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A400" s="32"/>
+      <c r="A400" s="31"/>
       <c r="B400" s="29"/>
-      <c r="C400" s="32"/>
+      <c r="C400" s="31"/>
       <c r="D400" s="26"/>
       <c r="E400" s="26"/>
-      <c r="F400" s="36"/>
+      <c r="F400" s="32"/>
     </row>
     <row r="401" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A401" s="32"/>
+      <c r="A401" s="31"/>
       <c r="B401" s="29"/>
-      <c r="C401" s="32"/>
+      <c r="C401" s="31"/>
       <c r="D401" s="26"/>
       <c r="E401" s="26"/>
-      <c r="F401" s="36"/>
+      <c r="F401" s="32"/>
     </row>
     <row r="402" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A402" s="32"/>
+      <c r="A402" s="31"/>
       <c r="B402" s="29"/>
-      <c r="C402" s="32"/>
+      <c r="C402" s="31"/>
       <c r="D402" s="26"/>
       <c r="E402" s="26"/>
-      <c r="F402" s="36"/>
+      <c r="F402" s="32"/>
     </row>
     <row r="403" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A403" s="32"/>
+      <c r="A403" s="31"/>
       <c r="B403" s="29"/>
-      <c r="C403" s="32"/>
+      <c r="C403" s="31"/>
       <c r="D403" s="26"/>
       <c r="E403" s="26"/>
-      <c r="F403" s="36"/>
+      <c r="F403" s="32"/>
     </row>
     <row r="404" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A404" s="32"/>
+      <c r="A404" s="31"/>
       <c r="B404" s="29"/>
-      <c r="C404" s="32"/>
+      <c r="C404" s="31"/>
       <c r="D404" s="26"/>
       <c r="E404" s="26"/>
-      <c r="F404" s="36"/>
+      <c r="F404" s="32"/>
     </row>
     <row r="405" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A405" s="32"/>
+      <c r="A405" s="31"/>
       <c r="B405" s="29"/>
-      <c r="C405" s="32"/>
+      <c r="C405" s="31"/>
       <c r="D405" s="26"/>
       <c r="E405" s="26"/>
-      <c r="F405" s="36"/>
+      <c r="F405" s="32"/>
     </row>
     <row r="406" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A406" s="32"/>
+      <c r="A406" s="31"/>
       <c r="B406" s="29"/>
-      <c r="C406" s="32"/>
+      <c r="C406" s="31"/>
       <c r="D406" s="26"/>
       <c r="E406" s="26"/>
-      <c r="F406" s="36"/>
+      <c r="F406" s="32"/>
     </row>
     <row r="407" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A407" s="32"/>
+      <c r="A407" s="31"/>
       <c r="B407" s="29"/>
-      <c r="C407" s="32"/>
+      <c r="C407" s="31"/>
       <c r="D407" s="26"/>
       <c r="E407" s="26"/>
-      <c r="F407" s="36"/>
+      <c r="F407" s="32"/>
     </row>
     <row r="408" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A408" s="32"/>
+      <c r="A408" s="31"/>
       <c r="B408" s="29"/>
-      <c r="C408" s="32"/>
+      <c r="C408" s="31"/>
       <c r="D408" s="26"/>
       <c r="E408" s="26"/>
-      <c r="F408" s="36"/>
+      <c r="F408" s="32"/>
     </row>
     <row r="409" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A409" s="32"/>
+      <c r="A409" s="31"/>
       <c r="B409" s="29"/>
-      <c r="C409" s="32"/>
+      <c r="C409" s="31"/>
       <c r="D409" s="26"/>
       <c r="E409" s="26"/>
-      <c r="F409" s="36"/>
+      <c r="F409" s="32"/>
     </row>
     <row r="410" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A410" s="32"/>
+      <c r="A410" s="31"/>
       <c r="B410" s="29"/>
-      <c r="C410" s="32">
+      <c r="C410" s="31">
         <v>46</v>
       </c>
       <c r="D410" s="26" t="s">
@@ -6818,124 +6818,124 @@
       <c r="E410" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="F410" s="36"/>
+      <c r="F410" s="32"/>
     </row>
     <row r="411" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A411" s="32"/>
+      <c r="A411" s="31"/>
       <c r="B411" s="29"/>
-      <c r="C411" s="32"/>
+      <c r="C411" s="31"/>
       <c r="D411" s="26"/>
       <c r="E411" s="26"/>
-      <c r="F411" s="36"/>
+      <c r="F411" s="32"/>
     </row>
     <row r="412" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A412" s="32"/>
+      <c r="A412" s="31"/>
       <c r="B412" s="29"/>
-      <c r="C412" s="32"/>
+      <c r="C412" s="31"/>
       <c r="D412" s="26"/>
       <c r="E412" s="26"/>
-      <c r="F412" s="36"/>
+      <c r="F412" s="32"/>
     </row>
     <row r="413" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A413" s="32"/>
+      <c r="A413" s="31"/>
       <c r="B413" s="29"/>
-      <c r="C413" s="32"/>
+      <c r="C413" s="31"/>
       <c r="D413" s="26"/>
       <c r="E413" s="26"/>
-      <c r="F413" s="36"/>
+      <c r="F413" s="32"/>
     </row>
     <row r="414" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A414" s="32"/>
+      <c r="A414" s="31"/>
       <c r="B414" s="29"/>
-      <c r="C414" s="32"/>
+      <c r="C414" s="31"/>
       <c r="D414" s="26"/>
       <c r="E414" s="26"/>
-      <c r="F414" s="36"/>
+      <c r="F414" s="32"/>
     </row>
     <row r="415" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A415" s="32"/>
+      <c r="A415" s="31"/>
       <c r="B415" s="29"/>
-      <c r="C415" s="32"/>
+      <c r="C415" s="31"/>
       <c r="D415" s="26"/>
       <c r="E415" s="26"/>
-      <c r="F415" s="36"/>
+      <c r="F415" s="32"/>
     </row>
     <row r="416" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A416" s="32"/>
+      <c r="A416" s="31"/>
       <c r="B416" s="29"/>
-      <c r="C416" s="32"/>
+      <c r="C416" s="31"/>
       <c r="D416" s="26"/>
       <c r="E416" s="26"/>
-      <c r="F416" s="36"/>
+      <c r="F416" s="32"/>
     </row>
     <row r="417" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A417" s="32"/>
+      <c r="A417" s="31"/>
       <c r="B417" s="29"/>
-      <c r="C417" s="32"/>
+      <c r="C417" s="31"/>
       <c r="D417" s="26"/>
       <c r="E417" s="26"/>
-      <c r="F417" s="36"/>
+      <c r="F417" s="32"/>
     </row>
     <row r="418" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A418" s="32"/>
+      <c r="A418" s="31"/>
       <c r="B418" s="29"/>
-      <c r="C418" s="32"/>
+      <c r="C418" s="31"/>
       <c r="D418" s="26"/>
       <c r="E418" s="26"/>
-      <c r="F418" s="36"/>
+      <c r="F418" s="32"/>
     </row>
     <row r="419" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A419" s="32"/>
+      <c r="A419" s="31"/>
       <c r="B419" s="29"/>
-      <c r="C419" s="32"/>
+      <c r="C419" s="31"/>
       <c r="D419" s="26"/>
       <c r="E419" s="26"/>
-      <c r="F419" s="36"/>
+      <c r="F419" s="32"/>
     </row>
     <row r="420" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A420" s="32"/>
+      <c r="A420" s="31"/>
       <c r="B420" s="29"/>
-      <c r="C420" s="32"/>
+      <c r="C420" s="31"/>
       <c r="D420" s="26"/>
       <c r="E420" s="26"/>
-      <c r="F420" s="36"/>
+      <c r="F420" s="32"/>
     </row>
     <row r="421" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A421" s="32"/>
+      <c r="A421" s="31"/>
       <c r="B421" s="29"/>
-      <c r="C421" s="32"/>
+      <c r="C421" s="31"/>
       <c r="D421" s="26"/>
       <c r="E421" s="26"/>
-      <c r="F421" s="36"/>
+      <c r="F421" s="32"/>
     </row>
     <row r="422" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A422" s="32"/>
+      <c r="A422" s="31"/>
       <c r="B422" s="29"/>
-      <c r="C422" s="32"/>
+      <c r="C422" s="31"/>
       <c r="D422" s="26"/>
       <c r="E422" s="26"/>
-      <c r="F422" s="36"/>
+      <c r="F422" s="32"/>
     </row>
     <row r="423" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A423" s="32"/>
+      <c r="A423" s="31"/>
       <c r="B423" s="29"/>
-      <c r="C423" s="32"/>
+      <c r="C423" s="31"/>
       <c r="D423" s="26"/>
       <c r="E423" s="26"/>
-      <c r="F423" s="36"/>
+      <c r="F423" s="32"/>
     </row>
     <row r="424" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A424" s="32"/>
+      <c r="A424" s="31"/>
       <c r="B424" s="29"/>
-      <c r="C424" s="32"/>
+      <c r="C424" s="31"/>
       <c r="D424" s="26"/>
       <c r="E424" s="26"/>
-      <c r="F424" s="36"/>
+      <c r="F424" s="32"/>
     </row>
     <row r="425" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A425" s="32"/>
+      <c r="A425" s="31"/>
       <c r="B425" s="29"/>
-      <c r="C425" s="32">
+      <c r="C425" s="31">
         <v>47</v>
       </c>
       <c r="D425" s="26" t="s">
@@ -6944,108 +6944,108 @@
       <c r="E425" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="F425" s="36"/>
+      <c r="F425" s="32"/>
     </row>
     <row r="426" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A426" s="32"/>
+      <c r="A426" s="31"/>
       <c r="B426" s="29"/>
-      <c r="C426" s="32"/>
+      <c r="C426" s="31"/>
       <c r="D426" s="26"/>
       <c r="E426" s="26"/>
-      <c r="F426" s="36"/>
+      <c r="F426" s="32"/>
     </row>
     <row r="427" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A427" s="32"/>
+      <c r="A427" s="31"/>
       <c r="B427" s="29"/>
-      <c r="C427" s="32"/>
+      <c r="C427" s="31"/>
       <c r="D427" s="26"/>
       <c r="E427" s="26"/>
-      <c r="F427" s="36"/>
+      <c r="F427" s="32"/>
     </row>
     <row r="428" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A428" s="32"/>
+      <c r="A428" s="31"/>
       <c r="B428" s="29"/>
-      <c r="C428" s="32"/>
+      <c r="C428" s="31"/>
       <c r="D428" s="26"/>
       <c r="E428" s="26"/>
-      <c r="F428" s="36"/>
+      <c r="F428" s="32"/>
     </row>
     <row r="429" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A429" s="32"/>
+      <c r="A429" s="31"/>
       <c r="B429" s="29"/>
-      <c r="C429" s="32"/>
+      <c r="C429" s="31"/>
       <c r="D429" s="26"/>
       <c r="E429" s="26"/>
-      <c r="F429" s="36"/>
+      <c r="F429" s="32"/>
     </row>
     <row r="430" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A430" s="32"/>
+      <c r="A430" s="31"/>
       <c r="B430" s="29"/>
-      <c r="C430" s="32"/>
+      <c r="C430" s="31"/>
       <c r="D430" s="26"/>
       <c r="E430" s="26"/>
-      <c r="F430" s="36"/>
+      <c r="F430" s="32"/>
     </row>
     <row r="431" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A431" s="32"/>
+      <c r="A431" s="31"/>
       <c r="B431" s="29"/>
-      <c r="C431" s="32"/>
+      <c r="C431" s="31"/>
       <c r="D431" s="26"/>
       <c r="E431" s="26"/>
-      <c r="F431" s="36"/>
+      <c r="F431" s="32"/>
     </row>
     <row r="432" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A432" s="32"/>
+      <c r="A432" s="31"/>
       <c r="B432" s="29"/>
-      <c r="C432" s="32"/>
+      <c r="C432" s="31"/>
       <c r="D432" s="26"/>
       <c r="E432" s="26"/>
-      <c r="F432" s="36"/>
+      <c r="F432" s="32"/>
     </row>
     <row r="433" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A433" s="32"/>
+      <c r="A433" s="31"/>
       <c r="B433" s="29"/>
-      <c r="C433" s="32"/>
+      <c r="C433" s="31"/>
       <c r="D433" s="26"/>
       <c r="E433" s="26"/>
-      <c r="F433" s="36"/>
+      <c r="F433" s="32"/>
     </row>
     <row r="434" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A434" s="32"/>
+      <c r="A434" s="31"/>
       <c r="B434" s="29"/>
-      <c r="C434" s="32"/>
+      <c r="C434" s="31"/>
       <c r="D434" s="26"/>
       <c r="E434" s="26"/>
-      <c r="F434" s="36"/>
+      <c r="F434" s="32"/>
     </row>
     <row r="435" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A435" s="32"/>
+      <c r="A435" s="31"/>
       <c r="B435" s="29"/>
-      <c r="C435" s="32"/>
+      <c r="C435" s="31"/>
       <c r="D435" s="26"/>
       <c r="E435" s="26"/>
-      <c r="F435" s="36"/>
+      <c r="F435" s="32"/>
     </row>
     <row r="436" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A436" s="32"/>
+      <c r="A436" s="31"/>
       <c r="B436" s="29"/>
-      <c r="C436" s="32"/>
+      <c r="C436" s="31"/>
       <c r="D436" s="26"/>
       <c r="E436" s="26"/>
-      <c r="F436" s="36"/>
+      <c r="F436" s="32"/>
     </row>
     <row r="437" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A437" s="32"/>
+      <c r="A437" s="31"/>
       <c r="B437" s="29"/>
-      <c r="C437" s="32"/>
+      <c r="C437" s="31"/>
       <c r="D437" s="26"/>
       <c r="E437" s="26"/>
-      <c r="F437" s="36"/>
+      <c r="F437" s="32"/>
     </row>
     <row r="438" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A438" s="32"/>
+      <c r="A438" s="31"/>
       <c r="B438" s="29"/>
-      <c r="C438" s="32">
+      <c r="C438" s="31">
         <v>48</v>
       </c>
       <c r="D438" s="26" t="s">
@@ -7054,108 +7054,108 @@
       <c r="E438" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="F438" s="36"/>
+      <c r="F438" s="32"/>
     </row>
     <row r="439" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A439" s="32"/>
+      <c r="A439" s="31"/>
       <c r="B439" s="29"/>
-      <c r="C439" s="32"/>
+      <c r="C439" s="31"/>
       <c r="D439" s="26"/>
       <c r="E439" s="26"/>
-      <c r="F439" s="36"/>
+      <c r="F439" s="32"/>
     </row>
     <row r="440" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A440" s="32"/>
+      <c r="A440" s="31"/>
       <c r="B440" s="29"/>
-      <c r="C440" s="32"/>
+      <c r="C440" s="31"/>
       <c r="D440" s="26"/>
       <c r="E440" s="26"/>
-      <c r="F440" s="36"/>
+      <c r="F440" s="32"/>
     </row>
     <row r="441" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A441" s="32"/>
+      <c r="A441" s="31"/>
       <c r="B441" s="29"/>
-      <c r="C441" s="32"/>
+      <c r="C441" s="31"/>
       <c r="D441" s="26"/>
       <c r="E441" s="26"/>
-      <c r="F441" s="36"/>
+      <c r="F441" s="32"/>
     </row>
     <row r="442" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A442" s="32"/>
+      <c r="A442" s="31"/>
       <c r="B442" s="29"/>
-      <c r="C442" s="32"/>
+      <c r="C442" s="31"/>
       <c r="D442" s="26"/>
       <c r="E442" s="26"/>
-      <c r="F442" s="36"/>
+      <c r="F442" s="32"/>
     </row>
     <row r="443" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A443" s="32"/>
+      <c r="A443" s="31"/>
       <c r="B443" s="29"/>
-      <c r="C443" s="32"/>
+      <c r="C443" s="31"/>
       <c r="D443" s="26"/>
       <c r="E443" s="26"/>
-      <c r="F443" s="36"/>
+      <c r="F443" s="32"/>
     </row>
     <row r="444" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A444" s="32"/>
+      <c r="A444" s="31"/>
       <c r="B444" s="29"/>
-      <c r="C444" s="32"/>
+      <c r="C444" s="31"/>
       <c r="D444" s="26"/>
       <c r="E444" s="26"/>
-      <c r="F444" s="36"/>
+      <c r="F444" s="32"/>
     </row>
     <row r="445" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A445" s="32"/>
+      <c r="A445" s="31"/>
       <c r="B445" s="29"/>
-      <c r="C445" s="32"/>
+      <c r="C445" s="31"/>
       <c r="D445" s="26"/>
       <c r="E445" s="26"/>
-      <c r="F445" s="36"/>
+      <c r="F445" s="32"/>
     </row>
     <row r="446" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A446" s="32"/>
+      <c r="A446" s="31"/>
       <c r="B446" s="29"/>
-      <c r="C446" s="32"/>
+      <c r="C446" s="31"/>
       <c r="D446" s="26"/>
       <c r="E446" s="26"/>
-      <c r="F446" s="36"/>
+      <c r="F446" s="32"/>
     </row>
     <row r="447" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A447" s="32"/>
+      <c r="A447" s="31"/>
       <c r="B447" s="29"/>
-      <c r="C447" s="32"/>
+      <c r="C447" s="31"/>
       <c r="D447" s="26"/>
       <c r="E447" s="26"/>
-      <c r="F447" s="36"/>
+      <c r="F447" s="32"/>
     </row>
     <row r="448" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A448" s="32"/>
+      <c r="A448" s="31"/>
       <c r="B448" s="29"/>
-      <c r="C448" s="32"/>
+      <c r="C448" s="31"/>
       <c r="D448" s="26"/>
       <c r="E448" s="26"/>
-      <c r="F448" s="36"/>
+      <c r="F448" s="32"/>
     </row>
     <row r="449" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A449" s="32"/>
+      <c r="A449" s="31"/>
       <c r="B449" s="29"/>
-      <c r="C449" s="32"/>
+      <c r="C449" s="31"/>
       <c r="D449" s="26"/>
       <c r="E449" s="26"/>
-      <c r="F449" s="36"/>
+      <c r="F449" s="32"/>
     </row>
     <row r="450" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A450" s="32"/>
+      <c r="A450" s="31"/>
       <c r="B450" s="29"/>
-      <c r="C450" s="32"/>
+      <c r="C450" s="31"/>
       <c r="D450" s="26"/>
       <c r="E450" s="26"/>
-      <c r="F450" s="36"/>
+      <c r="F450" s="32"/>
     </row>
     <row r="451" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A451" s="32"/>
+      <c r="A451" s="31"/>
       <c r="B451" s="29"/>
-      <c r="C451" s="32">
+      <c r="C451" s="31">
         <v>49</v>
       </c>
       <c r="D451" s="26" t="s">
@@ -7164,108 +7164,108 @@
       <c r="E451" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="F451" s="36"/>
+      <c r="F451" s="32"/>
     </row>
     <row r="452" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A452" s="32"/>
+      <c r="A452" s="31"/>
       <c r="B452" s="29"/>
-      <c r="C452" s="32"/>
+      <c r="C452" s="31"/>
       <c r="D452" s="26"/>
       <c r="E452" s="26"/>
-      <c r="F452" s="36"/>
+      <c r="F452" s="32"/>
     </row>
     <row r="453" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A453" s="32"/>
+      <c r="A453" s="31"/>
       <c r="B453" s="29"/>
-      <c r="C453" s="32"/>
+      <c r="C453" s="31"/>
       <c r="D453" s="26"/>
       <c r="E453" s="26"/>
-      <c r="F453" s="36"/>
+      <c r="F453" s="32"/>
     </row>
     <row r="454" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A454" s="32"/>
+      <c r="A454" s="31"/>
       <c r="B454" s="29"/>
-      <c r="C454" s="32"/>
+      <c r="C454" s="31"/>
       <c r="D454" s="26"/>
       <c r="E454" s="26"/>
-      <c r="F454" s="36"/>
+      <c r="F454" s="32"/>
     </row>
     <row r="455" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A455" s="32"/>
+      <c r="A455" s="31"/>
       <c r="B455" s="29"/>
-      <c r="C455" s="32"/>
+      <c r="C455" s="31"/>
       <c r="D455" s="26"/>
       <c r="E455" s="26"/>
-      <c r="F455" s="36"/>
+      <c r="F455" s="32"/>
     </row>
     <row r="456" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A456" s="32"/>
+      <c r="A456" s="31"/>
       <c r="B456" s="29"/>
-      <c r="C456" s="32"/>
+      <c r="C456" s="31"/>
       <c r="D456" s="26"/>
       <c r="E456" s="26"/>
-      <c r="F456" s="36"/>
+      <c r="F456" s="32"/>
     </row>
     <row r="457" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A457" s="32"/>
+      <c r="A457" s="31"/>
       <c r="B457" s="29"/>
-      <c r="C457" s="32"/>
+      <c r="C457" s="31"/>
       <c r="D457" s="26"/>
       <c r="E457" s="26"/>
-      <c r="F457" s="36"/>
+      <c r="F457" s="32"/>
     </row>
     <row r="458" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A458" s="32"/>
+      <c r="A458" s="31"/>
       <c r="B458" s="29"/>
-      <c r="C458" s="32"/>
+      <c r="C458" s="31"/>
       <c r="D458" s="26"/>
       <c r="E458" s="26"/>
-      <c r="F458" s="36"/>
+      <c r="F458" s="32"/>
     </row>
     <row r="459" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A459" s="32"/>
+      <c r="A459" s="31"/>
       <c r="B459" s="29"/>
-      <c r="C459" s="32"/>
+      <c r="C459" s="31"/>
       <c r="D459" s="26"/>
       <c r="E459" s="26"/>
-      <c r="F459" s="36"/>
+      <c r="F459" s="32"/>
     </row>
     <row r="460" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A460" s="32"/>
+      <c r="A460" s="31"/>
       <c r="B460" s="29"/>
-      <c r="C460" s="32"/>
+      <c r="C460" s="31"/>
       <c r="D460" s="26"/>
       <c r="E460" s="26"/>
-      <c r="F460" s="36"/>
+      <c r="F460" s="32"/>
     </row>
     <row r="461" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A461" s="32"/>
+      <c r="A461" s="31"/>
       <c r="B461" s="29"/>
-      <c r="C461" s="32"/>
+      <c r="C461" s="31"/>
       <c r="D461" s="26"/>
       <c r="E461" s="26"/>
-      <c r="F461" s="36"/>
+      <c r="F461" s="32"/>
     </row>
     <row r="462" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A462" s="32"/>
+      <c r="A462" s="31"/>
       <c r="B462" s="29"/>
-      <c r="C462" s="32"/>
+      <c r="C462" s="31"/>
       <c r="D462" s="26"/>
       <c r="E462" s="26"/>
-      <c r="F462" s="36"/>
+      <c r="F462" s="32"/>
     </row>
     <row r="463" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A463" s="32"/>
+      <c r="A463" s="31"/>
       <c r="B463" s="29"/>
-      <c r="C463" s="32"/>
+      <c r="C463" s="31"/>
       <c r="D463" s="26"/>
       <c r="E463" s="26"/>
-      <c r="F463" s="36"/>
+      <c r="F463" s="32"/>
     </row>
     <row r="464" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A464" s="32"/>
+      <c r="A464" s="31"/>
       <c r="B464" s="29"/>
-      <c r="C464" s="32">
+      <c r="C464" s="31">
         <v>50</v>
       </c>
       <c r="D464" s="26" t="s">
@@ -7274,100 +7274,100 @@
       <c r="E464" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="F464" s="36"/>
+      <c r="F464" s="32"/>
     </row>
     <row r="465" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A465" s="32"/>
+      <c r="A465" s="31"/>
       <c r="B465" s="29"/>
-      <c r="C465" s="32"/>
+      <c r="C465" s="31"/>
       <c r="D465" s="26"/>
       <c r="E465" s="26"/>
-      <c r="F465" s="36"/>
+      <c r="F465" s="32"/>
     </row>
     <row r="466" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A466" s="32"/>
+      <c r="A466" s="31"/>
       <c r="B466" s="29"/>
-      <c r="C466" s="32"/>
+      <c r="C466" s="31"/>
       <c r="D466" s="26"/>
       <c r="E466" s="26"/>
-      <c r="F466" s="36"/>
+      <c r="F466" s="32"/>
     </row>
     <row r="467" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A467" s="32"/>
+      <c r="A467" s="31"/>
       <c r="B467" s="29"/>
-      <c r="C467" s="32"/>
+      <c r="C467" s="31"/>
       <c r="D467" s="26"/>
       <c r="E467" s="26"/>
-      <c r="F467" s="36"/>
+      <c r="F467" s="32"/>
     </row>
     <row r="468" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A468" s="32"/>
+      <c r="A468" s="31"/>
       <c r="B468" s="29"/>
-      <c r="C468" s="32"/>
+      <c r="C468" s="31"/>
       <c r="D468" s="26"/>
       <c r="E468" s="26"/>
-      <c r="F468" s="36"/>
+      <c r="F468" s="32"/>
     </row>
     <row r="469" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A469" s="32"/>
+      <c r="A469" s="31"/>
       <c r="B469" s="29"/>
-      <c r="C469" s="32"/>
+      <c r="C469" s="31"/>
       <c r="D469" s="26"/>
       <c r="E469" s="26"/>
-      <c r="F469" s="36"/>
+      <c r="F469" s="32"/>
     </row>
     <row r="470" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A470" s="32"/>
+      <c r="A470" s="31"/>
       <c r="B470" s="29"/>
-      <c r="C470" s="32"/>
+      <c r="C470" s="31"/>
       <c r="D470" s="26"/>
       <c r="E470" s="26"/>
-      <c r="F470" s="36"/>
+      <c r="F470" s="32"/>
     </row>
     <row r="471" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A471" s="32"/>
+      <c r="A471" s="31"/>
       <c r="B471" s="29"/>
-      <c r="C471" s="32"/>
+      <c r="C471" s="31"/>
       <c r="D471" s="26"/>
       <c r="E471" s="26"/>
-      <c r="F471" s="36"/>
+      <c r="F471" s="32"/>
     </row>
     <row r="472" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A472" s="32"/>
+      <c r="A472" s="31"/>
       <c r="B472" s="29"/>
-      <c r="C472" s="32"/>
+      <c r="C472" s="31"/>
       <c r="D472" s="26"/>
       <c r="E472" s="26"/>
-      <c r="F472" s="36"/>
+      <c r="F472" s="32"/>
     </row>
     <row r="473" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A473" s="32"/>
+      <c r="A473" s="31"/>
       <c r="B473" s="29"/>
-      <c r="C473" s="32"/>
+      <c r="C473" s="31"/>
       <c r="D473" s="26"/>
       <c r="E473" s="26"/>
-      <c r="F473" s="36"/>
+      <c r="F473" s="32"/>
     </row>
     <row r="474" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A474" s="32"/>
+      <c r="A474" s="31"/>
       <c r="B474" s="29"/>
-      <c r="C474" s="32"/>
+      <c r="C474" s="31"/>
       <c r="D474" s="26"/>
       <c r="E474" s="26"/>
-      <c r="F474" s="36"/>
+      <c r="F474" s="32"/>
     </row>
     <row r="475" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A475" s="32"/>
+      <c r="A475" s="31"/>
       <c r="B475" s="29"/>
-      <c r="C475" s="32"/>
+      <c r="C475" s="31"/>
       <c r="D475" s="26"/>
       <c r="E475" s="26"/>
-      <c r="F475" s="36"/>
+      <c r="F475" s="32"/>
     </row>
     <row r="476" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A476" s="32"/>
+      <c r="A476" s="31"/>
       <c r="B476" s="29"/>
-      <c r="C476" s="32">
+      <c r="C476" s="31">
         <v>51</v>
       </c>
       <c r="D476" s="26" t="s">
@@ -7376,108 +7376,108 @@
       <c r="E476" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="F476" s="36"/>
+      <c r="F476" s="32"/>
     </row>
     <row r="477" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A477" s="32"/>
+      <c r="A477" s="31"/>
       <c r="B477" s="29"/>
-      <c r="C477" s="32"/>
+      <c r="C477" s="31"/>
       <c r="D477" s="26"/>
       <c r="E477" s="26"/>
-      <c r="F477" s="36"/>
+      <c r="F477" s="32"/>
     </row>
     <row r="478" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A478" s="32"/>
+      <c r="A478" s="31"/>
       <c r="B478" s="29"/>
-      <c r="C478" s="32"/>
+      <c r="C478" s="31"/>
       <c r="D478" s="26"/>
       <c r="E478" s="26"/>
-      <c r="F478" s="36"/>
+      <c r="F478" s="32"/>
     </row>
     <row r="479" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A479" s="32"/>
+      <c r="A479" s="31"/>
       <c r="B479" s="29"/>
-      <c r="C479" s="32"/>
+      <c r="C479" s="31"/>
       <c r="D479" s="26"/>
       <c r="E479" s="26"/>
-      <c r="F479" s="36"/>
+      <c r="F479" s="32"/>
     </row>
     <row r="480" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A480" s="32"/>
+      <c r="A480" s="31"/>
       <c r="B480" s="29"/>
-      <c r="C480" s="32"/>
+      <c r="C480" s="31"/>
       <c r="D480" s="26"/>
       <c r="E480" s="26"/>
-      <c r="F480" s="36"/>
+      <c r="F480" s="32"/>
     </row>
     <row r="481" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A481" s="32"/>
+      <c r="A481" s="31"/>
       <c r="B481" s="29"/>
-      <c r="C481" s="32"/>
+      <c r="C481" s="31"/>
       <c r="D481" s="26"/>
       <c r="E481" s="26"/>
-      <c r="F481" s="36"/>
+      <c r="F481" s="32"/>
     </row>
     <row r="482" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A482" s="32"/>
+      <c r="A482" s="31"/>
       <c r="B482" s="29"/>
-      <c r="C482" s="32"/>
+      <c r="C482" s="31"/>
       <c r="D482" s="26"/>
       <c r="E482" s="26"/>
-      <c r="F482" s="36"/>
+      <c r="F482" s="32"/>
     </row>
     <row r="483" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A483" s="32"/>
+      <c r="A483" s="31"/>
       <c r="B483" s="29"/>
-      <c r="C483" s="32"/>
+      <c r="C483" s="31"/>
       <c r="D483" s="26"/>
       <c r="E483" s="26"/>
-      <c r="F483" s="36"/>
+      <c r="F483" s="32"/>
     </row>
     <row r="484" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A484" s="32"/>
+      <c r="A484" s="31"/>
       <c r="B484" s="29"/>
-      <c r="C484" s="32"/>
+      <c r="C484" s="31"/>
       <c r="D484" s="26"/>
       <c r="E484" s="26"/>
-      <c r="F484" s="36"/>
+      <c r="F484" s="32"/>
     </row>
     <row r="485" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A485" s="32"/>
+      <c r="A485" s="31"/>
       <c r="B485" s="29"/>
-      <c r="C485" s="32"/>
+      <c r="C485" s="31"/>
       <c r="D485" s="26"/>
       <c r="E485" s="26"/>
-      <c r="F485" s="36"/>
+      <c r="F485" s="32"/>
     </row>
     <row r="486" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A486" s="32"/>
+      <c r="A486" s="31"/>
       <c r="B486" s="29"/>
-      <c r="C486" s="32"/>
+      <c r="C486" s="31"/>
       <c r="D486" s="26"/>
       <c r="E486" s="26"/>
-      <c r="F486" s="36"/>
+      <c r="F486" s="32"/>
     </row>
     <row r="487" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A487" s="32"/>
+      <c r="A487" s="31"/>
       <c r="B487" s="29"/>
-      <c r="C487" s="32"/>
+      <c r="C487" s="31"/>
       <c r="D487" s="26"/>
       <c r="E487" s="26"/>
-      <c r="F487" s="36"/>
+      <c r="F487" s="32"/>
     </row>
     <row r="488" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A488" s="32"/>
+      <c r="A488" s="31"/>
       <c r="B488" s="29"/>
-      <c r="C488" s="32"/>
+      <c r="C488" s="31"/>
       <c r="D488" s="26"/>
       <c r="E488" s="26"/>
-      <c r="F488" s="36"/>
+      <c r="F488" s="32"/>
     </row>
     <row r="489" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A489" s="32"/>
+      <c r="A489" s="31"/>
       <c r="B489" s="29"/>
-      <c r="C489" s="32">
+      <c r="C489" s="31">
         <v>52</v>
       </c>
       <c r="D489" s="26" t="s">
@@ -7486,108 +7486,108 @@
       <c r="E489" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="F489" s="36"/>
+      <c r="F489" s="32"/>
     </row>
     <row r="490" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A490" s="32"/>
+      <c r="A490" s="31"/>
       <c r="B490" s="29"/>
-      <c r="C490" s="32"/>
+      <c r="C490" s="31"/>
       <c r="D490" s="26"/>
       <c r="E490" s="26"/>
-      <c r="F490" s="36"/>
+      <c r="F490" s="32"/>
     </row>
     <row r="491" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A491" s="32"/>
+      <c r="A491" s="31"/>
       <c r="B491" s="29"/>
-      <c r="C491" s="32"/>
+      <c r="C491" s="31"/>
       <c r="D491" s="26"/>
       <c r="E491" s="26"/>
-      <c r="F491" s="36"/>
+      <c r="F491" s="32"/>
     </row>
     <row r="492" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A492" s="32"/>
+      <c r="A492" s="31"/>
       <c r="B492" s="29"/>
-      <c r="C492" s="32"/>
+      <c r="C492" s="31"/>
       <c r="D492" s="26"/>
       <c r="E492" s="26"/>
-      <c r="F492" s="36"/>
+      <c r="F492" s="32"/>
     </row>
     <row r="493" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A493" s="32"/>
+      <c r="A493" s="31"/>
       <c r="B493" s="29"/>
-      <c r="C493" s="32"/>
+      <c r="C493" s="31"/>
       <c r="D493" s="26"/>
       <c r="E493" s="26"/>
-      <c r="F493" s="36"/>
+      <c r="F493" s="32"/>
     </row>
     <row r="494" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A494" s="32"/>
+      <c r="A494" s="31"/>
       <c r="B494" s="29"/>
-      <c r="C494" s="32"/>
+      <c r="C494" s="31"/>
       <c r="D494" s="26"/>
       <c r="E494" s="26"/>
-      <c r="F494" s="36"/>
+      <c r="F494" s="32"/>
     </row>
     <row r="495" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A495" s="32"/>
+      <c r="A495" s="31"/>
       <c r="B495" s="29"/>
-      <c r="C495" s="32"/>
+      <c r="C495" s="31"/>
       <c r="D495" s="26"/>
       <c r="E495" s="26"/>
-      <c r="F495" s="36"/>
+      <c r="F495" s="32"/>
     </row>
     <row r="496" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A496" s="32"/>
+      <c r="A496" s="31"/>
       <c r="B496" s="29"/>
-      <c r="C496" s="32"/>
+      <c r="C496" s="31"/>
       <c r="D496" s="26"/>
       <c r="E496" s="26"/>
-      <c r="F496" s="36"/>
+      <c r="F496" s="32"/>
     </row>
     <row r="497" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A497" s="32"/>
+      <c r="A497" s="31"/>
       <c r="B497" s="29"/>
-      <c r="C497" s="32"/>
+      <c r="C497" s="31"/>
       <c r="D497" s="26"/>
       <c r="E497" s="26"/>
-      <c r="F497" s="36"/>
+      <c r="F497" s="32"/>
     </row>
     <row r="498" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A498" s="32"/>
+      <c r="A498" s="31"/>
       <c r="B498" s="29"/>
-      <c r="C498" s="32"/>
+      <c r="C498" s="31"/>
       <c r="D498" s="26"/>
       <c r="E498" s="26"/>
-      <c r="F498" s="36"/>
+      <c r="F498" s="32"/>
     </row>
     <row r="499" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A499" s="32"/>
+      <c r="A499" s="31"/>
       <c r="B499" s="29"/>
-      <c r="C499" s="32"/>
+      <c r="C499" s="31"/>
       <c r="D499" s="26"/>
       <c r="E499" s="26"/>
-      <c r="F499" s="36"/>
+      <c r="F499" s="32"/>
     </row>
     <row r="500" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A500" s="32"/>
+      <c r="A500" s="31"/>
       <c r="B500" s="29"/>
-      <c r="C500" s="32"/>
+      <c r="C500" s="31"/>
       <c r="D500" s="26"/>
       <c r="E500" s="26"/>
-      <c r="F500" s="36"/>
+      <c r="F500" s="32"/>
     </row>
     <row r="501" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A501" s="32"/>
+      <c r="A501" s="31"/>
       <c r="B501" s="29"/>
-      <c r="C501" s="32"/>
+      <c r="C501" s="31"/>
       <c r="D501" s="26"/>
       <c r="E501" s="26"/>
-      <c r="F501" s="36"/>
+      <c r="F501" s="32"/>
     </row>
     <row r="502" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A502" s="32"/>
+      <c r="A502" s="31"/>
       <c r="B502" s="29"/>
-      <c r="C502" s="32">
+      <c r="C502" s="31">
         <v>53</v>
       </c>
       <c r="D502" s="26" t="s">
@@ -7596,28 +7596,28 @@
       <c r="E502" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="F502" s="36"/>
+      <c r="F502" s="32"/>
     </row>
     <row r="503" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A503" s="32"/>
+      <c r="A503" s="31"/>
       <c r="B503" s="29"/>
-      <c r="C503" s="32"/>
+      <c r="C503" s="31"/>
       <c r="D503" s="26"/>
       <c r="E503" s="27"/>
-      <c r="F503" s="36"/>
+      <c r="F503" s="32"/>
     </row>
     <row r="504" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A504" s="32"/>
+      <c r="A504" s="31"/>
       <c r="B504" s="29"/>
-      <c r="C504" s="32"/>
+      <c r="C504" s="31"/>
       <c r="D504" s="26"/>
       <c r="E504" s="27"/>
-      <c r="F504" s="36"/>
+      <c r="F504" s="32"/>
     </row>
     <row r="505" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A505" s="32"/>
+      <c r="A505" s="31"/>
       <c r="B505" s="29"/>
-      <c r="C505" s="32">
+      <c r="C505" s="31">
         <v>54</v>
       </c>
       <c r="D505" s="26" t="s">
@@ -7626,52 +7626,52 @@
       <c r="E505" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="F505" s="36"/>
+      <c r="F505" s="32"/>
     </row>
     <row r="506" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A506" s="32"/>
+      <c r="A506" s="31"/>
       <c r="B506" s="29"/>
-      <c r="C506" s="32"/>
+      <c r="C506" s="31"/>
       <c r="D506" s="26"/>
       <c r="E506" s="26"/>
-      <c r="F506" s="36"/>
+      <c r="F506" s="32"/>
     </row>
     <row r="507" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A507" s="32"/>
+      <c r="A507" s="31"/>
       <c r="B507" s="29"/>
-      <c r="C507" s="32"/>
+      <c r="C507" s="31"/>
       <c r="D507" s="26"/>
       <c r="E507" s="26"/>
-      <c r="F507" s="36"/>
+      <c r="F507" s="32"/>
     </row>
     <row r="508" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A508" s="32"/>
+      <c r="A508" s="31"/>
       <c r="B508" s="29"/>
-      <c r="C508" s="32"/>
+      <c r="C508" s="31"/>
       <c r="D508" s="26"/>
       <c r="E508" s="26"/>
-      <c r="F508" s="36"/>
+      <c r="F508" s="32"/>
     </row>
     <row r="509" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A509" s="32"/>
+      <c r="A509" s="31"/>
       <c r="B509" s="29"/>
-      <c r="C509" s="32"/>
+      <c r="C509" s="31"/>
       <c r="D509" s="26"/>
       <c r="E509" s="26"/>
-      <c r="F509" s="36"/>
+      <c r="F509" s="32"/>
     </row>
     <row r="510" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A510" s="32"/>
+      <c r="A510" s="31"/>
       <c r="B510" s="29"/>
-      <c r="C510" s="32"/>
+      <c r="C510" s="31"/>
       <c r="D510" s="26"/>
       <c r="E510" s="26"/>
-      <c r="F510" s="36"/>
+      <c r="F510" s="32"/>
     </row>
     <row r="511" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A511" s="32"/>
+      <c r="A511" s="31"/>
       <c r="B511" s="29"/>
-      <c r="C511" s="32">
+      <c r="C511" s="31">
         <v>55</v>
       </c>
       <c r="D511" s="26" t="s">
@@ -7680,60 +7680,60 @@
       <c r="E511" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="F511" s="36"/>
+      <c r="F511" s="32"/>
     </row>
     <row r="512" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A512" s="32"/>
+      <c r="A512" s="31"/>
       <c r="B512" s="29"/>
-      <c r="C512" s="32"/>
+      <c r="C512" s="31"/>
       <c r="D512" s="26"/>
       <c r="E512" s="26"/>
-      <c r="F512" s="36"/>
+      <c r="F512" s="32"/>
     </row>
     <row r="513" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A513" s="32"/>
+      <c r="A513" s="31"/>
       <c r="B513" s="29"/>
-      <c r="C513" s="32"/>
+      <c r="C513" s="31"/>
       <c r="D513" s="26"/>
       <c r="E513" s="26"/>
-      <c r="F513" s="36"/>
+      <c r="F513" s="32"/>
     </row>
     <row r="514" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A514" s="32"/>
+      <c r="A514" s="31"/>
       <c r="B514" s="29"/>
-      <c r="C514" s="32"/>
+      <c r="C514" s="31"/>
       <c r="D514" s="26"/>
       <c r="E514" s="26"/>
-      <c r="F514" s="36"/>
+      <c r="F514" s="32"/>
     </row>
     <row r="515" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A515" s="32"/>
+      <c r="A515" s="31"/>
       <c r="B515" s="29"/>
-      <c r="C515" s="32"/>
+      <c r="C515" s="31"/>
       <c r="D515" s="26"/>
       <c r="E515" s="26"/>
-      <c r="F515" s="36"/>
+      <c r="F515" s="32"/>
     </row>
     <row r="516" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A516" s="32"/>
+      <c r="A516" s="31"/>
       <c r="B516" s="29"/>
-      <c r="C516" s="32"/>
+      <c r="C516" s="31"/>
       <c r="D516" s="26"/>
       <c r="E516" s="26"/>
-      <c r="F516" s="36"/>
+      <c r="F516" s="32"/>
     </row>
     <row r="517" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A517" s="32"/>
+      <c r="A517" s="31"/>
       <c r="B517" s="29"/>
-      <c r="C517" s="32"/>
+      <c r="C517" s="31"/>
       <c r="D517" s="26"/>
       <c r="E517" s="26"/>
-      <c r="F517" s="36"/>
+      <c r="F517" s="32"/>
     </row>
     <row r="518" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A518" s="32"/>
+      <c r="A518" s="31"/>
       <c r="B518" s="29"/>
-      <c r="C518" s="32">
+      <c r="C518" s="31">
         <v>56</v>
       </c>
       <c r="D518" s="26" t="s">
@@ -7742,52 +7742,52 @@
       <c r="E518" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="F518" s="36"/>
+      <c r="F518" s="32"/>
     </row>
     <row r="519" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A519" s="32"/>
+      <c r="A519" s="31"/>
       <c r="B519" s="29"/>
-      <c r="C519" s="32"/>
+      <c r="C519" s="31"/>
       <c r="D519" s="26"/>
       <c r="E519" s="26"/>
-      <c r="F519" s="36"/>
+      <c r="F519" s="32"/>
     </row>
     <row r="520" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A520" s="32"/>
+      <c r="A520" s="31"/>
       <c r="B520" s="29"/>
-      <c r="C520" s="32"/>
+      <c r="C520" s="31"/>
       <c r="D520" s="26"/>
       <c r="E520" s="26"/>
-      <c r="F520" s="36"/>
+      <c r="F520" s="32"/>
     </row>
     <row r="521" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A521" s="32"/>
+      <c r="A521" s="31"/>
       <c r="B521" s="29"/>
-      <c r="C521" s="32"/>
+      <c r="C521" s="31"/>
       <c r="D521" s="26"/>
       <c r="E521" s="26"/>
-      <c r="F521" s="36"/>
+      <c r="F521" s="32"/>
     </row>
     <row r="522" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A522" s="32"/>
+      <c r="A522" s="31"/>
       <c r="B522" s="29"/>
-      <c r="C522" s="32"/>
+      <c r="C522" s="31"/>
       <c r="D522" s="26"/>
       <c r="E522" s="26"/>
-      <c r="F522" s="36"/>
+      <c r="F522" s="32"/>
     </row>
     <row r="523" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A523" s="32"/>
+      <c r="A523" s="31"/>
       <c r="B523" s="29"/>
-      <c r="C523" s="32"/>
+      <c r="C523" s="31"/>
       <c r="D523" s="26"/>
       <c r="E523" s="26"/>
-      <c r="F523" s="36"/>
+      <c r="F523" s="32"/>
     </row>
     <row r="524" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A524" s="32"/>
+      <c r="A524" s="31"/>
       <c r="B524" s="29"/>
-      <c r="C524" s="32">
+      <c r="C524" s="31">
         <v>57</v>
       </c>
       <c r="D524" s="26" t="s">
@@ -7796,60 +7796,60 @@
       <c r="E524" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="F524" s="36"/>
+      <c r="F524" s="32"/>
     </row>
     <row r="525" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A525" s="32"/>
+      <c r="A525" s="31"/>
       <c r="B525" s="29"/>
-      <c r="C525" s="32"/>
+      <c r="C525" s="31"/>
       <c r="D525" s="26"/>
       <c r="E525" s="26"/>
-      <c r="F525" s="36"/>
+      <c r="F525" s="32"/>
     </row>
     <row r="526" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A526" s="32"/>
+      <c r="A526" s="31"/>
       <c r="B526" s="29"/>
-      <c r="C526" s="32"/>
+      <c r="C526" s="31"/>
       <c r="D526" s="26"/>
       <c r="E526" s="26"/>
-      <c r="F526" s="36"/>
+      <c r="F526" s="32"/>
     </row>
     <row r="527" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A527" s="32"/>
+      <c r="A527" s="31"/>
       <c r="B527" s="29"/>
-      <c r="C527" s="32"/>
+      <c r="C527" s="31"/>
       <c r="D527" s="26"/>
       <c r="E527" s="26"/>
-      <c r="F527" s="36"/>
+      <c r="F527" s="32"/>
     </row>
     <row r="528" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A528" s="32"/>
+      <c r="A528" s="31"/>
       <c r="B528" s="29"/>
-      <c r="C528" s="32"/>
+      <c r="C528" s="31"/>
       <c r="D528" s="26"/>
       <c r="E528" s="26"/>
-      <c r="F528" s="36"/>
+      <c r="F528" s="32"/>
     </row>
     <row r="529" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A529" s="32"/>
+      <c r="A529" s="31"/>
       <c r="B529" s="29"/>
-      <c r="C529" s="32"/>
+      <c r="C529" s="31"/>
       <c r="D529" s="26"/>
       <c r="E529" s="26"/>
-      <c r="F529" s="36"/>
+      <c r="F529" s="32"/>
     </row>
     <row r="530" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A530" s="32"/>
+      <c r="A530" s="31"/>
       <c r="B530" s="29"/>
-      <c r="C530" s="32"/>
+      <c r="C530" s="31"/>
       <c r="D530" s="26"/>
       <c r="E530" s="26"/>
-      <c r="F530" s="36"/>
+      <c r="F530" s="32"/>
     </row>
     <row r="531" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A531" s="32"/>
+      <c r="A531" s="31"/>
       <c r="B531" s="29"/>
-      <c r="C531" s="32">
+      <c r="C531" s="31">
         <v>58</v>
       </c>
       <c r="D531" s="26" t="s">
@@ -7858,60 +7858,60 @@
       <c r="E531" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="F531" s="36"/>
+      <c r="F531" s="32"/>
     </row>
     <row r="532" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A532" s="32"/>
+      <c r="A532" s="31"/>
       <c r="B532" s="29"/>
-      <c r="C532" s="32"/>
+      <c r="C532" s="31"/>
       <c r="D532" s="26"/>
       <c r="E532" s="26"/>
-      <c r="F532" s="36"/>
+      <c r="F532" s="32"/>
     </row>
     <row r="533" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A533" s="32"/>
+      <c r="A533" s="31"/>
       <c r="B533" s="29"/>
-      <c r="C533" s="32"/>
+      <c r="C533" s="31"/>
       <c r="D533" s="26"/>
       <c r="E533" s="26"/>
-      <c r="F533" s="36"/>
+      <c r="F533" s="32"/>
     </row>
     <row r="534" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A534" s="32"/>
+      <c r="A534" s="31"/>
       <c r="B534" s="29"/>
-      <c r="C534" s="32"/>
+      <c r="C534" s="31"/>
       <c r="D534" s="26"/>
       <c r="E534" s="26"/>
-      <c r="F534" s="36"/>
+      <c r="F534" s="32"/>
     </row>
     <row r="535" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A535" s="32"/>
+      <c r="A535" s="31"/>
       <c r="B535" s="29"/>
-      <c r="C535" s="32"/>
+      <c r="C535" s="31"/>
       <c r="D535" s="26"/>
       <c r="E535" s="26"/>
-      <c r="F535" s="36"/>
+      <c r="F535" s="32"/>
     </row>
     <row r="536" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A536" s="32"/>
+      <c r="A536" s="31"/>
       <c r="B536" s="29"/>
-      <c r="C536" s="32"/>
+      <c r="C536" s="31"/>
       <c r="D536" s="26"/>
       <c r="E536" s="26"/>
-      <c r="F536" s="36"/>
+      <c r="F536" s="32"/>
     </row>
     <row r="537" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A537" s="32"/>
+      <c r="A537" s="31"/>
       <c r="B537" s="29"/>
-      <c r="C537" s="32"/>
+      <c r="C537" s="31"/>
       <c r="D537" s="26"/>
       <c r="E537" s="26"/>
-      <c r="F537" s="36"/>
+      <c r="F537" s="32"/>
     </row>
     <row r="538" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A538" s="32"/>
+      <c r="A538" s="31"/>
       <c r="B538" s="29"/>
-      <c r="C538" s="32">
+      <c r="C538" s="31">
         <v>59</v>
       </c>
       <c r="D538" s="26" t="s">
@@ -7920,90 +7920,90 @@
       <c r="E538" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="F538" s="36"/>
+      <c r="F538" s="32"/>
     </row>
     <row r="539" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A539" s="32"/>
+      <c r="A539" s="31"/>
       <c r="B539" s="29"/>
-      <c r="C539" s="32"/>
+      <c r="C539" s="31"/>
       <c r="D539" s="26"/>
       <c r="E539" s="26"/>
-      <c r="F539" s="36"/>
+      <c r="F539" s="32"/>
     </row>
     <row r="540" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A540" s="32"/>
+      <c r="A540" s="31"/>
       <c r="B540" s="29"/>
-      <c r="C540" s="32"/>
+      <c r="C540" s="31"/>
       <c r="D540" s="26"/>
       <c r="E540" s="26"/>
-      <c r="F540" s="36"/>
+      <c r="F540" s="32"/>
     </row>
     <row r="541" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A541" s="32"/>
+      <c r="A541" s="31"/>
       <c r="B541" s="29"/>
-      <c r="C541" s="32"/>
+      <c r="C541" s="31"/>
       <c r="D541" s="26"/>
       <c r="E541" s="26"/>
-      <c r="F541" s="36"/>
+      <c r="F541" s="32"/>
     </row>
     <row r="542" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A542" s="32"/>
+      <c r="A542" s="31"/>
       <c r="B542" s="29"/>
-      <c r="C542" s="32"/>
+      <c r="C542" s="31"/>
       <c r="D542" s="26"/>
       <c r="E542" s="26"/>
-      <c r="F542" s="36"/>
+      <c r="F542" s="32"/>
     </row>
     <row r="543" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A543" s="32"/>
+      <c r="A543" s="31"/>
       <c r="B543" s="29"/>
-      <c r="C543" s="32"/>
+      <c r="C543" s="31"/>
       <c r="D543" s="26"/>
       <c r="E543" s="26"/>
-      <c r="F543" s="36"/>
+      <c r="F543" s="32"/>
     </row>
     <row r="544" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A544" s="32"/>
+      <c r="A544" s="31"/>
       <c r="B544" s="29"/>
-      <c r="C544" s="32"/>
+      <c r="C544" s="31"/>
       <c r="D544" s="26"/>
       <c r="E544" s="26"/>
-      <c r="F544" s="36"/>
+      <c r="F544" s="32"/>
     </row>
     <row r="545" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A545" s="32"/>
+      <c r="A545" s="31"/>
       <c r="B545" s="29"/>
-      <c r="C545" s="32"/>
+      <c r="C545" s="31"/>
       <c r="D545" s="26"/>
       <c r="E545" s="26"/>
-      <c r="F545" s="36"/>
+      <c r="F545" s="32"/>
     </row>
     <row r="546" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A546" s="32"/>
+      <c r="A546" s="31"/>
       <c r="B546" s="29"/>
-      <c r="C546" s="32"/>
+      <c r="C546" s="31"/>
       <c r="D546" s="26"/>
       <c r="E546" s="26"/>
-      <c r="F546" s="36"/>
+      <c r="F546" s="32"/>
     </row>
     <row r="547" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A547" s="32"/>
+      <c r="A547" s="31"/>
       <c r="B547" s="29"/>
-      <c r="C547" s="32"/>
+      <c r="C547" s="31"/>
       <c r="D547" s="26"/>
       <c r="E547" s="26"/>
-      <c r="F547" s="36"/>
+      <c r="F547" s="32"/>
     </row>
     <row r="548" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A548" s="32"/>
+      <c r="A548" s="31"/>
       <c r="B548" s="29"/>
-      <c r="C548" s="32"/>
+      <c r="C548" s="31"/>
       <c r="D548" s="26"/>
       <c r="E548" s="26"/>
-      <c r="F548" s="36"/>
+      <c r="F548" s="32"/>
     </row>
     <row r="549" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A549" s="32"/>
+      <c r="A549" s="31"/>
       <c r="B549" s="29"/>
       <c r="C549" s="28">
         <v>60</v>
@@ -8014,66 +8014,66 @@
       <c r="E549" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="F549" s="36"/>
+      <c r="F549" s="32"/>
     </row>
     <row r="550" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A550" s="32"/>
+      <c r="A550" s="31"/>
       <c r="B550" s="29"/>
       <c r="C550" s="28"/>
       <c r="D550" s="26"/>
       <c r="E550" s="26"/>
-      <c r="F550" s="36"/>
+      <c r="F550" s="32"/>
     </row>
     <row r="551" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A551" s="32"/>
+      <c r="A551" s="31"/>
       <c r="B551" s="29"/>
       <c r="C551" s="28"/>
       <c r="D551" s="26"/>
       <c r="E551" s="26"/>
-      <c r="F551" s="36"/>
+      <c r="F551" s="32"/>
     </row>
     <row r="552" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A552" s="32"/>
+      <c r="A552" s="31"/>
       <c r="B552" s="29"/>
       <c r="C552" s="28"/>
       <c r="D552" s="26"/>
       <c r="E552" s="26"/>
-      <c r="F552" s="36"/>
+      <c r="F552" s="32"/>
     </row>
     <row r="553" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A553" s="32"/>
+      <c r="A553" s="31"/>
       <c r="B553" s="29"/>
       <c r="C553" s="28"/>
       <c r="D553" s="26"/>
       <c r="E553" s="26"/>
-      <c r="F553" s="36"/>
+      <c r="F553" s="32"/>
     </row>
     <row r="554" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A554" s="32"/>
+      <c r="A554" s="31"/>
       <c r="B554" s="29"/>
       <c r="C554" s="28"/>
       <c r="D554" s="26"/>
       <c r="E554" s="26"/>
-      <c r="F554" s="36"/>
+      <c r="F554" s="32"/>
     </row>
     <row r="555" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A555" s="32"/>
+      <c r="A555" s="31"/>
       <c r="B555" s="29"/>
       <c r="C555" s="28"/>
       <c r="D555" s="26"/>
       <c r="E555" s="26"/>
-      <c r="F555" s="36"/>
+      <c r="F555" s="32"/>
     </row>
     <row r="556" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A556" s="32"/>
+      <c r="A556" s="31"/>
       <c r="B556" s="29"/>
       <c r="C556" s="28"/>
       <c r="D556" s="26"/>
       <c r="E556" s="26"/>
-      <c r="F556" s="36"/>
+      <c r="F556" s="32"/>
     </row>
     <row r="557" spans="1:6" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A557" s="32"/>
+      <c r="A557" s="31"/>
       <c r="B557" s="29"/>
       <c r="C557" s="28">
         <v>61</v>
@@ -8084,23 +8084,23 @@
       <c r="E557" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="F557" s="36"/>
+      <c r="F557" s="32"/>
     </row>
     <row r="558" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A558" s="32"/>
+      <c r="A558" s="31"/>
       <c r="B558" s="29"/>
       <c r="C558" s="28"/>
       <c r="D558" s="26"/>
       <c r="E558" s="26"/>
-      <c r="F558" s="36"/>
+      <c r="F558" s="32"/>
     </row>
     <row r="559" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A559" s="32"/>
+      <c r="A559" s="31"/>
       <c r="B559" s="29"/>
       <c r="C559" s="28"/>
       <c r="D559" s="26"/>
       <c r="E559" s="26"/>
-      <c r="F559" s="36"/>
+      <c r="F559" s="32"/>
     </row>
     <row r="560" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A560" s="28">
@@ -8118,7 +8118,7 @@
       <c r="E560" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F560" s="35"/>
+      <c r="F560" s="30"/>
     </row>
     <row r="561" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A561" s="28"/>
@@ -8132,7 +8132,7 @@
       <c r="E561" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F561" s="35"/>
+      <c r="F561" s="30"/>
     </row>
     <row r="562" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" s="28"/>
@@ -8144,7 +8144,7 @@
       <c r="E562" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="F562" s="35"/>
+      <c r="F562" s="30"/>
     </row>
     <row r="563" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" s="28"/>
@@ -8152,7 +8152,7 @@
       <c r="C563" s="28"/>
       <c r="D563" s="29"/>
       <c r="E563" s="29"/>
-      <c r="F563" s="35"/>
+      <c r="F563" s="30"/>
     </row>
     <row r="564" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" s="28"/>
@@ -8160,7 +8160,7 @@
       <c r="C564" s="28"/>
       <c r="D564" s="29"/>
       <c r="E564" s="29"/>
-      <c r="F564" s="35"/>
+      <c r="F564" s="30"/>
     </row>
     <row r="565" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" s="28"/>
@@ -8168,7 +8168,7 @@
       <c r="C565" s="28"/>
       <c r="D565" s="29"/>
       <c r="E565" s="29"/>
-      <c r="F565" s="35"/>
+      <c r="F565" s="30"/>
     </row>
     <row r="566" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A566" s="28"/>
@@ -8182,7 +8182,7 @@
       <c r="E566" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F566" s="35"/>
+      <c r="F566" s="30"/>
     </row>
     <row r="567" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A567" s="28"/>
@@ -8196,7 +8196,7 @@
       <c r="E567" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F567" s="35"/>
+      <c r="F567" s="30"/>
     </row>
     <row r="568" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A568" s="28"/>
@@ -8210,7 +8210,7 @@
       <c r="E568" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F568" s="35"/>
+      <c r="F568" s="30"/>
     </row>
     <row r="569" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A569" s="28"/>
@@ -8224,7 +8224,7 @@
       <c r="E569" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F569" s="35"/>
+      <c r="F569" s="30"/>
     </row>
     <row r="570" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A570" s="28"/>
@@ -8238,7 +8238,7 @@
       <c r="E570" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F570" s="35"/>
+      <c r="F570" s="30"/>
     </row>
     <row r="571" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" s="28"/>
@@ -8252,7 +8252,7 @@
       <c r="E571" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="F571" s="35"/>
+      <c r="F571" s="30"/>
     </row>
     <row r="572" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A572" s="28"/>
@@ -8260,7 +8260,7 @@
       <c r="C572" s="28"/>
       <c r="D572" s="26"/>
       <c r="E572" s="26"/>
-      <c r="F572" s="35"/>
+      <c r="F572" s="30"/>
     </row>
     <row r="573" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A573" s="28"/>
@@ -8268,7 +8268,7 @@
       <c r="C573" s="28"/>
       <c r="D573" s="26"/>
       <c r="E573" s="26"/>
-      <c r="F573" s="35"/>
+      <c r="F573" s="30"/>
     </row>
     <row r="574" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A574" s="28"/>
@@ -8276,7 +8276,7 @@
       <c r="C574" s="28"/>
       <c r="D574" s="26"/>
       <c r="E574" s="26"/>
-      <c r="F574" s="35"/>
+      <c r="F574" s="30"/>
     </row>
     <row r="575" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A575" s="28"/>
@@ -8284,7 +8284,7 @@
       <c r="C575" s="28"/>
       <c r="D575" s="26"/>
       <c r="E575" s="26"/>
-      <c r="F575" s="35"/>
+      <c r="F575" s="30"/>
     </row>
     <row r="576" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A576" s="28"/>
@@ -8292,7 +8292,7 @@
       <c r="C576" s="28"/>
       <c r="D576" s="26"/>
       <c r="E576" s="26"/>
-      <c r="F576" s="35"/>
+      <c r="F576" s="30"/>
     </row>
     <row r="577" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A577" s="28"/>
@@ -8300,7 +8300,7 @@
       <c r="C577" s="28"/>
       <c r="D577" s="26"/>
       <c r="E577" s="26"/>
-      <c r="F577" s="35"/>
+      <c r="F577" s="30"/>
     </row>
     <row r="578" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A578" s="28"/>
@@ -8308,7 +8308,7 @@
       <c r="C578" s="28"/>
       <c r="D578" s="26"/>
       <c r="E578" s="26"/>
-      <c r="F578" s="35"/>
+      <c r="F578" s="30"/>
     </row>
     <row r="579" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A579" s="28"/>
@@ -8316,7 +8316,7 @@
       <c r="C579" s="28"/>
       <c r="D579" s="26"/>
       <c r="E579" s="26"/>
-      <c r="F579" s="35"/>
+      <c r="F579" s="30"/>
     </row>
     <row r="580" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A580" s="28"/>
@@ -8324,7 +8324,7 @@
       <c r="C580" s="28"/>
       <c r="D580" s="26"/>
       <c r="E580" s="26"/>
-      <c r="F580" s="35"/>
+      <c r="F580" s="30"/>
     </row>
     <row r="581" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A581" s="28"/>
@@ -8332,7 +8332,7 @@
       <c r="C581" s="28"/>
       <c r="D581" s="26"/>
       <c r="E581" s="26"/>
-      <c r="F581" s="35"/>
+      <c r="F581" s="30"/>
     </row>
     <row r="582" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A582" s="28"/>
@@ -8340,7 +8340,7 @@
       <c r="C582" s="28"/>
       <c r="D582" s="26"/>
       <c r="E582" s="26"/>
-      <c r="F582" s="35"/>
+      <c r="F582" s="30"/>
     </row>
     <row r="583" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A583" s="28"/>
@@ -8348,7 +8348,7 @@
       <c r="C583" s="28"/>
       <c r="D583" s="26"/>
       <c r="E583" s="26"/>
-      <c r="F583" s="35"/>
+      <c r="F583" s="30"/>
     </row>
     <row r="584" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A584" s="28">
@@ -8366,7 +8366,7 @@
       <c r="E584" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F584" s="35"/>
+      <c r="F584" s="30"/>
     </row>
     <row r="585" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A585" s="28"/>
@@ -8380,7 +8380,7 @@
       <c r="E585" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F585" s="35"/>
+      <c r="F585" s="30"/>
     </row>
     <row r="586" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A586" s="28"/>
@@ -8394,7 +8394,7 @@
       <c r="E586" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="F586" s="35"/>
+      <c r="F586" s="30"/>
     </row>
     <row r="587" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A587" s="28"/>
@@ -8402,7 +8402,7 @@
       <c r="C587" s="28"/>
       <c r="D587" s="29"/>
       <c r="E587" s="29"/>
-      <c r="F587" s="35"/>
+      <c r="F587" s="30"/>
     </row>
     <row r="588" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A588" s="28"/>
@@ -8410,7 +8410,7 @@
       <c r="C588" s="28"/>
       <c r="D588" s="29"/>
       <c r="E588" s="29"/>
-      <c r="F588" s="35"/>
+      <c r="F588" s="30"/>
     </row>
     <row r="589" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A589" s="28"/>
@@ -8418,7 +8418,7 @@
       <c r="C589" s="28"/>
       <c r="D589" s="29"/>
       <c r="E589" s="29"/>
-      <c r="F589" s="35"/>
+      <c r="F589" s="30"/>
     </row>
     <row r="590" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A590" s="28"/>
@@ -8432,7 +8432,7 @@
       <c r="E590" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="F590" s="35"/>
+      <c r="F590" s="30"/>
     </row>
     <row r="591" spans="1:6" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A591" s="28"/>
@@ -8446,7 +8446,7 @@
       <c r="E591" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="F591" s="35"/>
+      <c r="F591" s="30"/>
     </row>
     <row r="592" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A592" s="28"/>
@@ -8454,7 +8454,7 @@
       <c r="C592" s="28"/>
       <c r="D592" s="26"/>
       <c r="E592" s="27"/>
-      <c r="F592" s="35"/>
+      <c r="F592" s="30"/>
     </row>
     <row r="593" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A593" s="28"/>
@@ -8462,7 +8462,7 @@
       <c r="C593" s="28"/>
       <c r="D593" s="26"/>
       <c r="E593" s="27"/>
-      <c r="F593" s="35"/>
+      <c r="F593" s="30"/>
     </row>
     <row r="594" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A594" s="28"/>
@@ -8470,7 +8470,7 @@
       <c r="C594" s="28"/>
       <c r="D594" s="26"/>
       <c r="E594" s="27"/>
-      <c r="F594" s="35"/>
+      <c r="F594" s="30"/>
     </row>
     <row r="595" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A595" s="28"/>
@@ -8478,7 +8478,7 @@
       <c r="C595" s="28"/>
       <c r="D595" s="26"/>
       <c r="E595" s="27"/>
-      <c r="F595" s="35"/>
+      <c r="F595" s="30"/>
     </row>
     <row r="596" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A596" s="28"/>
@@ -8486,7 +8486,7 @@
       <c r="C596" s="28"/>
       <c r="D596" s="26"/>
       <c r="E596" s="27"/>
-      <c r="F596" s="35"/>
+      <c r="F596" s="30"/>
     </row>
     <row r="597" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A597" s="28"/>
@@ -8494,7 +8494,7 @@
       <c r="C597" s="28"/>
       <c r="D597" s="26"/>
       <c r="E597" s="27"/>
-      <c r="F597" s="35"/>
+      <c r="F597" s="30"/>
     </row>
     <row r="598" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A598" s="28"/>
@@ -8502,7 +8502,7 @@
       <c r="C598" s="28"/>
       <c r="D598" s="26"/>
       <c r="E598" s="27"/>
-      <c r="F598" s="35"/>
+      <c r="F598" s="30"/>
     </row>
     <row r="599" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A599" s="28"/>
@@ -8510,7 +8510,7 @@
       <c r="C599" s="28"/>
       <c r="D599" s="26"/>
       <c r="E599" s="27"/>
-      <c r="F599" s="35"/>
+      <c r="F599" s="30"/>
     </row>
     <row r="600" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A600" s="28"/>
@@ -8518,7 +8518,7 @@
       <c r="C600" s="28"/>
       <c r="D600" s="26"/>
       <c r="E600" s="27"/>
-      <c r="F600" s="35"/>
+      <c r="F600" s="30"/>
     </row>
     <row r="601" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A601" s="28"/>
@@ -8526,7 +8526,7 @@
       <c r="C601" s="28"/>
       <c r="D601" s="26"/>
       <c r="E601" s="27"/>
-      <c r="F601" s="35"/>
+      <c r="F601" s="30"/>
     </row>
     <row r="602" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A602" s="28"/>
@@ -8534,7 +8534,7 @@
       <c r="C602" s="28"/>
       <c r="D602" s="26"/>
       <c r="E602" s="27"/>
-      <c r="F602" s="35"/>
+      <c r="F602" s="30"/>
     </row>
     <row r="603" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A603" s="28"/>
@@ -8542,7 +8542,7 @@
       <c r="C603" s="28"/>
       <c r="D603" s="26"/>
       <c r="E603" s="27"/>
-      <c r="F603" s="35"/>
+      <c r="F603" s="30"/>
     </row>
     <row r="604" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A604" s="28"/>
@@ -8550,7 +8550,7 @@
       <c r="C604" s="28"/>
       <c r="D604" s="26"/>
       <c r="E604" s="27"/>
-      <c r="F604" s="35"/>
+      <c r="F604" s="30"/>
     </row>
     <row r="605" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A605" s="28"/>
@@ -8558,7 +8558,7 @@
       <c r="C605" s="28"/>
       <c r="D605" s="26"/>
       <c r="E605" s="27"/>
-      <c r="F605" s="35"/>
+      <c r="F605" s="30"/>
     </row>
     <row r="606" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A606" s="28"/>
@@ -8566,7 +8566,7 @@
       <c r="C606" s="28"/>
       <c r="D606" s="26"/>
       <c r="E606" s="27"/>
-      <c r="F606" s="35"/>
+      <c r="F606" s="30"/>
     </row>
     <row r="607" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A607" s="28"/>
@@ -8574,7 +8574,7 @@
       <c r="C607" s="28"/>
       <c r="D607" s="26"/>
       <c r="E607" s="27"/>
-      <c r="F607" s="35"/>
+      <c r="F607" s="30"/>
     </row>
     <row r="608" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A608" s="28"/>
@@ -8582,7 +8582,7 @@
       <c r="C608" s="28"/>
       <c r="D608" s="26"/>
       <c r="E608" s="27"/>
-      <c r="F608" s="35"/>
+      <c r="F608" s="30"/>
     </row>
     <row r="609" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A609" s="28"/>
@@ -8590,7 +8590,7 @@
       <c r="C609" s="28"/>
       <c r="D609" s="26"/>
       <c r="E609" s="27"/>
-      <c r="F609" s="35"/>
+      <c r="F609" s="30"/>
     </row>
     <row r="610" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A610" s="28"/>
@@ -8598,7 +8598,7 @@
       <c r="C610" s="28"/>
       <c r="D610" s="26"/>
       <c r="E610" s="27"/>
-      <c r="F610" s="35"/>
+      <c r="F610" s="30"/>
     </row>
     <row r="611" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A611" s="28"/>
@@ -8606,7 +8606,7 @@
       <c r="C611" s="28"/>
       <c r="D611" s="26"/>
       <c r="E611" s="27"/>
-      <c r="F611" s="35"/>
+      <c r="F611" s="30"/>
     </row>
     <row r="612" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A612" s="28"/>
@@ -8614,7 +8614,7 @@
       <c r="C612" s="28"/>
       <c r="D612" s="26"/>
       <c r="E612" s="27"/>
-      <c r="F612" s="35"/>
+      <c r="F612" s="30"/>
     </row>
     <row r="613" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A613" s="28"/>
@@ -8628,7 +8628,7 @@
       <c r="E613" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="F613" s="35"/>
+      <c r="F613" s="30"/>
     </row>
     <row r="614" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A614" s="28"/>
@@ -8636,7 +8636,7 @@
       <c r="C614" s="28"/>
       <c r="D614" s="26"/>
       <c r="E614" s="27"/>
-      <c r="F614" s="35"/>
+      <c r="F614" s="30"/>
     </row>
     <row r="615" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A615" s="28"/>
@@ -8644,7 +8644,7 @@
       <c r="C615" s="28"/>
       <c r="D615" s="26"/>
       <c r="E615" s="27"/>
-      <c r="F615" s="35"/>
+      <c r="F615" s="30"/>
     </row>
     <row r="616" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A616" s="28"/>
@@ -8652,7 +8652,7 @@
       <c r="C616" s="28"/>
       <c r="D616" s="26"/>
       <c r="E616" s="27"/>
-      <c r="F616" s="35"/>
+      <c r="F616" s="30"/>
     </row>
     <row r="617" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A617" s="28"/>
@@ -8660,7 +8660,7 @@
       <c r="C617" s="28"/>
       <c r="D617" s="26"/>
       <c r="E617" s="27"/>
-      <c r="F617" s="35"/>
+      <c r="F617" s="30"/>
     </row>
     <row r="618" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A618" s="28"/>
@@ -8668,7 +8668,7 @@
       <c r="C618" s="28"/>
       <c r="D618" s="26"/>
       <c r="E618" s="27"/>
-      <c r="F618" s="35"/>
+      <c r="F618" s="30"/>
     </row>
     <row r="619" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A619" s="28"/>
@@ -8676,7 +8676,7 @@
       <c r="C619" s="28"/>
       <c r="D619" s="26"/>
       <c r="E619" s="27"/>
-      <c r="F619" s="35"/>
+      <c r="F619" s="30"/>
     </row>
     <row r="620" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A620" s="28"/>
@@ -8684,7 +8684,7 @@
       <c r="C620" s="28"/>
       <c r="D620" s="26"/>
       <c r="E620" s="27"/>
-      <c r="F620" s="35"/>
+      <c r="F620" s="30"/>
     </row>
     <row r="621" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A621" s="28"/>
@@ -8698,7 +8698,7 @@
       <c r="E621" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="F621" s="35"/>
+      <c r="F621" s="30"/>
     </row>
     <row r="622" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A622" s="28"/>
@@ -8706,7 +8706,7 @@
       <c r="C622" s="28"/>
       <c r="D622" s="26"/>
       <c r="E622" s="27"/>
-      <c r="F622" s="35"/>
+      <c r="F622" s="30"/>
     </row>
     <row r="623" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A623" s="28"/>
@@ -8714,7 +8714,7 @@
       <c r="C623" s="28"/>
       <c r="D623" s="26"/>
       <c r="E623" s="27"/>
-      <c r="F623" s="35"/>
+      <c r="F623" s="30"/>
     </row>
     <row r="624" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A624" s="28"/>
@@ -8722,7 +8722,7 @@
       <c r="C624" s="28"/>
       <c r="D624" s="26"/>
       <c r="E624" s="27"/>
-      <c r="F624" s="35"/>
+      <c r="F624" s="30"/>
     </row>
     <row r="625" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A625" s="28"/>
@@ -8730,7 +8730,7 @@
       <c r="C625" s="28"/>
       <c r="D625" s="26"/>
       <c r="E625" s="27"/>
-      <c r="F625" s="35"/>
+      <c r="F625" s="30"/>
     </row>
     <row r="626" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A626" s="28"/>
@@ -8738,7 +8738,7 @@
       <c r="C626" s="28"/>
       <c r="D626" s="26"/>
       <c r="E626" s="27"/>
-      <c r="F626" s="35"/>
+      <c r="F626" s="30"/>
     </row>
     <row r="627" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A627" s="28"/>
@@ -8746,7 +8746,7 @@
       <c r="C627" s="28"/>
       <c r="D627" s="26"/>
       <c r="E627" s="27"/>
-      <c r="F627" s="35"/>
+      <c r="F627" s="30"/>
     </row>
     <row r="628" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A628" s="28"/>
@@ -8754,7 +8754,7 @@
       <c r="C628" s="28"/>
       <c r="D628" s="26"/>
       <c r="E628" s="27"/>
-      <c r="F628" s="35"/>
+      <c r="F628" s="30"/>
     </row>
     <row r="629" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A629" s="28"/>
@@ -8768,7 +8768,7 @@
       <c r="E629" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="F629" s="35"/>
+      <c r="F629" s="30"/>
     </row>
     <row r="630" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A630" s="28"/>
@@ -8776,7 +8776,7 @@
       <c r="C630" s="28"/>
       <c r="D630" s="26"/>
       <c r="E630" s="27"/>
-      <c r="F630" s="35"/>
+      <c r="F630" s="30"/>
     </row>
     <row r="631" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A631" s="28"/>
@@ -8784,7 +8784,7 @@
       <c r="C631" s="28"/>
       <c r="D631" s="26"/>
       <c r="E631" s="27"/>
-      <c r="F631" s="35"/>
+      <c r="F631" s="30"/>
     </row>
     <row r="632" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A632" s="28"/>
@@ -8792,7 +8792,7 @@
       <c r="C632" s="28"/>
       <c r="D632" s="26"/>
       <c r="E632" s="27"/>
-      <c r="F632" s="35"/>
+      <c r="F632" s="30"/>
     </row>
     <row r="633" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A633" s="28"/>
@@ -8800,7 +8800,7 @@
       <c r="C633" s="28"/>
       <c r="D633" s="26"/>
       <c r="E633" s="27"/>
-      <c r="F633" s="35"/>
+      <c r="F633" s="30"/>
     </row>
     <row r="634" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A634" s="28"/>
@@ -8808,7 +8808,7 @@
       <c r="C634" s="28"/>
       <c r="D634" s="26"/>
       <c r="E634" s="27"/>
-      <c r="F634" s="35"/>
+      <c r="F634" s="30"/>
     </row>
     <row r="635" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A635" s="28"/>
@@ -8816,7 +8816,7 @@
       <c r="C635" s="28"/>
       <c r="D635" s="26"/>
       <c r="E635" s="27"/>
-      <c r="F635" s="35"/>
+      <c r="F635" s="30"/>
     </row>
     <row r="636" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A636" s="28"/>
@@ -8824,7 +8824,7 @@
       <c r="C636" s="28"/>
       <c r="D636" s="26"/>
       <c r="E636" s="27"/>
-      <c r="F636" s="35"/>
+      <c r="F636" s="30"/>
     </row>
     <row r="637" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A637" s="28"/>
@@ -8832,7 +8832,7 @@
       <c r="C637" s="28"/>
       <c r="D637" s="26"/>
       <c r="E637" s="27"/>
-      <c r="F637" s="35"/>
+      <c r="F637" s="30"/>
     </row>
     <row r="638" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A638" s="28"/>
@@ -8840,7 +8840,7 @@
       <c r="C638" s="28"/>
       <c r="D638" s="26"/>
       <c r="E638" s="27"/>
-      <c r="F638" s="35"/>
+      <c r="F638" s="30"/>
     </row>
     <row r="639" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A639" s="28"/>
@@ -8854,7 +8854,7 @@
       <c r="E639" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="F639" s="35"/>
+      <c r="F639" s="30"/>
     </row>
     <row r="640" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A640" s="28"/>
@@ -8862,7 +8862,7 @@
       <c r="C640" s="28"/>
       <c r="D640" s="26"/>
       <c r="E640" s="27"/>
-      <c r="F640" s="35"/>
+      <c r="F640" s="30"/>
     </row>
     <row r="641" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A641" s="28"/>
@@ -8870,7 +8870,7 @@
       <c r="C641" s="28"/>
       <c r="D641" s="26"/>
       <c r="E641" s="27"/>
-      <c r="F641" s="35"/>
+      <c r="F641" s="30"/>
     </row>
     <row r="642" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A642" s="28"/>
@@ -8878,7 +8878,7 @@
       <c r="C642" s="28"/>
       <c r="D642" s="26"/>
       <c r="E642" s="27"/>
-      <c r="F642" s="35"/>
+      <c r="F642" s="30"/>
     </row>
     <row r="643" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A643" s="28"/>
@@ -8886,7 +8886,7 @@
       <c r="C643" s="28"/>
       <c r="D643" s="26"/>
       <c r="E643" s="27"/>
-      <c r="F643" s="35"/>
+      <c r="F643" s="30"/>
     </row>
     <row r="644" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A644" s="28"/>
@@ -8894,7 +8894,7 @@
       <c r="C644" s="28"/>
       <c r="D644" s="26"/>
       <c r="E644" s="27"/>
-      <c r="F644" s="35"/>
+      <c r="F644" s="30"/>
     </row>
     <row r="645" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A645" s="28"/>
@@ -8902,7 +8902,7 @@
       <c r="C645" s="28"/>
       <c r="D645" s="26"/>
       <c r="E645" s="27"/>
-      <c r="F645" s="35"/>
+      <c r="F645" s="30"/>
     </row>
     <row r="646" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A646" s="28"/>
@@ -8910,7 +8910,7 @@
       <c r="C646" s="28"/>
       <c r="D646" s="26"/>
       <c r="E646" s="27"/>
-      <c r="F646" s="35"/>
+      <c r="F646" s="30"/>
     </row>
     <row r="647" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A647" s="28"/>
@@ -8918,7 +8918,7 @@
       <c r="C647" s="28"/>
       <c r="D647" s="26"/>
       <c r="E647" s="27"/>
-      <c r="F647" s="35"/>
+      <c r="F647" s="30"/>
     </row>
     <row r="648" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A648" s="28"/>
@@ -8926,7 +8926,7 @@
       <c r="C648" s="28"/>
       <c r="D648" s="26"/>
       <c r="E648" s="27"/>
-      <c r="F648" s="35"/>
+      <c r="F648" s="30"/>
     </row>
     <row r="649" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A649" s="28"/>
@@ -8940,7 +8940,7 @@
       <c r="E649" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="F649" s="35"/>
+      <c r="F649" s="30"/>
     </row>
     <row r="650" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A650" s="28"/>
@@ -8948,7 +8948,7 @@
       <c r="C650" s="28"/>
       <c r="D650" s="26"/>
       <c r="E650" s="27"/>
-      <c r="F650" s="35"/>
+      <c r="F650" s="30"/>
     </row>
     <row r="651" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A651" s="28"/>
@@ -8956,7 +8956,7 @@
       <c r="C651" s="28"/>
       <c r="D651" s="26"/>
       <c r="E651" s="27"/>
-      <c r="F651" s="35"/>
+      <c r="F651" s="30"/>
     </row>
     <row r="652" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A652" s="28"/>
@@ -8964,7 +8964,7 @@
       <c r="C652" s="28"/>
       <c r="D652" s="26"/>
       <c r="E652" s="27"/>
-      <c r="F652" s="35"/>
+      <c r="F652" s="30"/>
     </row>
     <row r="653" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A653" s="28"/>
@@ -8972,7 +8972,7 @@
       <c r="C653" s="28"/>
       <c r="D653" s="26"/>
       <c r="E653" s="27"/>
-      <c r="F653" s="35"/>
+      <c r="F653" s="30"/>
     </row>
     <row r="654" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A654" s="28"/>
@@ -8980,7 +8980,7 @@
       <c r="C654" s="28"/>
       <c r="D654" s="26"/>
       <c r="E654" s="27"/>
-      <c r="F654" s="35"/>
+      <c r="F654" s="30"/>
     </row>
     <row r="655" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A655" s="28"/>
@@ -8988,7 +8988,7 @@
       <c r="C655" s="28"/>
       <c r="D655" s="26"/>
       <c r="E655" s="27"/>
-      <c r="F655" s="35"/>
+      <c r="F655" s="30"/>
     </row>
     <row r="656" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A656" s="28"/>
@@ -8996,7 +8996,7 @@
       <c r="C656" s="28"/>
       <c r="D656" s="26"/>
       <c r="E656" s="27"/>
-      <c r="F656" s="35"/>
+      <c r="F656" s="30"/>
     </row>
     <row r="657" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A657" s="28"/>
@@ -9004,7 +9004,7 @@
       <c r="C657" s="28"/>
       <c r="D657" s="26"/>
       <c r="E657" s="27"/>
-      <c r="F657" s="35"/>
+      <c r="F657" s="30"/>
     </row>
     <row r="658" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A658" s="28"/>
@@ -9012,7 +9012,7 @@
       <c r="C658" s="28"/>
       <c r="D658" s="26"/>
       <c r="E658" s="27"/>
-      <c r="F658" s="35"/>
+      <c r="F658" s="30"/>
     </row>
     <row r="659" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A659" s="28"/>
@@ -9026,7 +9026,7 @@
       <c r="E659" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="F659" s="35"/>
+      <c r="F659" s="30"/>
     </row>
     <row r="660" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A660" s="28"/>
@@ -9034,7 +9034,7 @@
       <c r="C660" s="28"/>
       <c r="D660" s="26"/>
       <c r="E660" s="27"/>
-      <c r="F660" s="35"/>
+      <c r="F660" s="30"/>
     </row>
     <row r="661" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A661" s="28"/>
@@ -9042,7 +9042,7 @@
       <c r="C661" s="28"/>
       <c r="D661" s="26"/>
       <c r="E661" s="27"/>
-      <c r="F661" s="35"/>
+      <c r="F661" s="30"/>
     </row>
     <row r="662" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A662" s="28"/>
@@ -9050,7 +9050,7 @@
       <c r="C662" s="28"/>
       <c r="D662" s="26"/>
       <c r="E662" s="27"/>
-      <c r="F662" s="35"/>
+      <c r="F662" s="30"/>
     </row>
     <row r="663" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A663" s="28"/>
@@ -9058,7 +9058,7 @@
       <c r="C663" s="28"/>
       <c r="D663" s="26"/>
       <c r="E663" s="27"/>
-      <c r="F663" s="35"/>
+      <c r="F663" s="30"/>
     </row>
     <row r="664" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A664" s="28"/>
@@ -9066,7 +9066,7 @@
       <c r="C664" s="28"/>
       <c r="D664" s="26"/>
       <c r="E664" s="27"/>
-      <c r="F664" s="35"/>
+      <c r="F664" s="30"/>
     </row>
     <row r="665" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A665" s="28"/>
@@ -9074,7 +9074,7 @@
       <c r="C665" s="28"/>
       <c r="D665" s="26"/>
       <c r="E665" s="27"/>
-      <c r="F665" s="35"/>
+      <c r="F665" s="30"/>
     </row>
     <row r="666" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A666" s="28"/>
@@ -9082,7 +9082,7 @@
       <c r="C666" s="28"/>
       <c r="D666" s="26"/>
       <c r="E666" s="27"/>
-      <c r="F666" s="35"/>
+      <c r="F666" s="30"/>
     </row>
     <row r="667" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A667" s="28"/>
@@ -9090,7 +9090,7 @@
       <c r="C667" s="28"/>
       <c r="D667" s="26"/>
       <c r="E667" s="27"/>
-      <c r="F667" s="35"/>
+      <c r="F667" s="30"/>
     </row>
     <row r="668" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A668" s="28"/>
@@ -9098,7 +9098,7 @@
       <c r="C668" s="28"/>
       <c r="D668" s="26"/>
       <c r="E668" s="27"/>
-      <c r="F668" s="35"/>
+      <c r="F668" s="30"/>
     </row>
     <row r="669" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A669" s="28"/>
@@ -9112,7 +9112,7 @@
       <c r="E669" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="F669" s="35"/>
+      <c r="F669" s="30"/>
     </row>
     <row r="670" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A670" s="28"/>
@@ -9120,7 +9120,7 @@
       <c r="C670" s="28"/>
       <c r="D670" s="26"/>
       <c r="E670" s="27"/>
-      <c r="F670" s="35"/>
+      <c r="F670" s="30"/>
     </row>
     <row r="671" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A671" s="28"/>
@@ -9128,7 +9128,7 @@
       <c r="C671" s="28"/>
       <c r="D671" s="26"/>
       <c r="E671" s="27"/>
-      <c r="F671" s="35"/>
+      <c r="F671" s="30"/>
     </row>
     <row r="672" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A672" s="28"/>
@@ -9136,7 +9136,7 @@
       <c r="C672" s="28"/>
       <c r="D672" s="26"/>
       <c r="E672" s="27"/>
-      <c r="F672" s="35"/>
+      <c r="F672" s="30"/>
     </row>
     <row r="673" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A673" s="28"/>
@@ -9144,7 +9144,7 @@
       <c r="C673" s="28"/>
       <c r="D673" s="26"/>
       <c r="E673" s="27"/>
-      <c r="F673" s="35"/>
+      <c r="F673" s="30"/>
     </row>
     <row r="674" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A674" s="28"/>
@@ -9152,7 +9152,7 @@
       <c r="C674" s="28"/>
       <c r="D674" s="26"/>
       <c r="E674" s="27"/>
-      <c r="F674" s="35"/>
+      <c r="F674" s="30"/>
     </row>
     <row r="675" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A675" s="28"/>
@@ -9160,7 +9160,7 @@
       <c r="C675" s="28"/>
       <c r="D675" s="26"/>
       <c r="E675" s="27"/>
-      <c r="F675" s="35"/>
+      <c r="F675" s="30"/>
     </row>
     <row r="676" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A676" s="28"/>
@@ -9168,7 +9168,7 @@
       <c r="C676" s="28"/>
       <c r="D676" s="26"/>
       <c r="E676" s="27"/>
-      <c r="F676" s="35"/>
+      <c r="F676" s="30"/>
     </row>
     <row r="677" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A677" s="28"/>
@@ -9176,7 +9176,7 @@
       <c r="C677" s="28"/>
       <c r="D677" s="26"/>
       <c r="E677" s="27"/>
-      <c r="F677" s="35"/>
+      <c r="F677" s="30"/>
     </row>
     <row r="678" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A678" s="28"/>
@@ -9184,7 +9184,7 @@
       <c r="C678" s="28"/>
       <c r="D678" s="26"/>
       <c r="E678" s="27"/>
-      <c r="F678" s="35"/>
+      <c r="F678" s="30"/>
     </row>
     <row r="679" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A679" s="28"/>
@@ -9198,7 +9198,7 @@
       <c r="E679" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="F679" s="35"/>
+      <c r="F679" s="30"/>
     </row>
     <row r="680" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A680" s="28"/>
@@ -9206,7 +9206,7 @@
       <c r="C680" s="28"/>
       <c r="D680" s="26"/>
       <c r="E680" s="27"/>
-      <c r="F680" s="35"/>
+      <c r="F680" s="30"/>
     </row>
     <row r="681" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A681" s="28"/>
@@ -9214,7 +9214,7 @@
       <c r="C681" s="28"/>
       <c r="D681" s="26"/>
       <c r="E681" s="27"/>
-      <c r="F681" s="35"/>
+      <c r="F681" s="30"/>
     </row>
     <row r="682" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A682" s="28"/>
@@ -9222,7 +9222,7 @@
       <c r="C682" s="28"/>
       <c r="D682" s="26"/>
       <c r="E682" s="27"/>
-      <c r="F682" s="35"/>
+      <c r="F682" s="30"/>
     </row>
     <row r="683" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A683" s="28"/>
@@ -9230,7 +9230,7 @@
       <c r="C683" s="28"/>
       <c r="D683" s="26"/>
       <c r="E683" s="27"/>
-      <c r="F683" s="35"/>
+      <c r="F683" s="30"/>
     </row>
     <row r="684" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A684" s="28"/>
@@ -9238,7 +9238,7 @@
       <c r="C684" s="28"/>
       <c r="D684" s="26"/>
       <c r="E684" s="27"/>
-      <c r="F684" s="35"/>
+      <c r="F684" s="30"/>
     </row>
     <row r="685" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A685" s="28"/>
@@ -9246,7 +9246,7 @@
       <c r="C685" s="28"/>
       <c r="D685" s="26"/>
       <c r="E685" s="27"/>
-      <c r="F685" s="35"/>
+      <c r="F685" s="30"/>
     </row>
     <row r="686" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A686" s="28"/>
@@ -9254,7 +9254,7 @@
       <c r="C686" s="28"/>
       <c r="D686" s="26"/>
       <c r="E686" s="27"/>
-      <c r="F686" s="35"/>
+      <c r="F686" s="30"/>
     </row>
     <row r="687" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A687" s="28"/>
@@ -9262,7 +9262,7 @@
       <c r="C687" s="28"/>
       <c r="D687" s="26"/>
       <c r="E687" s="27"/>
-      <c r="F687" s="35"/>
+      <c r="F687" s="30"/>
     </row>
     <row r="688" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A688" s="28"/>
@@ -9270,7 +9270,7 @@
       <c r="C688" s="28"/>
       <c r="D688" s="26"/>
       <c r="E688" s="27"/>
-      <c r="F688" s="35"/>
+      <c r="F688" s="30"/>
     </row>
     <row r="689" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A689" s="28"/>
@@ -9284,7 +9284,7 @@
       <c r="E689" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="F689" s="35"/>
+      <c r="F689" s="30"/>
     </row>
     <row r="690" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A690" s="28"/>
@@ -9292,7 +9292,7 @@
       <c r="C690" s="28"/>
       <c r="D690" s="26"/>
       <c r="E690" s="27"/>
-      <c r="F690" s="35"/>
+      <c r="F690" s="30"/>
     </row>
     <row r="691" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A691" s="28"/>
@@ -9300,7 +9300,7 @@
       <c r="C691" s="28"/>
       <c r="D691" s="26"/>
       <c r="E691" s="27"/>
-      <c r="F691" s="35"/>
+      <c r="F691" s="30"/>
     </row>
     <row r="692" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A692" s="28"/>
@@ -9308,7 +9308,7 @@
       <c r="C692" s="28"/>
       <c r="D692" s="26"/>
       <c r="E692" s="27"/>
-      <c r="F692" s="35"/>
+      <c r="F692" s="30"/>
     </row>
     <row r="693" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A693" s="28"/>
@@ -9316,7 +9316,7 @@
       <c r="C693" s="28"/>
       <c r="D693" s="26"/>
       <c r="E693" s="27"/>
-      <c r="F693" s="35"/>
+      <c r="F693" s="30"/>
     </row>
     <row r="694" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A694" s="28"/>
@@ -9324,7 +9324,7 @@
       <c r="C694" s="28"/>
       <c r="D694" s="26"/>
       <c r="E694" s="27"/>
-      <c r="F694" s="35"/>
+      <c r="F694" s="30"/>
     </row>
     <row r="695" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A695" s="28"/>
@@ -9332,7 +9332,7 @@
       <c r="C695" s="28"/>
       <c r="D695" s="26"/>
       <c r="E695" s="27"/>
-      <c r="F695" s="35"/>
+      <c r="F695" s="30"/>
     </row>
     <row r="696" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A696" s="28"/>
@@ -9340,7 +9340,7 @@
       <c r="C696" s="28"/>
       <c r="D696" s="26"/>
       <c r="E696" s="27"/>
-      <c r="F696" s="35"/>
+      <c r="F696" s="30"/>
     </row>
     <row r="697" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A697" s="28"/>
@@ -9348,7 +9348,7 @@
       <c r="C697" s="28"/>
       <c r="D697" s="26"/>
       <c r="E697" s="27"/>
-      <c r="F697" s="35"/>
+      <c r="F697" s="30"/>
     </row>
     <row r="698" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A698" s="28"/>
@@ -9356,7 +9356,7 @@
       <c r="C698" s="28"/>
       <c r="D698" s="26"/>
       <c r="E698" s="27"/>
-      <c r="F698" s="35"/>
+      <c r="F698" s="30"/>
     </row>
     <row r="699" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A699" s="28"/>
@@ -9370,7 +9370,7 @@
       <c r="E699" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="F699" s="35"/>
+      <c r="F699" s="30"/>
     </row>
     <row r="700" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A700" s="28"/>
@@ -9378,7 +9378,7 @@
       <c r="C700" s="28"/>
       <c r="D700" s="26"/>
       <c r="E700" s="27"/>
-      <c r="F700" s="35"/>
+      <c r="F700" s="30"/>
     </row>
     <row r="701" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A701" s="28"/>
@@ -9386,7 +9386,7 @@
       <c r="C701" s="28"/>
       <c r="D701" s="26"/>
       <c r="E701" s="27"/>
-      <c r="F701" s="35"/>
+      <c r="F701" s="30"/>
     </row>
     <row r="702" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A702" s="28"/>
@@ -9394,7 +9394,7 @@
       <c r="C702" s="28"/>
       <c r="D702" s="26"/>
       <c r="E702" s="27"/>
-      <c r="F702" s="35"/>
+      <c r="F702" s="30"/>
     </row>
     <row r="703" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A703" s="28"/>
@@ -9402,7 +9402,7 @@
       <c r="C703" s="28"/>
       <c r="D703" s="26"/>
       <c r="E703" s="27"/>
-      <c r="F703" s="35"/>
+      <c r="F703" s="30"/>
     </row>
     <row r="704" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A704" s="28"/>
@@ -9410,7 +9410,7 @@
       <c r="C704" s="28"/>
       <c r="D704" s="26"/>
       <c r="E704" s="27"/>
-      <c r="F704" s="35"/>
+      <c r="F704" s="30"/>
     </row>
     <row r="705" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A705" s="28"/>
@@ -9418,7 +9418,7 @@
       <c r="C705" s="28"/>
       <c r="D705" s="26"/>
       <c r="E705" s="27"/>
-      <c r="F705" s="35"/>
+      <c r="F705" s="30"/>
     </row>
     <row r="706" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A706" s="28"/>
@@ -9426,7 +9426,7 @@
       <c r="C706" s="28"/>
       <c r="D706" s="26"/>
       <c r="E706" s="27"/>
-      <c r="F706" s="35"/>
+      <c r="F706" s="30"/>
     </row>
     <row r="707" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A707" s="28">
@@ -15470,79 +15470,250 @@
     <row r="1508" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="351">
-    <mergeCell ref="D1388:D1404"/>
-    <mergeCell ref="E1388:E1404"/>
-    <mergeCell ref="F1262:F1404"/>
-    <mergeCell ref="C1264:C1267"/>
-    <mergeCell ref="C1269:C1285"/>
-    <mergeCell ref="C1286:C1302"/>
-    <mergeCell ref="C1303:C1319"/>
-    <mergeCell ref="C1320:C1336"/>
-    <mergeCell ref="C1337:C1353"/>
-    <mergeCell ref="C1354:C1370"/>
-    <mergeCell ref="C1371:C1387"/>
-    <mergeCell ref="C1388:C1404"/>
-    <mergeCell ref="D1303:D1319"/>
-    <mergeCell ref="E1303:E1319"/>
-    <mergeCell ref="D1320:D1336"/>
-    <mergeCell ref="E1320:E1336"/>
-    <mergeCell ref="D1337:D1353"/>
-    <mergeCell ref="E1337:E1353"/>
-    <mergeCell ref="D1354:D1370"/>
-    <mergeCell ref="E1354:E1370"/>
-    <mergeCell ref="D1371:D1387"/>
-    <mergeCell ref="E1371:E1387"/>
-    <mergeCell ref="B1136:B1261"/>
-    <mergeCell ref="A1136:A1261"/>
-    <mergeCell ref="D1264:D1267"/>
-    <mergeCell ref="E1264:E1267"/>
-    <mergeCell ref="D1269:D1285"/>
-    <mergeCell ref="E1269:E1285"/>
-    <mergeCell ref="D1286:D1302"/>
-    <mergeCell ref="E1286:E1302"/>
-    <mergeCell ref="B1262:B1404"/>
-    <mergeCell ref="A1262:A1404"/>
-    <mergeCell ref="F1136:F1261"/>
-    <mergeCell ref="C1138:C1141"/>
-    <mergeCell ref="C1143:C1159"/>
-    <mergeCell ref="C1160:C1176"/>
-    <mergeCell ref="C1177:C1193"/>
-    <mergeCell ref="C1194:C1210"/>
-    <mergeCell ref="C1211:C1227"/>
-    <mergeCell ref="C1228:C1244"/>
-    <mergeCell ref="C1245:C1261"/>
-    <mergeCell ref="D893:D896"/>
-    <mergeCell ref="E893:E896"/>
-    <mergeCell ref="D898:D914"/>
-    <mergeCell ref="E898:E914"/>
-    <mergeCell ref="C747:C762"/>
-    <mergeCell ref="C763:C778"/>
-    <mergeCell ref="C779:C794"/>
-    <mergeCell ref="C795:C810"/>
-    <mergeCell ref="C811:C826"/>
-    <mergeCell ref="C827:C842"/>
-    <mergeCell ref="C843:C858"/>
-    <mergeCell ref="C859:C874"/>
-    <mergeCell ref="C875:C890"/>
-    <mergeCell ref="D827:D842"/>
-    <mergeCell ref="E827:E842"/>
-    <mergeCell ref="D843:D858"/>
-    <mergeCell ref="E843:E858"/>
-    <mergeCell ref="D859:D874"/>
-    <mergeCell ref="E859:E874"/>
-    <mergeCell ref="D875:D890"/>
-    <mergeCell ref="E875:E890"/>
-    <mergeCell ref="F707:F890"/>
-    <mergeCell ref="D747:D762"/>
-    <mergeCell ref="E747:E762"/>
-    <mergeCell ref="D763:D778"/>
-    <mergeCell ref="E763:E778"/>
-    <mergeCell ref="D779:D794"/>
-    <mergeCell ref="E779:E794"/>
-    <mergeCell ref="D795:D810"/>
-    <mergeCell ref="E795:E810"/>
-    <mergeCell ref="D811:D826"/>
-    <mergeCell ref="E811:E826"/>
+    <mergeCell ref="B891:B1135"/>
+    <mergeCell ref="A891:A1135"/>
+    <mergeCell ref="D1138:D1141"/>
+    <mergeCell ref="E1138:E1141"/>
+    <mergeCell ref="D1143:D1159"/>
+    <mergeCell ref="E1143:E1159"/>
+    <mergeCell ref="D1160:D1176"/>
+    <mergeCell ref="E1160:E1176"/>
+    <mergeCell ref="D1085:D1101"/>
+    <mergeCell ref="E1085:E1101"/>
+    <mergeCell ref="D1102:D1118"/>
+    <mergeCell ref="E1102:E1118"/>
+    <mergeCell ref="D1119:D1135"/>
+    <mergeCell ref="E1119:E1135"/>
+    <mergeCell ref="D1068:D1084"/>
+    <mergeCell ref="E1068:E1084"/>
+    <mergeCell ref="D915:D931"/>
+    <mergeCell ref="E915:E931"/>
+    <mergeCell ref="D932:D948"/>
+    <mergeCell ref="E932:E948"/>
+    <mergeCell ref="D949:D965"/>
+    <mergeCell ref="E949:E965"/>
+    <mergeCell ref="D966:D982"/>
+    <mergeCell ref="E966:E982"/>
+    <mergeCell ref="F891:F1135"/>
+    <mergeCell ref="C893:C896"/>
+    <mergeCell ref="C898:C914"/>
+    <mergeCell ref="C915:C931"/>
+    <mergeCell ref="C932:C948"/>
+    <mergeCell ref="C949:C965"/>
+    <mergeCell ref="C966:C982"/>
+    <mergeCell ref="C983:C999"/>
+    <mergeCell ref="C1000:C1016"/>
+    <mergeCell ref="C1017:C1033"/>
+    <mergeCell ref="C1034:C1050"/>
+    <mergeCell ref="C1051:C1067"/>
+    <mergeCell ref="C1068:C1084"/>
+    <mergeCell ref="C1085:C1101"/>
+    <mergeCell ref="C1102:C1118"/>
+    <mergeCell ref="C1119:C1135"/>
+    <mergeCell ref="D1000:D1016"/>
+    <mergeCell ref="E1000:E1016"/>
+    <mergeCell ref="D1017:D1033"/>
+    <mergeCell ref="E1017:E1033"/>
+    <mergeCell ref="D1034:D1050"/>
+    <mergeCell ref="E1034:E1050"/>
+    <mergeCell ref="D1051:D1067"/>
+    <mergeCell ref="E1051:E1067"/>
+    <mergeCell ref="D983:D999"/>
+    <mergeCell ref="E983:E999"/>
+    <mergeCell ref="D586:D589"/>
+    <mergeCell ref="E586:E589"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="F11:F17"/>
+    <mergeCell ref="A42:A59"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="B60:B65"/>
+    <mergeCell ref="F42:F59"/>
+    <mergeCell ref="F60:F65"/>
+    <mergeCell ref="B42:B59"/>
+    <mergeCell ref="E149:E173"/>
+    <mergeCell ref="D149:D173"/>
+    <mergeCell ref="E174:E194"/>
+    <mergeCell ref="D174:D194"/>
+    <mergeCell ref="C149:C173"/>
+    <mergeCell ref="C124:C148"/>
+    <mergeCell ref="C99:C123"/>
+    <mergeCell ref="C73:C98"/>
+    <mergeCell ref="D195:D220"/>
+    <mergeCell ref="E221:E243"/>
+    <mergeCell ref="D221:D243"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="A26:A41"/>
+    <mergeCell ref="B26:B41"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="F18:F25"/>
+    <mergeCell ref="F26:F41"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="E244:E270"/>
+    <mergeCell ref="D244:D270"/>
+    <mergeCell ref="E195:E220"/>
+    <mergeCell ref="E73:E98"/>
+    <mergeCell ref="D73:D98"/>
+    <mergeCell ref="E99:E123"/>
+    <mergeCell ref="D99:D123"/>
+    <mergeCell ref="E124:E148"/>
+    <mergeCell ref="D124:D148"/>
+    <mergeCell ref="E304:E308"/>
+    <mergeCell ref="D304:D308"/>
+    <mergeCell ref="E309:E313"/>
+    <mergeCell ref="D309:D313"/>
+    <mergeCell ref="E271:E278"/>
+    <mergeCell ref="D271:D278"/>
+    <mergeCell ref="E279:E288"/>
+    <mergeCell ref="D279:D288"/>
+    <mergeCell ref="E289:E294"/>
+    <mergeCell ref="D289:D294"/>
+    <mergeCell ref="D324:D328"/>
+    <mergeCell ref="E329:E333"/>
+    <mergeCell ref="D329:D333"/>
+    <mergeCell ref="E334:E338"/>
+    <mergeCell ref="D334:D338"/>
+    <mergeCell ref="E314:E315"/>
+    <mergeCell ref="D314:D315"/>
+    <mergeCell ref="E316:E318"/>
+    <mergeCell ref="D316:D318"/>
+    <mergeCell ref="E319:E323"/>
+    <mergeCell ref="D319:D323"/>
+    <mergeCell ref="E324:E328"/>
+    <mergeCell ref="E362:E367"/>
+    <mergeCell ref="D362:D367"/>
+    <mergeCell ref="E368:E370"/>
+    <mergeCell ref="D368:D370"/>
+    <mergeCell ref="E371:E379"/>
+    <mergeCell ref="D371:D379"/>
+    <mergeCell ref="E380:E394"/>
+    <mergeCell ref="E339:E341"/>
+    <mergeCell ref="D339:D341"/>
+    <mergeCell ref="E342:E345"/>
+    <mergeCell ref="D342:D345"/>
+    <mergeCell ref="E346:E350"/>
+    <mergeCell ref="D346:D350"/>
+    <mergeCell ref="E351:E355"/>
+    <mergeCell ref="D351:D355"/>
+    <mergeCell ref="E356:E361"/>
+    <mergeCell ref="D356:D361"/>
+    <mergeCell ref="E489:E501"/>
+    <mergeCell ref="E518:E523"/>
+    <mergeCell ref="D518:D523"/>
+    <mergeCell ref="E524:E530"/>
+    <mergeCell ref="D524:D530"/>
+    <mergeCell ref="E410:E424"/>
+    <mergeCell ref="D410:D424"/>
+    <mergeCell ref="D380:D394"/>
+    <mergeCell ref="E395:E409"/>
+    <mergeCell ref="D395:D409"/>
+    <mergeCell ref="E425:E437"/>
+    <mergeCell ref="D425:D437"/>
+    <mergeCell ref="E438:E450"/>
+    <mergeCell ref="D438:D450"/>
+    <mergeCell ref="E451:E463"/>
+    <mergeCell ref="D451:D463"/>
+    <mergeCell ref="E464:E475"/>
+    <mergeCell ref="D464:D475"/>
+    <mergeCell ref="E476:E488"/>
+    <mergeCell ref="D476:D488"/>
+    <mergeCell ref="F560:F583"/>
+    <mergeCell ref="B560:B583"/>
+    <mergeCell ref="E571:E583"/>
+    <mergeCell ref="D571:D583"/>
+    <mergeCell ref="E538:E548"/>
+    <mergeCell ref="D538:D548"/>
+    <mergeCell ref="E549:E556"/>
+    <mergeCell ref="D549:D556"/>
+    <mergeCell ref="E557:E559"/>
+    <mergeCell ref="D557:D559"/>
+    <mergeCell ref="F66:F559"/>
+    <mergeCell ref="C271:C278"/>
+    <mergeCell ref="C244:C270"/>
+    <mergeCell ref="C221:C243"/>
+    <mergeCell ref="C195:C220"/>
+    <mergeCell ref="C174:C194"/>
+    <mergeCell ref="C314:C315"/>
+    <mergeCell ref="C309:C313"/>
+    <mergeCell ref="C304:C308"/>
+    <mergeCell ref="C289:C294"/>
+    <mergeCell ref="E562:E565"/>
+    <mergeCell ref="D562:D565"/>
+    <mergeCell ref="C561:C565"/>
+    <mergeCell ref="D489:D501"/>
+    <mergeCell ref="A560:A583"/>
+    <mergeCell ref="C571:C583"/>
+    <mergeCell ref="C557:C559"/>
+    <mergeCell ref="C549:C556"/>
+    <mergeCell ref="B66:B559"/>
+    <mergeCell ref="A66:A559"/>
+    <mergeCell ref="C334:C338"/>
+    <mergeCell ref="C329:C333"/>
+    <mergeCell ref="C324:C328"/>
+    <mergeCell ref="C464:C475"/>
+    <mergeCell ref="C451:C463"/>
+    <mergeCell ref="C438:C450"/>
+    <mergeCell ref="C425:C437"/>
+    <mergeCell ref="C410:C424"/>
+    <mergeCell ref="C511:C517"/>
+    <mergeCell ref="C505:C510"/>
+    <mergeCell ref="C502:C504"/>
+    <mergeCell ref="C489:C501"/>
+    <mergeCell ref="C476:C488"/>
+    <mergeCell ref="C319:C323"/>
+    <mergeCell ref="C279:C288"/>
+    <mergeCell ref="F584:F706"/>
+    <mergeCell ref="C316:C318"/>
+    <mergeCell ref="C356:C361"/>
+    <mergeCell ref="C351:C355"/>
+    <mergeCell ref="C346:C350"/>
+    <mergeCell ref="C342:C345"/>
+    <mergeCell ref="C339:C341"/>
+    <mergeCell ref="C395:C409"/>
+    <mergeCell ref="C380:C394"/>
+    <mergeCell ref="C371:C379"/>
+    <mergeCell ref="C368:C370"/>
+    <mergeCell ref="C362:C367"/>
+    <mergeCell ref="C538:C548"/>
+    <mergeCell ref="C531:C537"/>
+    <mergeCell ref="C524:C530"/>
+    <mergeCell ref="C518:C523"/>
+    <mergeCell ref="E531:E537"/>
+    <mergeCell ref="D531:D537"/>
+    <mergeCell ref="E502:E504"/>
+    <mergeCell ref="D502:D504"/>
+    <mergeCell ref="E505:E510"/>
+    <mergeCell ref="D505:D510"/>
+    <mergeCell ref="E511:E517"/>
+    <mergeCell ref="D511:D517"/>
+    <mergeCell ref="E591:E612"/>
+    <mergeCell ref="D591:D612"/>
+    <mergeCell ref="E613:E620"/>
+    <mergeCell ref="D613:D620"/>
+    <mergeCell ref="D621:D628"/>
+    <mergeCell ref="E621:E628"/>
+    <mergeCell ref="E629:E638"/>
+    <mergeCell ref="D629:D638"/>
+    <mergeCell ref="D639:D648"/>
+    <mergeCell ref="C679:C688"/>
+    <mergeCell ref="C689:C698"/>
+    <mergeCell ref="C699:C706"/>
+    <mergeCell ref="D649:D658"/>
+    <mergeCell ref="E639:E648"/>
+    <mergeCell ref="D659:D668"/>
+    <mergeCell ref="E659:E668"/>
+    <mergeCell ref="D669:D678"/>
+    <mergeCell ref="E669:E678"/>
+    <mergeCell ref="D679:D688"/>
+    <mergeCell ref="E679:E688"/>
+    <mergeCell ref="D689:D698"/>
+    <mergeCell ref="E689:E698"/>
+    <mergeCell ref="E649:E658"/>
     <mergeCell ref="B584:B706"/>
     <mergeCell ref="A584:A706"/>
     <mergeCell ref="D709:D712"/>
@@ -15567,250 +15738,47 @@
     <mergeCell ref="C649:C658"/>
     <mergeCell ref="C659:C668"/>
     <mergeCell ref="C669:C678"/>
-    <mergeCell ref="C679:C688"/>
-    <mergeCell ref="C689:C698"/>
-    <mergeCell ref="C699:C706"/>
-    <mergeCell ref="D649:D658"/>
-    <mergeCell ref="E639:E648"/>
-    <mergeCell ref="D659:D668"/>
-    <mergeCell ref="E659:E668"/>
-    <mergeCell ref="D669:D678"/>
-    <mergeCell ref="E669:E678"/>
-    <mergeCell ref="D679:D688"/>
-    <mergeCell ref="E679:E688"/>
-    <mergeCell ref="D689:D698"/>
-    <mergeCell ref="E689:E698"/>
-    <mergeCell ref="E649:E658"/>
-    <mergeCell ref="E591:E612"/>
-    <mergeCell ref="D591:D612"/>
-    <mergeCell ref="E613:E620"/>
-    <mergeCell ref="D613:D620"/>
-    <mergeCell ref="D621:D628"/>
-    <mergeCell ref="E621:E628"/>
-    <mergeCell ref="E629:E638"/>
-    <mergeCell ref="D629:D638"/>
-    <mergeCell ref="D639:D648"/>
-    <mergeCell ref="F584:F706"/>
-    <mergeCell ref="C316:C318"/>
-    <mergeCell ref="C356:C361"/>
-    <mergeCell ref="C351:C355"/>
-    <mergeCell ref="C346:C350"/>
-    <mergeCell ref="C342:C345"/>
-    <mergeCell ref="C339:C341"/>
-    <mergeCell ref="C395:C409"/>
-    <mergeCell ref="C380:C394"/>
-    <mergeCell ref="C371:C379"/>
-    <mergeCell ref="C368:C370"/>
-    <mergeCell ref="C362:C367"/>
-    <mergeCell ref="C538:C548"/>
-    <mergeCell ref="C531:C537"/>
-    <mergeCell ref="C524:C530"/>
-    <mergeCell ref="C518:C523"/>
-    <mergeCell ref="E531:E537"/>
-    <mergeCell ref="D531:D537"/>
-    <mergeCell ref="E502:E504"/>
-    <mergeCell ref="D502:D504"/>
-    <mergeCell ref="E505:E510"/>
-    <mergeCell ref="D505:D510"/>
-    <mergeCell ref="E511:E517"/>
-    <mergeCell ref="D511:D517"/>
-    <mergeCell ref="A560:A583"/>
-    <mergeCell ref="C571:C583"/>
-    <mergeCell ref="C557:C559"/>
-    <mergeCell ref="C549:C556"/>
-    <mergeCell ref="B66:B559"/>
-    <mergeCell ref="A66:A559"/>
-    <mergeCell ref="C334:C338"/>
-    <mergeCell ref="C329:C333"/>
-    <mergeCell ref="C324:C328"/>
-    <mergeCell ref="C464:C475"/>
-    <mergeCell ref="C451:C463"/>
-    <mergeCell ref="C438:C450"/>
-    <mergeCell ref="C425:C437"/>
-    <mergeCell ref="C410:C424"/>
-    <mergeCell ref="C511:C517"/>
-    <mergeCell ref="C505:C510"/>
-    <mergeCell ref="C502:C504"/>
-    <mergeCell ref="C489:C501"/>
-    <mergeCell ref="C476:C488"/>
-    <mergeCell ref="C319:C323"/>
-    <mergeCell ref="C279:C288"/>
-    <mergeCell ref="F560:F583"/>
-    <mergeCell ref="B560:B583"/>
-    <mergeCell ref="E571:E583"/>
-    <mergeCell ref="D571:D583"/>
-    <mergeCell ref="E538:E548"/>
-    <mergeCell ref="D538:D548"/>
-    <mergeCell ref="E549:E556"/>
-    <mergeCell ref="D549:D556"/>
-    <mergeCell ref="E557:E559"/>
-    <mergeCell ref="D557:D559"/>
-    <mergeCell ref="F66:F559"/>
-    <mergeCell ref="C271:C278"/>
-    <mergeCell ref="C244:C270"/>
-    <mergeCell ref="C221:C243"/>
-    <mergeCell ref="C195:C220"/>
-    <mergeCell ref="C174:C194"/>
-    <mergeCell ref="C314:C315"/>
-    <mergeCell ref="C309:C313"/>
-    <mergeCell ref="C304:C308"/>
-    <mergeCell ref="C289:C294"/>
-    <mergeCell ref="E562:E565"/>
-    <mergeCell ref="D562:D565"/>
-    <mergeCell ref="C561:C565"/>
-    <mergeCell ref="D489:D501"/>
-    <mergeCell ref="E425:E437"/>
-    <mergeCell ref="D425:D437"/>
-    <mergeCell ref="E438:E450"/>
-    <mergeCell ref="D438:D450"/>
-    <mergeCell ref="E451:E463"/>
-    <mergeCell ref="D451:D463"/>
-    <mergeCell ref="E464:E475"/>
-    <mergeCell ref="D464:D475"/>
-    <mergeCell ref="E476:E488"/>
-    <mergeCell ref="D476:D488"/>
-    <mergeCell ref="E489:E501"/>
-    <mergeCell ref="E518:E523"/>
-    <mergeCell ref="D518:D523"/>
-    <mergeCell ref="E524:E530"/>
-    <mergeCell ref="D524:D530"/>
-    <mergeCell ref="E410:E424"/>
-    <mergeCell ref="D410:D424"/>
-    <mergeCell ref="D380:D394"/>
-    <mergeCell ref="E395:E409"/>
-    <mergeCell ref="D395:D409"/>
-    <mergeCell ref="E362:E367"/>
-    <mergeCell ref="D362:D367"/>
-    <mergeCell ref="E368:E370"/>
-    <mergeCell ref="D368:D370"/>
-    <mergeCell ref="E371:E379"/>
-    <mergeCell ref="D371:D379"/>
-    <mergeCell ref="E380:E394"/>
-    <mergeCell ref="E339:E341"/>
-    <mergeCell ref="D339:D341"/>
-    <mergeCell ref="E342:E345"/>
-    <mergeCell ref="D342:D345"/>
-    <mergeCell ref="E346:E350"/>
-    <mergeCell ref="D346:D350"/>
-    <mergeCell ref="E351:E355"/>
-    <mergeCell ref="D351:D355"/>
-    <mergeCell ref="E356:E361"/>
-    <mergeCell ref="D356:D361"/>
-    <mergeCell ref="D324:D328"/>
-    <mergeCell ref="E329:E333"/>
-    <mergeCell ref="D329:D333"/>
-    <mergeCell ref="E334:E338"/>
-    <mergeCell ref="D334:D338"/>
-    <mergeCell ref="E314:E315"/>
-    <mergeCell ref="D314:D315"/>
-    <mergeCell ref="E316:E318"/>
-    <mergeCell ref="D316:D318"/>
-    <mergeCell ref="E319:E323"/>
-    <mergeCell ref="D319:D323"/>
-    <mergeCell ref="E324:E328"/>
-    <mergeCell ref="E304:E308"/>
-    <mergeCell ref="D304:D308"/>
-    <mergeCell ref="E309:E313"/>
-    <mergeCell ref="D309:D313"/>
-    <mergeCell ref="E271:E278"/>
-    <mergeCell ref="D271:D278"/>
-    <mergeCell ref="E279:E288"/>
-    <mergeCell ref="D279:D288"/>
-    <mergeCell ref="E289:E294"/>
-    <mergeCell ref="D289:D294"/>
-    <mergeCell ref="E244:E270"/>
-    <mergeCell ref="D244:D270"/>
-    <mergeCell ref="E195:E220"/>
-    <mergeCell ref="E73:E98"/>
-    <mergeCell ref="D73:D98"/>
-    <mergeCell ref="E99:E123"/>
-    <mergeCell ref="D99:D123"/>
-    <mergeCell ref="E124:E148"/>
-    <mergeCell ref="D124:D148"/>
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="A26:A41"/>
-    <mergeCell ref="B26:B41"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A11:A17"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="F18:F25"/>
-    <mergeCell ref="F26:F41"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="D983:D999"/>
-    <mergeCell ref="E983:E999"/>
-    <mergeCell ref="D586:D589"/>
-    <mergeCell ref="E586:E589"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="F11:F17"/>
-    <mergeCell ref="A42:A59"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="B60:B65"/>
-    <mergeCell ref="F42:F59"/>
-    <mergeCell ref="F60:F65"/>
-    <mergeCell ref="B42:B59"/>
-    <mergeCell ref="E149:E173"/>
-    <mergeCell ref="D149:D173"/>
-    <mergeCell ref="E174:E194"/>
-    <mergeCell ref="D174:D194"/>
-    <mergeCell ref="C149:C173"/>
-    <mergeCell ref="C124:C148"/>
-    <mergeCell ref="C99:C123"/>
-    <mergeCell ref="C73:C98"/>
-    <mergeCell ref="D195:D220"/>
-    <mergeCell ref="E221:E243"/>
-    <mergeCell ref="D221:D243"/>
-    <mergeCell ref="F891:F1135"/>
-    <mergeCell ref="C893:C896"/>
-    <mergeCell ref="C898:C914"/>
-    <mergeCell ref="C915:C931"/>
-    <mergeCell ref="C932:C948"/>
-    <mergeCell ref="C949:C965"/>
-    <mergeCell ref="C966:C982"/>
-    <mergeCell ref="C983:C999"/>
-    <mergeCell ref="C1000:C1016"/>
-    <mergeCell ref="C1017:C1033"/>
-    <mergeCell ref="C1034:C1050"/>
-    <mergeCell ref="C1051:C1067"/>
-    <mergeCell ref="C1068:C1084"/>
-    <mergeCell ref="C1085:C1101"/>
-    <mergeCell ref="C1102:C1118"/>
-    <mergeCell ref="C1119:C1135"/>
-    <mergeCell ref="D1000:D1016"/>
-    <mergeCell ref="E1000:E1016"/>
-    <mergeCell ref="D1017:D1033"/>
-    <mergeCell ref="E1017:E1033"/>
-    <mergeCell ref="D1034:D1050"/>
-    <mergeCell ref="E1034:E1050"/>
-    <mergeCell ref="D1051:D1067"/>
-    <mergeCell ref="E1051:E1067"/>
-    <mergeCell ref="B891:B1135"/>
-    <mergeCell ref="A891:A1135"/>
-    <mergeCell ref="D1138:D1141"/>
-    <mergeCell ref="E1138:E1141"/>
-    <mergeCell ref="D1143:D1159"/>
-    <mergeCell ref="E1143:E1159"/>
-    <mergeCell ref="D1160:D1176"/>
-    <mergeCell ref="E1160:E1176"/>
-    <mergeCell ref="D1085:D1101"/>
-    <mergeCell ref="E1085:E1101"/>
-    <mergeCell ref="D1102:D1118"/>
-    <mergeCell ref="E1102:E1118"/>
-    <mergeCell ref="D1119:D1135"/>
-    <mergeCell ref="E1119:E1135"/>
-    <mergeCell ref="D1068:D1084"/>
-    <mergeCell ref="E1068:E1084"/>
-    <mergeCell ref="D915:D931"/>
-    <mergeCell ref="E915:E931"/>
-    <mergeCell ref="D932:D948"/>
-    <mergeCell ref="E932:E948"/>
-    <mergeCell ref="D949:D965"/>
-    <mergeCell ref="E949:E965"/>
-    <mergeCell ref="D966:D982"/>
-    <mergeCell ref="E966:E982"/>
+    <mergeCell ref="F707:F890"/>
+    <mergeCell ref="D747:D762"/>
+    <mergeCell ref="E747:E762"/>
+    <mergeCell ref="D763:D778"/>
+    <mergeCell ref="E763:E778"/>
+    <mergeCell ref="D779:D794"/>
+    <mergeCell ref="E779:E794"/>
+    <mergeCell ref="D795:D810"/>
+    <mergeCell ref="E795:E810"/>
+    <mergeCell ref="D811:D826"/>
+    <mergeCell ref="E811:E826"/>
+    <mergeCell ref="D893:D896"/>
+    <mergeCell ref="E893:E896"/>
+    <mergeCell ref="D898:D914"/>
+    <mergeCell ref="E898:E914"/>
+    <mergeCell ref="C747:C762"/>
+    <mergeCell ref="C763:C778"/>
+    <mergeCell ref="C779:C794"/>
+    <mergeCell ref="C795:C810"/>
+    <mergeCell ref="C811:C826"/>
+    <mergeCell ref="C827:C842"/>
+    <mergeCell ref="C843:C858"/>
+    <mergeCell ref="C859:C874"/>
+    <mergeCell ref="C875:C890"/>
+    <mergeCell ref="D827:D842"/>
+    <mergeCell ref="E827:E842"/>
+    <mergeCell ref="D843:D858"/>
+    <mergeCell ref="E843:E858"/>
+    <mergeCell ref="D859:D874"/>
+    <mergeCell ref="E859:E874"/>
+    <mergeCell ref="D875:D890"/>
+    <mergeCell ref="E875:E890"/>
+    <mergeCell ref="F1136:F1261"/>
+    <mergeCell ref="C1138:C1141"/>
+    <mergeCell ref="C1143:C1159"/>
+    <mergeCell ref="C1160:C1176"/>
+    <mergeCell ref="C1177:C1193"/>
+    <mergeCell ref="C1194:C1210"/>
+    <mergeCell ref="C1211:C1227"/>
+    <mergeCell ref="C1228:C1244"/>
+    <mergeCell ref="C1245:C1261"/>
     <mergeCell ref="D1245:D1261"/>
     <mergeCell ref="E1245:E1261"/>
     <mergeCell ref="D1177:D1193"/>
@@ -15821,6 +15789,38 @@
     <mergeCell ref="E1211:E1227"/>
     <mergeCell ref="D1228:D1244"/>
     <mergeCell ref="E1228:E1244"/>
+    <mergeCell ref="B1136:B1261"/>
+    <mergeCell ref="A1136:A1261"/>
+    <mergeCell ref="D1264:D1267"/>
+    <mergeCell ref="E1264:E1267"/>
+    <mergeCell ref="D1269:D1285"/>
+    <mergeCell ref="E1269:E1285"/>
+    <mergeCell ref="D1286:D1302"/>
+    <mergeCell ref="E1286:E1302"/>
+    <mergeCell ref="B1262:B1404"/>
+    <mergeCell ref="A1262:A1404"/>
+    <mergeCell ref="D1388:D1404"/>
+    <mergeCell ref="E1388:E1404"/>
+    <mergeCell ref="F1262:F1404"/>
+    <mergeCell ref="C1264:C1267"/>
+    <mergeCell ref="C1269:C1285"/>
+    <mergeCell ref="C1286:C1302"/>
+    <mergeCell ref="C1303:C1319"/>
+    <mergeCell ref="C1320:C1336"/>
+    <mergeCell ref="C1337:C1353"/>
+    <mergeCell ref="C1354:C1370"/>
+    <mergeCell ref="C1371:C1387"/>
+    <mergeCell ref="C1388:C1404"/>
+    <mergeCell ref="D1303:D1319"/>
+    <mergeCell ref="E1303:E1319"/>
+    <mergeCell ref="D1320:D1336"/>
+    <mergeCell ref="E1320:E1336"/>
+    <mergeCell ref="D1337:D1353"/>
+    <mergeCell ref="E1337:E1353"/>
+    <mergeCell ref="D1354:D1370"/>
+    <mergeCell ref="E1354:E1370"/>
+    <mergeCell ref="D1371:D1387"/>
+    <mergeCell ref="E1371:E1387"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
